--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.921325081034003</v>
+        <v>0.9213250810340013</v>
       </c>
       <c r="D2">
-        <v>1.020814528064894</v>
+        <v>1.020814528064893</v>
       </c>
       <c r="E2">
-        <v>0.9366033076916719</v>
+        <v>0.9366033076916703</v>
       </c>
       <c r="F2">
-        <v>0.9461483344714069</v>
+        <v>0.9461483344714058</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036527767980505</v>
       </c>
       <c r="J2">
-        <v>0.9461436683799914</v>
+        <v>0.94614366837999</v>
       </c>
       <c r="K2">
         <v>1.031991303955449</v>
       </c>
       <c r="L2">
-        <v>0.9490227056711309</v>
+        <v>0.9490227056711296</v>
       </c>
       <c r="M2">
-        <v>0.9584126361633339</v>
+        <v>0.9584126361633327</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9376519841000293</v>
+        <v>0.9376519841000301</v>
       </c>
       <c r="D3">
         <v>1.025125495897181</v>
       </c>
       <c r="E3">
-        <v>0.9505908435593097</v>
+        <v>0.9505908435593104</v>
       </c>
       <c r="F3">
-        <v>0.960998454754773</v>
+        <v>0.9609984547547742</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039877413330979</v>
       </c>
       <c r="J3">
-        <v>0.9599997409700035</v>
+        <v>0.9599997409700043</v>
       </c>
       <c r="K3">
         <v>1.035446676037857</v>
       </c>
       <c r="L3">
-        <v>0.9618975546665088</v>
+        <v>0.9618975546665095</v>
       </c>
       <c r="M3">
-        <v>0.9721559495304348</v>
+        <v>0.9721559495304359</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9475317245144081</v>
+        <v>0.9475317245144078</v>
       </c>
       <c r="D4">
         <v>1.027771166739764</v>
       </c>
       <c r="E4">
-        <v>0.9590659877664437</v>
+        <v>0.9590659877664436</v>
       </c>
       <c r="F4">
-        <v>0.970004927945937</v>
+        <v>0.9700049279459366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041893726536525</v>
+        <v>1.041893726536524</v>
       </c>
       <c r="J4">
-        <v>0.9683799527220737</v>
+        <v>0.9683799527220734</v>
       </c>
       <c r="K4">
         <v>1.03754558521272</v>
       </c>
       <c r="L4">
-        <v>0.9696849157471973</v>
+        <v>0.969684915747197</v>
       </c>
       <c r="M4">
-        <v>0.9804793750909665</v>
+        <v>0.9804793750909661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515414915077641</v>
+        <v>0.9515414915077642</v>
       </c>
       <c r="D5">
         <v>1.028852547122117</v>
       </c>
       <c r="E5">
-        <v>0.9625078416041121</v>
+        <v>0.9625078416041122</v>
       </c>
       <c r="F5">
-        <v>0.9736643213208439</v>
+        <v>0.9736643213208444</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042708991070738</v>
+        <v>1.042708991070739</v>
       </c>
       <c r="J5">
         <v>0.9717797653293035</v>
@@ -559,10 +559,10 @@
         <v>1.038398592169837</v>
       </c>
       <c r="L5">
-        <v>0.9728442862598635</v>
+        <v>0.9728442862598634</v>
       </c>
       <c r="M5">
-        <v>0.9838584616769084</v>
+        <v>0.9838584616769086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9522068350035526</v>
+        <v>0.9522068350035541</v>
       </c>
       <c r="D6">
         <v>1.029032396598741</v>
       </c>
       <c r="E6">
-        <v>0.9630790652716013</v>
+        <v>0.9630790652716027</v>
       </c>
       <c r="F6">
-        <v>0.9742717441344291</v>
+        <v>0.97427174413443</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042844073869835</v>
       </c>
       <c r="J6">
-        <v>0.9723438107276003</v>
+        <v>0.972343810727602</v>
       </c>
       <c r="K6">
-        <v>1.038540179681894</v>
+        <v>1.038540179681895</v>
       </c>
       <c r="L6">
-        <v>0.9733684438259231</v>
+        <v>0.9733684438259248</v>
       </c>
       <c r="M6">
-        <v>0.9844191937943715</v>
+        <v>0.9844191937943725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.947585844121235</v>
+        <v>0.9475858441212347</v>
       </c>
       <c r="D7">
         <v>1.027785733267678</v>
       </c>
       <c r="E7">
-        <v>0.9591124342784432</v>
+        <v>0.9591124342784428</v>
       </c>
       <c r="F7">
-        <v>0.9700543034413736</v>
+        <v>0.9700543034413732</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041904742992861</v>
       </c>
       <c r="J7">
-        <v>0.9684258455910114</v>
+        <v>0.968425845591011</v>
       </c>
       <c r="K7">
-        <v>1.03755709455938</v>
+        <v>1.037557094559379</v>
       </c>
       <c r="L7">
-        <v>0.9697275627560387</v>
+        <v>0.9697275627560384</v>
       </c>
       <c r="M7">
-        <v>0.980524979479689</v>
+        <v>0.9805249794796886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.022303618025854</v>
       </c>
       <c r="E8">
-        <v>0.9414609661339735</v>
+        <v>0.941460966133973</v>
       </c>
       <c r="F8">
-        <v>0.9513034515850486</v>
+        <v>0.9513034515850488</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.03318971561705</v>
       </c>
       <c r="L8">
-        <v>0.9534969524683417</v>
+        <v>0.9534969524683414</v>
       </c>
       <c r="M8">
-        <v>0.963186111037979</v>
+        <v>0.9631861110379794</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8842324502117993</v>
+        <v>0.8842324502117985</v>
       </c>
       <c r="D9">
         <v>1.011326304660359</v>
       </c>
       <c r="E9">
-        <v>0.9049254343786162</v>
+        <v>0.9049254343786154</v>
       </c>
       <c r="F9">
-        <v>0.9125911811169077</v>
+        <v>0.912591181116907</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028885661326085</v>
       </c>
       <c r="J9">
-        <v>0.914658471022552</v>
+        <v>0.9146584710225515</v>
       </c>
       <c r="K9">
         <v>1.024238254906259</v>
       </c>
       <c r="L9">
-        <v>0.9197755835324648</v>
+        <v>0.9197755835324641</v>
       </c>
       <c r="M9">
-        <v>0.9272817465474629</v>
+        <v>0.9272817465474625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8486973736715178</v>
+        <v>0.8486973736715193</v>
       </c>
       <c r="D10">
         <v>1.002668753127862</v>
       </c>
       <c r="E10">
-        <v>0.8747376831645515</v>
+        <v>0.8747376831645529</v>
       </c>
       <c r="F10">
-        <v>0.8807244388252481</v>
+        <v>0.8807244388252491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021594144610825</v>
+        <v>1.021594144610826</v>
       </c>
       <c r="J10">
-        <v>0.8845316476844771</v>
+        <v>0.8845316476844786</v>
       </c>
       <c r="K10">
         <v>1.016989989017338</v>
       </c>
       <c r="L10">
-        <v>0.8918082163386883</v>
+        <v>0.8918082163386895</v>
       </c>
       <c r="M10">
-        <v>0.8976422195242445</v>
+        <v>0.8976422195242457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.830522081357817</v>
+        <v>0.8305220813578175</v>
       </c>
       <c r="D11">
-        <v>0.9984150179814367</v>
+        <v>0.9984150179814373</v>
       </c>
       <c r="E11">
-        <v>0.8593700850075155</v>
+        <v>0.859370085007516</v>
       </c>
       <c r="F11">
-        <v>0.8645509918334693</v>
+        <v>0.8645509918334698</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017898067623639</v>
       </c>
       <c r="J11">
-        <v>0.8691517332654825</v>
+        <v>0.869151733265483</v>
       </c>
       <c r="K11">
-        <v>1.013366886769616</v>
+        <v>1.013366886769617</v>
       </c>
       <c r="L11">
-        <v>0.8775402522412661</v>
+        <v>0.8775402522412667</v>
       </c>
       <c r="M11">
-        <v>0.8825758441526067</v>
+        <v>0.8825758441526071</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8231725740974987</v>
+        <v>0.8231725740974989</v>
       </c>
       <c r="D12">
-        <v>0.9967296494773548</v>
+        <v>0.9967296494773549</v>
       </c>
       <c r="E12">
-        <v>0.8531715859999737</v>
+        <v>0.853171585999974</v>
       </c>
       <c r="F12">
-        <v>0.8580378079849668</v>
+        <v>0.8580378079849669</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016412282987191</v>
       </c>
       <c r="J12">
-        <v>0.8629401073857418</v>
+        <v>0.862940107385742</v>
       </c>
       <c r="K12">
         <v>1.01191977359544</v>
       </c>
       <c r="L12">
-        <v>0.8717799269382552</v>
+        <v>0.8717799269382555</v>
       </c>
       <c r="M12">
-        <v>0.8765045483805044</v>
+        <v>0.8765045483805046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8247804572004833</v>
+        <v>0.8247804572004828</v>
       </c>
       <c r="D13">
-        <v>0.9970966358359192</v>
+        <v>0.9970966358359188</v>
       </c>
       <c r="E13">
-        <v>0.854526852453641</v>
+        <v>0.8545268524536405</v>
       </c>
       <c r="F13">
-        <v>0.8594613485262115</v>
+        <v>0.8594613485262107</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016736860219071</v>
       </c>
       <c r="J13">
-        <v>0.8642986447517685</v>
+        <v>0.864298644751768</v>
       </c>
       <c r="K13">
-        <v>1.012235450242238</v>
+        <v>1.012235450242237</v>
       </c>
       <c r="L13">
-        <v>0.8730396447079591</v>
+        <v>0.8730396447079586</v>
       </c>
       <c r="M13">
-        <v>0.8778316940689047</v>
+        <v>0.8778316940689042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,25 +877,25 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8299282696833423</v>
+        <v>0.8299282696833427</v>
       </c>
       <c r="D14">
-        <v>0.9982780973695041</v>
+        <v>0.9982780973695046</v>
       </c>
       <c r="E14">
         <v>0.8588689235509855</v>
       </c>
       <c r="F14">
-        <v>0.8640241590106843</v>
+        <v>0.8640241590106846</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017777819702365</v>
+        <v>1.017777819702366</v>
       </c>
       <c r="J14">
-        <v>0.8686496847376119</v>
+        <v>0.8686496847376123</v>
       </c>
       <c r="K14">
         <v>1.013249571070918</v>
@@ -904,7 +904,7 @@
         <v>0.8770746298565298</v>
       </c>
       <c r="M14">
-        <v>0.8820848358025345</v>
+        <v>0.8820848358025348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8330132521934528</v>
+        <v>0.8330132521934512</v>
       </c>
       <c r="D15">
-        <v>0.998990858669095</v>
+        <v>0.9989908586690944</v>
       </c>
       <c r="E15">
-        <v>0.8614732201051304</v>
+        <v>0.8614732201051288</v>
       </c>
       <c r="F15">
-        <v>0.8667622880692256</v>
+        <v>0.8667622880692244</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018402907663885</v>
       </c>
       <c r="J15">
-        <v>0.8712582568914873</v>
+        <v>0.8712582568914856</v>
       </c>
       <c r="K15">
-        <v>1.013859797443348</v>
+        <v>1.013859797443347</v>
       </c>
       <c r="L15">
-        <v>0.8794940297647379</v>
+        <v>0.8794940297647367</v>
       </c>
       <c r="M15">
-        <v>0.8846366141034279</v>
+        <v>0.8846366141034265</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8498320394662426</v>
+        <v>0.849832039466245</v>
       </c>
       <c r="D16">
-        <v>1.002938305555656</v>
+        <v>1.002938305555657</v>
       </c>
       <c r="E16">
-        <v>0.87569880764814</v>
+        <v>0.8756988076481419</v>
       </c>
       <c r="F16">
-        <v>0.8817371232931888</v>
+        <v>0.8817371232931908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021825799347446</v>
+        <v>1.021825799347447</v>
       </c>
       <c r="J16">
-        <v>0.8854925823999475</v>
+        <v>0.8854925823999495</v>
       </c>
       <c r="K16">
         <v>1.017218187468407</v>
       </c>
       <c r="L16">
-        <v>0.8926999150435713</v>
+        <v>0.8926999150435729</v>
       </c>
       <c r="M16">
-        <v>0.8985850994017912</v>
+        <v>0.8985850994017931</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8595403681824606</v>
+        <v>0.8595403681824598</v>
       </c>
       <c r="D17">
         <v>1.005263505704371</v>
       </c>
       <c r="E17">
-        <v>0.8839302065159226</v>
+        <v>0.8839302065159219</v>
       </c>
       <c r="F17">
-        <v>0.8904154215835367</v>
+        <v>0.8904154215835364</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023811611383553</v>
       </c>
       <c r="J17">
-        <v>0.8937176956261184</v>
+        <v>0.8937176956261176</v>
       </c>
       <c r="K17">
         <v>1.019179871738709</v>
       </c>
       <c r="L17">
-        <v>0.9003334494272391</v>
+        <v>0.9003334494272383</v>
       </c>
       <c r="M17">
-        <v>0.9066627162430324</v>
+        <v>0.906662716243032</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1035,7 +1035,7 @@
         <v>1.006573611346503</v>
       </c>
       <c r="E18">
-        <v>0.8885226394766742</v>
+        <v>0.8885226394766743</v>
       </c>
       <c r="F18">
         <v>0.8952612166042282</v>
@@ -1047,13 +1047,13 @@
         <v>1.024920711130118</v>
       </c>
       <c r="J18">
-        <v>0.8983029721058501</v>
+        <v>0.8983029721058502</v>
       </c>
       <c r="K18">
-        <v>1.020279832291442</v>
+        <v>1.020279832291441</v>
       </c>
       <c r="L18">
-        <v>0.9045897072469212</v>
+        <v>0.9045897072469214</v>
       </c>
       <c r="M18">
         <v>0.9111711011210418</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8667550942209443</v>
+        <v>0.8667550942209457</v>
       </c>
       <c r="D19">
         <v>1.007013127194531</v>
       </c>
       <c r="E19">
-        <v>0.8900562126925494</v>
+        <v>0.890056212692551</v>
       </c>
       <c r="F19">
-        <v>0.8968800208051204</v>
+        <v>0.8968800208051213</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025291223625995</v>
       </c>
       <c r="J19">
-        <v>0.8998335688349796</v>
+        <v>0.8998335688349808</v>
       </c>
       <c r="K19">
         <v>1.02064799316198</v>
       </c>
       <c r="L19">
-        <v>0.9060105910293562</v>
+        <v>0.9060105910293577</v>
       </c>
       <c r="M19">
-        <v>0.9126768577934051</v>
+        <v>0.9126768577934059</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8585259077824605</v>
+        <v>0.8585259077824582</v>
       </c>
       <c r="D20">
         <v>1.005018964357761</v>
       </c>
       <c r="E20">
-        <v>0.8830694260129635</v>
+        <v>0.8830694260129612</v>
       </c>
       <c r="F20">
-        <v>0.8895074687224742</v>
+        <v>0.8895074687224725</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023603811156665</v>
       </c>
       <c r="J20">
-        <v>0.8928579645417869</v>
+        <v>0.8928579645417846</v>
       </c>
       <c r="K20">
-        <v>1.018974131720666</v>
+        <v>1.018974131720665</v>
       </c>
       <c r="L20">
-        <v>0.8995354683303302</v>
+        <v>0.8995354683303279</v>
       </c>
       <c r="M20">
-        <v>0.9058178212653025</v>
+        <v>0.905817821265301</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.828430963108808</v>
+        <v>0.8284309631088053</v>
       </c>
       <c r="D21">
         <v>0.9979334329968265</v>
       </c>
       <c r="E21">
-        <v>0.8576055041667808</v>
+        <v>0.8576055041667786</v>
       </c>
       <c r="F21">
-        <v>0.8626961992741086</v>
+        <v>0.8626961992741066</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017474767308279</v>
       </c>
       <c r="J21">
-        <v>0.8673838930530385</v>
+        <v>0.8673838930530363</v>
       </c>
       <c r="K21">
         <v>1.012954063179242</v>
       </c>
       <c r="L21">
-        <v>0.8759007159984733</v>
+        <v>0.8759007159984711</v>
       </c>
       <c r="M21">
-        <v>0.8808471128100374</v>
+        <v>0.8808471128100355</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8058352048967488</v>
+        <v>0.8058352048967479</v>
       </c>
       <c r="D22">
-        <v>0.9928347690965653</v>
+        <v>0.9928347690965652</v>
       </c>
       <c r="E22">
-        <v>0.8385881107235478</v>
+        <v>0.8385881107235471</v>
       </c>
       <c r="F22">
-        <v>0.8427392796709712</v>
+        <v>0.8427392796709707</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.012930760862256</v>
       </c>
       <c r="J22">
-        <v>0.8483071759769212</v>
+        <v>0.8483071759769202</v>
       </c>
       <c r="K22">
         <v>1.008549519629021</v>
       </c>
       <c r="L22">
-        <v>0.8582158071274053</v>
+        <v>0.8582158071274045</v>
       </c>
       <c r="M22">
-        <v>0.862235640803751</v>
+        <v>0.8622356408037503</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8182630779710437</v>
+        <v>0.8182630779710449</v>
       </c>
       <c r="D23">
-        <v>0.9956151243988859</v>
+        <v>0.9956151243988866</v>
       </c>
       <c r="E23">
-        <v>0.8490362832628821</v>
+        <v>0.8490362832628832</v>
       </c>
       <c r="F23">
-        <v>0.8536960551246329</v>
+        <v>0.8536960551246334</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015422935944203</v>
       </c>
       <c r="J23">
-        <v>0.858793435399572</v>
+        <v>0.858793435399573</v>
       </c>
       <c r="K23">
         <v>1.010959111328361</v>
       </c>
       <c r="L23">
-        <v>0.8679352989091871</v>
+        <v>0.8679352989091882</v>
       </c>
       <c r="M23">
-        <v>0.872456167793124</v>
+        <v>0.8724561677931247</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8589850698353103</v>
+        <v>0.8589850698353104</v>
       </c>
       <c r="D24">
         <v>1.005129602739937</v>
       </c>
       <c r="E24">
-        <v>0.883459011465257</v>
+        <v>0.8834590114652573</v>
       </c>
       <c r="F24">
-        <v>0.8899183916751183</v>
+        <v>0.8899183916751182</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023697857063394</v>
       </c>
       <c r="J24">
-        <v>0.8932470864181388</v>
+        <v>0.893247086418139</v>
       </c>
       <c r="K24">
         <v>1.019067231682132</v>
       </c>
       <c r="L24">
-        <v>0.8998966392381502</v>
+        <v>0.8998966392381506</v>
       </c>
       <c r="M24">
-        <v>0.9062002116362952</v>
+        <v>0.906200211636295</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8962697867701958</v>
+        <v>0.8962697867701961</v>
       </c>
       <c r="D25">
         <v>1.014356883498212</v>
       </c>
       <c r="E25">
-        <v>0.9151887636468459</v>
+        <v>0.9151887636468461</v>
       </c>
       <c r="F25">
-        <v>0.9234512581781127</v>
+        <v>0.923451258178113</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03136627771181</v>
       </c>
       <c r="J25">
-        <v>0.9248744619293338</v>
+        <v>0.924874461929334</v>
       </c>
       <c r="K25">
         <v>1.026736341729743</v>
       </c>
       <c r="L25">
-        <v>0.9292637247486115</v>
+        <v>0.9292637247486117</v>
       </c>
       <c r="M25">
-        <v>0.9373667593947026</v>
+        <v>0.937366759394703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9213250810340013</v>
+        <v>0.921325081034003</v>
       </c>
       <c r="D2">
-        <v>1.020814528064893</v>
+        <v>1.020814528064894</v>
       </c>
       <c r="E2">
-        <v>0.9366033076916703</v>
+        <v>0.9366033076916719</v>
       </c>
       <c r="F2">
-        <v>0.9461483344714058</v>
+        <v>0.9461483344714069</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036527767980505</v>
       </c>
       <c r="J2">
-        <v>0.94614366837999</v>
+        <v>0.9461436683799914</v>
       </c>
       <c r="K2">
         <v>1.031991303955449</v>
       </c>
       <c r="L2">
-        <v>0.9490227056711296</v>
+        <v>0.9490227056711309</v>
       </c>
       <c r="M2">
-        <v>0.9584126361633327</v>
+        <v>0.9584126361633339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9376519841000301</v>
+        <v>0.9376519841000293</v>
       </c>
       <c r="D3">
         <v>1.025125495897181</v>
       </c>
       <c r="E3">
-        <v>0.9505908435593104</v>
+        <v>0.9505908435593097</v>
       </c>
       <c r="F3">
-        <v>0.9609984547547742</v>
+        <v>0.960998454754773</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039877413330979</v>
       </c>
       <c r="J3">
-        <v>0.9599997409700043</v>
+        <v>0.9599997409700035</v>
       </c>
       <c r="K3">
         <v>1.035446676037857</v>
       </c>
       <c r="L3">
-        <v>0.9618975546665095</v>
+        <v>0.9618975546665088</v>
       </c>
       <c r="M3">
-        <v>0.9721559495304359</v>
+        <v>0.9721559495304348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9475317245144078</v>
+        <v>0.9475317245144081</v>
       </c>
       <c r="D4">
         <v>1.027771166739764</v>
       </c>
       <c r="E4">
-        <v>0.9590659877664436</v>
+        <v>0.9590659877664437</v>
       </c>
       <c r="F4">
-        <v>0.9700049279459366</v>
+        <v>0.970004927945937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041893726536524</v>
+        <v>1.041893726536525</v>
       </c>
       <c r="J4">
-        <v>0.9683799527220734</v>
+        <v>0.9683799527220737</v>
       </c>
       <c r="K4">
         <v>1.03754558521272</v>
       </c>
       <c r="L4">
-        <v>0.969684915747197</v>
+        <v>0.9696849157471973</v>
       </c>
       <c r="M4">
-        <v>0.9804793750909661</v>
+        <v>0.9804793750909665</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515414915077642</v>
+        <v>0.9515414915077641</v>
       </c>
       <c r="D5">
         <v>1.028852547122117</v>
       </c>
       <c r="E5">
-        <v>0.9625078416041122</v>
+        <v>0.9625078416041121</v>
       </c>
       <c r="F5">
-        <v>0.9736643213208444</v>
+        <v>0.9736643213208439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042708991070739</v>
+        <v>1.042708991070738</v>
       </c>
       <c r="J5">
         <v>0.9717797653293035</v>
@@ -559,10 +559,10 @@
         <v>1.038398592169837</v>
       </c>
       <c r="L5">
-        <v>0.9728442862598634</v>
+        <v>0.9728442862598635</v>
       </c>
       <c r="M5">
-        <v>0.9838584616769086</v>
+        <v>0.9838584616769084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9522068350035541</v>
+        <v>0.9522068350035526</v>
       </c>
       <c r="D6">
         <v>1.029032396598741</v>
       </c>
       <c r="E6">
-        <v>0.9630790652716027</v>
+        <v>0.9630790652716013</v>
       </c>
       <c r="F6">
-        <v>0.97427174413443</v>
+        <v>0.9742717441344291</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042844073869835</v>
       </c>
       <c r="J6">
-        <v>0.972343810727602</v>
+        <v>0.9723438107276003</v>
       </c>
       <c r="K6">
-        <v>1.038540179681895</v>
+        <v>1.038540179681894</v>
       </c>
       <c r="L6">
-        <v>0.9733684438259248</v>
+        <v>0.9733684438259231</v>
       </c>
       <c r="M6">
-        <v>0.9844191937943725</v>
+        <v>0.9844191937943715</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9475858441212347</v>
+        <v>0.947585844121235</v>
       </c>
       <c r="D7">
         <v>1.027785733267678</v>
       </c>
       <c r="E7">
-        <v>0.9591124342784428</v>
+        <v>0.9591124342784432</v>
       </c>
       <c r="F7">
-        <v>0.9700543034413732</v>
+        <v>0.9700543034413736</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041904742992861</v>
       </c>
       <c r="J7">
-        <v>0.968425845591011</v>
+        <v>0.9684258455910114</v>
       </c>
       <c r="K7">
-        <v>1.037557094559379</v>
+        <v>1.03755709455938</v>
       </c>
       <c r="L7">
-        <v>0.9697275627560384</v>
+        <v>0.9697275627560387</v>
       </c>
       <c r="M7">
-        <v>0.9805249794796886</v>
+        <v>0.980524979479689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.022303618025854</v>
       </c>
       <c r="E8">
-        <v>0.941460966133973</v>
+        <v>0.9414609661339735</v>
       </c>
       <c r="F8">
-        <v>0.9513034515850488</v>
+        <v>0.9513034515850486</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.03318971561705</v>
       </c>
       <c r="L8">
-        <v>0.9534969524683414</v>
+        <v>0.9534969524683417</v>
       </c>
       <c r="M8">
-        <v>0.9631861110379794</v>
+        <v>0.963186111037979</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8842324502117985</v>
+        <v>0.8842324502117993</v>
       </c>
       <c r="D9">
         <v>1.011326304660359</v>
       </c>
       <c r="E9">
-        <v>0.9049254343786154</v>
+        <v>0.9049254343786162</v>
       </c>
       <c r="F9">
-        <v>0.912591181116907</v>
+        <v>0.9125911811169077</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028885661326085</v>
       </c>
       <c r="J9">
-        <v>0.9146584710225515</v>
+        <v>0.914658471022552</v>
       </c>
       <c r="K9">
         <v>1.024238254906259</v>
       </c>
       <c r="L9">
-        <v>0.9197755835324641</v>
+        <v>0.9197755835324648</v>
       </c>
       <c r="M9">
-        <v>0.9272817465474625</v>
+        <v>0.9272817465474629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8486973736715193</v>
+        <v>0.8486973736715178</v>
       </c>
       <c r="D10">
         <v>1.002668753127862</v>
       </c>
       <c r="E10">
-        <v>0.8747376831645529</v>
+        <v>0.8747376831645515</v>
       </c>
       <c r="F10">
-        <v>0.8807244388252491</v>
+        <v>0.8807244388252481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021594144610826</v>
+        <v>1.021594144610825</v>
       </c>
       <c r="J10">
-        <v>0.8845316476844786</v>
+        <v>0.8845316476844771</v>
       </c>
       <c r="K10">
         <v>1.016989989017338</v>
       </c>
       <c r="L10">
-        <v>0.8918082163386895</v>
+        <v>0.8918082163386883</v>
       </c>
       <c r="M10">
-        <v>0.8976422195242457</v>
+        <v>0.8976422195242445</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8305220813578175</v>
+        <v>0.830522081357817</v>
       </c>
       <c r="D11">
-        <v>0.9984150179814373</v>
+        <v>0.9984150179814367</v>
       </c>
       <c r="E11">
-        <v>0.859370085007516</v>
+        <v>0.8593700850075155</v>
       </c>
       <c r="F11">
-        <v>0.8645509918334698</v>
+        <v>0.8645509918334693</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017898067623639</v>
       </c>
       <c r="J11">
-        <v>0.869151733265483</v>
+        <v>0.8691517332654825</v>
       </c>
       <c r="K11">
-        <v>1.013366886769617</v>
+        <v>1.013366886769616</v>
       </c>
       <c r="L11">
-        <v>0.8775402522412667</v>
+        <v>0.8775402522412661</v>
       </c>
       <c r="M11">
-        <v>0.8825758441526071</v>
+        <v>0.8825758441526067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8231725740974989</v>
+        <v>0.8231725740974987</v>
       </c>
       <c r="D12">
-        <v>0.9967296494773549</v>
+        <v>0.9967296494773548</v>
       </c>
       <c r="E12">
-        <v>0.853171585999974</v>
+        <v>0.8531715859999737</v>
       </c>
       <c r="F12">
-        <v>0.8580378079849669</v>
+        <v>0.8580378079849668</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016412282987191</v>
       </c>
       <c r="J12">
-        <v>0.862940107385742</v>
+        <v>0.8629401073857418</v>
       </c>
       <c r="K12">
         <v>1.01191977359544</v>
       </c>
       <c r="L12">
-        <v>0.8717799269382555</v>
+        <v>0.8717799269382552</v>
       </c>
       <c r="M12">
-        <v>0.8765045483805046</v>
+        <v>0.8765045483805044</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8247804572004828</v>
+        <v>0.8247804572004833</v>
       </c>
       <c r="D13">
-        <v>0.9970966358359188</v>
+        <v>0.9970966358359192</v>
       </c>
       <c r="E13">
-        <v>0.8545268524536405</v>
+        <v>0.854526852453641</v>
       </c>
       <c r="F13">
-        <v>0.8594613485262107</v>
+        <v>0.8594613485262115</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016736860219071</v>
       </c>
       <c r="J13">
-        <v>0.864298644751768</v>
+        <v>0.8642986447517685</v>
       </c>
       <c r="K13">
-        <v>1.012235450242237</v>
+        <v>1.012235450242238</v>
       </c>
       <c r="L13">
-        <v>0.8730396447079586</v>
+        <v>0.8730396447079591</v>
       </c>
       <c r="M13">
-        <v>0.8778316940689042</v>
+        <v>0.8778316940689047</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,25 +877,25 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8299282696833427</v>
+        <v>0.8299282696833423</v>
       </c>
       <c r="D14">
-        <v>0.9982780973695046</v>
+        <v>0.9982780973695041</v>
       </c>
       <c r="E14">
         <v>0.8588689235509855</v>
       </c>
       <c r="F14">
-        <v>0.8640241590106846</v>
+        <v>0.8640241590106843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017777819702366</v>
+        <v>1.017777819702365</v>
       </c>
       <c r="J14">
-        <v>0.8686496847376123</v>
+        <v>0.8686496847376119</v>
       </c>
       <c r="K14">
         <v>1.013249571070918</v>
@@ -904,7 +904,7 @@
         <v>0.8770746298565298</v>
       </c>
       <c r="M14">
-        <v>0.8820848358025348</v>
+        <v>0.8820848358025345</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8330132521934512</v>
+        <v>0.8330132521934528</v>
       </c>
       <c r="D15">
-        <v>0.9989908586690944</v>
+        <v>0.998990858669095</v>
       </c>
       <c r="E15">
-        <v>0.8614732201051288</v>
+        <v>0.8614732201051304</v>
       </c>
       <c r="F15">
-        <v>0.8667622880692244</v>
+        <v>0.8667622880692256</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018402907663885</v>
       </c>
       <c r="J15">
-        <v>0.8712582568914856</v>
+        <v>0.8712582568914873</v>
       </c>
       <c r="K15">
-        <v>1.013859797443347</v>
+        <v>1.013859797443348</v>
       </c>
       <c r="L15">
-        <v>0.8794940297647367</v>
+        <v>0.8794940297647379</v>
       </c>
       <c r="M15">
-        <v>0.8846366141034265</v>
+        <v>0.8846366141034279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.849832039466245</v>
+        <v>0.8498320394662426</v>
       </c>
       <c r="D16">
-        <v>1.002938305555657</v>
+        <v>1.002938305555656</v>
       </c>
       <c r="E16">
-        <v>0.8756988076481419</v>
+        <v>0.87569880764814</v>
       </c>
       <c r="F16">
-        <v>0.8817371232931908</v>
+        <v>0.8817371232931888</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021825799347447</v>
+        <v>1.021825799347446</v>
       </c>
       <c r="J16">
-        <v>0.8854925823999495</v>
+        <v>0.8854925823999475</v>
       </c>
       <c r="K16">
         <v>1.017218187468407</v>
       </c>
       <c r="L16">
-        <v>0.8926999150435729</v>
+        <v>0.8926999150435713</v>
       </c>
       <c r="M16">
-        <v>0.8985850994017931</v>
+        <v>0.8985850994017912</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8595403681824598</v>
+        <v>0.8595403681824606</v>
       </c>
       <c r="D17">
         <v>1.005263505704371</v>
       </c>
       <c r="E17">
-        <v>0.8839302065159219</v>
+        <v>0.8839302065159226</v>
       </c>
       <c r="F17">
-        <v>0.8904154215835364</v>
+        <v>0.8904154215835367</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023811611383553</v>
       </c>
       <c r="J17">
-        <v>0.8937176956261176</v>
+        <v>0.8937176956261184</v>
       </c>
       <c r="K17">
         <v>1.019179871738709</v>
       </c>
       <c r="L17">
-        <v>0.9003334494272383</v>
+        <v>0.9003334494272391</v>
       </c>
       <c r="M17">
-        <v>0.906662716243032</v>
+        <v>0.9066627162430324</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1035,7 +1035,7 @@
         <v>1.006573611346503</v>
       </c>
       <c r="E18">
-        <v>0.8885226394766743</v>
+        <v>0.8885226394766742</v>
       </c>
       <c r="F18">
         <v>0.8952612166042282</v>
@@ -1047,13 +1047,13 @@
         <v>1.024920711130118</v>
       </c>
       <c r="J18">
-        <v>0.8983029721058502</v>
+        <v>0.8983029721058501</v>
       </c>
       <c r="K18">
-        <v>1.020279832291441</v>
+        <v>1.020279832291442</v>
       </c>
       <c r="L18">
-        <v>0.9045897072469214</v>
+        <v>0.9045897072469212</v>
       </c>
       <c r="M18">
         <v>0.9111711011210418</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8667550942209457</v>
+        <v>0.8667550942209443</v>
       </c>
       <c r="D19">
         <v>1.007013127194531</v>
       </c>
       <c r="E19">
-        <v>0.890056212692551</v>
+        <v>0.8900562126925494</v>
       </c>
       <c r="F19">
-        <v>0.8968800208051213</v>
+        <v>0.8968800208051204</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025291223625995</v>
       </c>
       <c r="J19">
-        <v>0.8998335688349808</v>
+        <v>0.8998335688349796</v>
       </c>
       <c r="K19">
         <v>1.02064799316198</v>
       </c>
       <c r="L19">
-        <v>0.9060105910293577</v>
+        <v>0.9060105910293562</v>
       </c>
       <c r="M19">
-        <v>0.9126768577934059</v>
+        <v>0.9126768577934051</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8585259077824582</v>
+        <v>0.8585259077824605</v>
       </c>
       <c r="D20">
         <v>1.005018964357761</v>
       </c>
       <c r="E20">
-        <v>0.8830694260129612</v>
+        <v>0.8830694260129635</v>
       </c>
       <c r="F20">
-        <v>0.8895074687224725</v>
+        <v>0.8895074687224742</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023603811156665</v>
       </c>
       <c r="J20">
-        <v>0.8928579645417846</v>
+        <v>0.8928579645417869</v>
       </c>
       <c r="K20">
-        <v>1.018974131720665</v>
+        <v>1.018974131720666</v>
       </c>
       <c r="L20">
-        <v>0.8995354683303279</v>
+        <v>0.8995354683303302</v>
       </c>
       <c r="M20">
-        <v>0.905817821265301</v>
+        <v>0.9058178212653025</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8284309631088053</v>
+        <v>0.828430963108808</v>
       </c>
       <c r="D21">
         <v>0.9979334329968265</v>
       </c>
       <c r="E21">
-        <v>0.8576055041667786</v>
+        <v>0.8576055041667808</v>
       </c>
       <c r="F21">
-        <v>0.8626961992741066</v>
+        <v>0.8626961992741086</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017474767308279</v>
       </c>
       <c r="J21">
-        <v>0.8673838930530363</v>
+        <v>0.8673838930530385</v>
       </c>
       <c r="K21">
         <v>1.012954063179242</v>
       </c>
       <c r="L21">
-        <v>0.8759007159984711</v>
+        <v>0.8759007159984733</v>
       </c>
       <c r="M21">
-        <v>0.8808471128100355</v>
+        <v>0.8808471128100374</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8058352048967479</v>
+        <v>0.8058352048967488</v>
       </c>
       <c r="D22">
-        <v>0.9928347690965652</v>
+        <v>0.9928347690965653</v>
       </c>
       <c r="E22">
-        <v>0.8385881107235471</v>
+        <v>0.8385881107235478</v>
       </c>
       <c r="F22">
-        <v>0.8427392796709707</v>
+        <v>0.8427392796709712</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.012930760862256</v>
       </c>
       <c r="J22">
-        <v>0.8483071759769202</v>
+        <v>0.8483071759769212</v>
       </c>
       <c r="K22">
         <v>1.008549519629021</v>
       </c>
       <c r="L22">
-        <v>0.8582158071274045</v>
+        <v>0.8582158071274053</v>
       </c>
       <c r="M22">
-        <v>0.8622356408037503</v>
+        <v>0.862235640803751</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8182630779710449</v>
+        <v>0.8182630779710437</v>
       </c>
       <c r="D23">
-        <v>0.9956151243988866</v>
+        <v>0.9956151243988859</v>
       </c>
       <c r="E23">
-        <v>0.8490362832628832</v>
+        <v>0.8490362832628821</v>
       </c>
       <c r="F23">
-        <v>0.8536960551246334</v>
+        <v>0.8536960551246329</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015422935944203</v>
       </c>
       <c r="J23">
-        <v>0.858793435399573</v>
+        <v>0.858793435399572</v>
       </c>
       <c r="K23">
         <v>1.010959111328361</v>
       </c>
       <c r="L23">
-        <v>0.8679352989091882</v>
+        <v>0.8679352989091871</v>
       </c>
       <c r="M23">
-        <v>0.8724561677931247</v>
+        <v>0.872456167793124</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8589850698353104</v>
+        <v>0.8589850698353103</v>
       </c>
       <c r="D24">
         <v>1.005129602739937</v>
       </c>
       <c r="E24">
-        <v>0.8834590114652573</v>
+        <v>0.883459011465257</v>
       </c>
       <c r="F24">
-        <v>0.8899183916751182</v>
+        <v>0.8899183916751183</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023697857063394</v>
       </c>
       <c r="J24">
-        <v>0.893247086418139</v>
+        <v>0.8932470864181388</v>
       </c>
       <c r="K24">
         <v>1.019067231682132</v>
       </c>
       <c r="L24">
-        <v>0.8998966392381506</v>
+        <v>0.8998966392381502</v>
       </c>
       <c r="M24">
-        <v>0.906200211636295</v>
+        <v>0.9062002116362952</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8962697867701961</v>
+        <v>0.8962697867701958</v>
       </c>
       <c r="D25">
         <v>1.014356883498212</v>
       </c>
       <c r="E25">
-        <v>0.9151887636468461</v>
+        <v>0.9151887636468459</v>
       </c>
       <c r="F25">
-        <v>0.923451258178113</v>
+        <v>0.9234512581781127</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03136627771181</v>
       </c>
       <c r="J25">
-        <v>0.924874461929334</v>
+        <v>0.9248744619293338</v>
       </c>
       <c r="K25">
         <v>1.026736341729743</v>
       </c>
       <c r="L25">
-        <v>0.9292637247486117</v>
+        <v>0.9292637247486115</v>
       </c>
       <c r="M25">
-        <v>0.937366759394703</v>
+        <v>0.9373667593947026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.921325081034003</v>
+        <v>0.925785222676876</v>
       </c>
       <c r="D2">
-        <v>1.020814528064894</v>
+        <v>1.021520930828353</v>
       </c>
       <c r="E2">
-        <v>0.9366033076916719</v>
+        <v>0.9404388312397152</v>
       </c>
       <c r="F2">
-        <v>0.9461483344714069</v>
+        <v>0.9495152113915584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036527767980505</v>
+        <v>1.037318803723754</v>
       </c>
       <c r="J2">
-        <v>0.9461436683799914</v>
+        <v>0.9504373618059326</v>
       </c>
       <c r="K2">
-        <v>1.031991303955449</v>
+        <v>1.032688370691369</v>
       </c>
       <c r="L2">
-        <v>0.9490227056711309</v>
+        <v>0.9527954200126404</v>
       </c>
       <c r="M2">
-        <v>0.9584126361633339</v>
+        <v>0.9617257581848371</v>
+      </c>
+      <c r="N2">
+        <v>0.9517870918763861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9376519841000293</v>
+        <v>0.9420174544736473</v>
       </c>
       <c r="D3">
-        <v>1.025125495897181</v>
+        <v>1.025815647793846</v>
       </c>
       <c r="E3">
-        <v>0.9505908435593097</v>
+        <v>0.954351390077629</v>
       </c>
       <c r="F3">
-        <v>0.960998454754773</v>
+        <v>0.9642822863094871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039877413330979</v>
+        <v>1.040651810651354</v>
       </c>
       <c r="J3">
-        <v>0.9599997409700035</v>
+        <v>0.9642240725100314</v>
       </c>
       <c r="K3">
-        <v>1.035446676037857</v>
+        <v>1.036128533520621</v>
       </c>
       <c r="L3">
-        <v>0.9618975546665088</v>
+        <v>0.9656037097123172</v>
       </c>
       <c r="M3">
-        <v>0.9721559495304348</v>
+        <v>0.9753935443579888</v>
+      </c>
+      <c r="N3">
+        <v>0.9655933812910424</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9475317245144081</v>
+        <v>0.9518473782036031</v>
       </c>
       <c r="D4">
-        <v>1.027771166739764</v>
+        <v>1.028452712303611</v>
       </c>
       <c r="E4">
-        <v>0.9590659877664437</v>
+        <v>0.9627872281803006</v>
       </c>
       <c r="F4">
-        <v>0.970004927945937</v>
+        <v>0.9732446237395959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041893726536525</v>
+        <v>1.042659427912467</v>
       </c>
       <c r="J4">
-        <v>0.9683799527220737</v>
+        <v>0.9725685339691239</v>
       </c>
       <c r="K4">
-        <v>1.03754558521272</v>
+        <v>1.038219450274894</v>
       </c>
       <c r="L4">
-        <v>0.9696849157471973</v>
+        <v>0.9733565438783086</v>
       </c>
       <c r="M4">
-        <v>0.9804793750909665</v>
+        <v>0.9836770612229158</v>
+      </c>
+      <c r="N4">
+        <v>0.9739496928425302</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515414915077641</v>
+        <v>0.9558384028022021</v>
       </c>
       <c r="D5">
-        <v>1.028852547122117</v>
+        <v>1.029530845237422</v>
       </c>
       <c r="E5">
-        <v>0.9625078416041121</v>
+        <v>0.96621433126357</v>
       </c>
       <c r="F5">
-        <v>0.9736643213208439</v>
+        <v>0.9768873164366536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042708991070738</v>
+        <v>1.043471438245122</v>
       </c>
       <c r="J5">
-        <v>0.9717797653293035</v>
+        <v>0.9759550708909767</v>
       </c>
       <c r="K5">
-        <v>1.038398592169837</v>
+        <v>1.039069456021782</v>
       </c>
       <c r="L5">
-        <v>0.9728442862598635</v>
+        <v>0.976503042872474</v>
       </c>
       <c r="M5">
-        <v>0.9838584616769084</v>
+        <v>0.9870411007254161</v>
+      </c>
+      <c r="N5">
+        <v>0.9773410390352533</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9522068350035526</v>
+        <v>0.9565007156975059</v>
       </c>
       <c r="D6">
-        <v>1.029032396598741</v>
+        <v>1.029710169146015</v>
       </c>
       <c r="E6">
-        <v>0.9630790652716013</v>
+        <v>0.966783172036854</v>
       </c>
       <c r="F6">
-        <v>0.9742717441344291</v>
+        <v>0.9774920333491942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042844073869835</v>
+        <v>1.043605995975685</v>
       </c>
       <c r="J6">
-        <v>0.9723438107276003</v>
+        <v>0.976516979891728</v>
       </c>
       <c r="K6">
-        <v>1.038540179681894</v>
+        <v>1.039210558676045</v>
       </c>
       <c r="L6">
-        <v>0.9733684438259231</v>
+        <v>0.9770251261693799</v>
       </c>
       <c r="M6">
-        <v>0.9844191937943715</v>
+        <v>0.9875993980417602</v>
+      </c>
+      <c r="N6">
+        <v>0.9779037460112376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.947585844121235</v>
+        <v>0.9519012393199934</v>
       </c>
       <c r="D7">
-        <v>1.027785733267678</v>
+        <v>1.028467234077802</v>
       </c>
       <c r="E7">
-        <v>0.9591124342784432</v>
+        <v>0.9628334710980366</v>
       </c>
       <c r="F7">
-        <v>0.9700543034413736</v>
+        <v>0.9732937692846834</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041904742992861</v>
+        <v>1.042670399411747</v>
       </c>
       <c r="J7">
-        <v>0.9684258455910114</v>
+        <v>0.9726142430322348</v>
       </c>
       <c r="K7">
-        <v>1.03755709455938</v>
+        <v>1.038230918201819</v>
       </c>
       <c r="L7">
-        <v>0.9697275627560387</v>
+        <v>0.9733990128806896</v>
       </c>
       <c r="M7">
-        <v>0.980524979479689</v>
+        <v>0.983722458209478</v>
+      </c>
+      <c r="N7">
+        <v>0.9739954668177535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9269983468193627</v>
+        <v>0.9314237417970843</v>
       </c>
       <c r="D8">
-        <v>1.022303618025854</v>
+        <v>1.023004072138548</v>
       </c>
       <c r="E8">
-        <v>0.9414609661339735</v>
+        <v>0.9452689376997737</v>
       </c>
       <c r="F8">
-        <v>0.9513034515850486</v>
+        <v>0.9546399597588594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037693640988953</v>
+        <v>1.038478558266368</v>
       </c>
       <c r="J8">
-        <v>0.9509591005594979</v>
+        <v>0.9552271545146143</v>
       </c>
       <c r="K8">
-        <v>1.03318971561705</v>
+        <v>1.033881199942648</v>
       </c>
       <c r="L8">
-        <v>0.9534969524683417</v>
+        <v>0.9572451189838794</v>
       </c>
       <c r="M8">
-        <v>0.963186111037979</v>
+        <v>0.9664715578005898</v>
+      </c>
+      <c r="N8">
+        <v>0.956583686640111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8842324502117993</v>
+        <v>0.8889777248416817</v>
       </c>
       <c r="D9">
-        <v>1.011326304660359</v>
+        <v>1.012080909866924</v>
       </c>
       <c r="E9">
-        <v>0.9049254343786162</v>
+        <v>0.9089878322005361</v>
       </c>
       <c r="F9">
-        <v>0.9125911811169077</v>
+        <v>0.9162037713419021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028885661326085</v>
+        <v>1.029727058203049</v>
       </c>
       <c r="J9">
-        <v>0.914658471022552</v>
+        <v>0.9191677174574908</v>
       </c>
       <c r="K9">
-        <v>1.024238254906259</v>
+        <v>1.024980977027854</v>
       </c>
       <c r="L9">
-        <v>0.9197755835324648</v>
+        <v>0.9237529683538861</v>
       </c>
       <c r="M9">
-        <v>0.9272817465474629</v>
+        <v>0.9308203508934805</v>
+      </c>
+      <c r="N9">
+        <v>0.9204730410462912</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8486973736715178</v>
+        <v>0.8538427039673797</v>
       </c>
       <c r="D10">
-        <v>1.002668753127862</v>
+        <v>1.003489609629097</v>
       </c>
       <c r="E10">
-        <v>0.8747376831645515</v>
+        <v>0.8791192030400922</v>
       </c>
       <c r="F10">
-        <v>0.8807244388252481</v>
+        <v>0.8846751378992866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021594144610825</v>
+        <v>1.022506029309433</v>
       </c>
       <c r="J10">
-        <v>0.8845316476844771</v>
+        <v>0.8893517217918882</v>
       </c>
       <c r="K10">
-        <v>1.016989989017338</v>
+        <v>1.017796142648786</v>
       </c>
       <c r="L10">
-        <v>0.8918082163386883</v>
+        <v>0.8960776656228135</v>
       </c>
       <c r="M10">
-        <v>0.8976422195242445</v>
+        <v>0.9014936429628918</v>
+      </c>
+      <c r="N10">
+        <v>0.890614703246901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.830522081357817</v>
+        <v>0.8359417701800184</v>
       </c>
       <c r="D11">
-        <v>0.9984150179814367</v>
+        <v>0.9992806774804304</v>
       </c>
       <c r="E11">
-        <v>0.8593700850075155</v>
+        <v>0.8639705053879465</v>
       </c>
       <c r="F11">
-        <v>0.8645509918334693</v>
+        <v>0.8687308137259054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017898067623639</v>
+        <v>1.018858060043665</v>
       </c>
       <c r="J11">
-        <v>0.8691517332654825</v>
+        <v>0.8741878647730928</v>
       </c>
       <c r="K11">
-        <v>1.013366886769616</v>
+        <v>1.014216171931738</v>
       </c>
       <c r="L11">
-        <v>0.8775402522412661</v>
+        <v>0.8820115209582017</v>
       </c>
       <c r="M11">
-        <v>0.8825758441526067</v>
+        <v>0.8866401506452467</v>
+      </c>
+      <c r="N11">
+        <v>0.8754293118118204</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8231725740974987</v>
+        <v>0.8287209266742516</v>
       </c>
       <c r="D12">
-        <v>0.9967296494773548</v>
+        <v>0.997616188238014</v>
       </c>
       <c r="E12">
-        <v>0.8531715859999737</v>
+        <v>0.857874637288608</v>
       </c>
       <c r="F12">
-        <v>0.8580378079849668</v>
+        <v>0.8623245214373232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016412282987191</v>
+        <v>1.017394773625989</v>
       </c>
       <c r="J12">
-        <v>0.8629401073857418</v>
+        <v>0.8680780771424601</v>
       </c>
       <c r="K12">
-        <v>1.01191977359544</v>
+        <v>1.012789201265332</v>
       </c>
       <c r="L12">
-        <v>0.8717799269382552</v>
+        <v>0.8763460900687627</v>
       </c>
       <c r="M12">
-        <v>0.8765045483805044</v>
+        <v>0.8806683350296229</v>
+      </c>
+      <c r="N12">
+        <v>0.8693108475819494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8247804572004833</v>
+        <v>0.8302996795140326</v>
       </c>
       <c r="D13">
-        <v>0.9970966358359192</v>
+        <v>0.9979784538882372</v>
       </c>
       <c r="E13">
-        <v>0.854526852453641</v>
+        <v>0.8592066693285008</v>
       </c>
       <c r="F13">
-        <v>0.8594613485262115</v>
+        <v>0.8637238884872331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016736860219071</v>
+        <v>1.017714260421174</v>
       </c>
       <c r="J13">
-        <v>0.8642986447517685</v>
+        <v>0.8694135336809293</v>
       </c>
       <c r="K13">
-        <v>1.012235450242238</v>
+        <v>1.013100321807891</v>
       </c>
       <c r="L13">
-        <v>0.8730396447079591</v>
+        <v>0.8775843120111665</v>
       </c>
       <c r="M13">
-        <v>0.8778316940689047</v>
+        <v>0.881972975506999</v>
+      </c>
+      <c r="N13">
+        <v>0.8706482006218823</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.8299282696833423</v>
+        <v>0.8353579386156985</v>
       </c>
       <c r="D14">
-        <v>0.9982780973695041</v>
+        <v>0.9991453791444682</v>
       </c>
       <c r="E14">
-        <v>0.8588689235509855</v>
+        <v>0.8634773054663141</v>
       </c>
       <c r="F14">
-        <v>0.8640241590106843</v>
+        <v>0.8682122837303938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017777819702365</v>
+        <v>1.018739558617934</v>
       </c>
       <c r="J14">
-        <v>0.8686496847376119</v>
+        <v>0.8736937053529672</v>
       </c>
       <c r="K14">
-        <v>1.013249571070918</v>
+        <v>1.01410042042516</v>
       </c>
       <c r="L14">
-        <v>0.8770746298565298</v>
+        <v>0.88155325450082</v>
       </c>
       <c r="M14">
-        <v>0.8820848358025345</v>
+        <v>0.8861568661281195</v>
+      </c>
+      <c r="N14">
+        <v>0.8749344506286371</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8330132521934528</v>
+        <v>0.8383918285512579</v>
       </c>
       <c r="D15">
-        <v>0.998990858669095</v>
+        <v>0.9998498301919395</v>
       </c>
       <c r="E15">
-        <v>0.8614732201051304</v>
+        <v>0.8660408422616941</v>
       </c>
       <c r="F15">
-        <v>0.8667622880692256</v>
+        <v>0.8709078853445847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018402907663885</v>
+        <v>1.019355703007633</v>
       </c>
       <c r="J15">
-        <v>0.8712582568914873</v>
+        <v>0.8762619092691866</v>
       </c>
       <c r="K15">
-        <v>1.013859797443348</v>
+        <v>1.014702635692771</v>
       </c>
       <c r="L15">
-        <v>0.8794940297647379</v>
+        <v>0.8839350054919307</v>
       </c>
       <c r="M15">
-        <v>0.8846366141034279</v>
+        <v>0.8886690889254711</v>
+      </c>
+      <c r="N15">
+        <v>0.8775063016889948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8498320394662426</v>
+        <v>0.8549620554601868</v>
       </c>
       <c r="D16">
-        <v>1.002938305555656</v>
+        <v>1.003756648228221</v>
       </c>
       <c r="E16">
-        <v>0.87569880764814</v>
+        <v>0.8800681077547207</v>
       </c>
       <c r="F16">
-        <v>0.8817371232931888</v>
+        <v>0.8856749775981256</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021825799347446</v>
+        <v>1.022734993112416</v>
       </c>
       <c r="J16">
-        <v>0.8854925823999475</v>
+        <v>0.8903006506754697</v>
       </c>
       <c r="K16">
-        <v>1.017218187468407</v>
+        <v>1.018021925505521</v>
       </c>
       <c r="L16">
-        <v>0.8926999150435713</v>
+        <v>0.8969581262445699</v>
       </c>
       <c r="M16">
-        <v>0.8985850994017912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9024246056439517</v>
+      </c>
+      <c r="N16">
+        <v>0.8915649797183409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8595403681824606</v>
+        <v>0.8645469471859676</v>
       </c>
       <c r="D17">
-        <v>1.005263505704371</v>
+        <v>1.006061528120885</v>
       </c>
       <c r="E17">
-        <v>0.8839302065159226</v>
+        <v>0.8882010149431714</v>
       </c>
       <c r="F17">
-        <v>0.8904154215835367</v>
+        <v>0.8942494923774568</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023811611383553</v>
+        <v>1.024699093304965</v>
       </c>
       <c r="J17">
-        <v>0.8937176956261184</v>
+        <v>0.8984292549752859</v>
       </c>
       <c r="K17">
-        <v>1.019179871738709</v>
+        <v>1.019964105010191</v>
       </c>
       <c r="L17">
-        <v>0.9003334494272391</v>
+        <v>0.904501215116853</v>
       </c>
       <c r="M17">
-        <v>0.9066627162430324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9104060152892613</v>
+      </c>
+      <c r="N17">
+        <v>0.899705127568627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8649497826828889</v>
+        <v>0.869893070043297</v>
       </c>
       <c r="D18">
-        <v>1.006573611346503</v>
+        <v>1.007361171259322</v>
       </c>
       <c r="E18">
-        <v>0.8885226394766742</v>
+        <v>0.8927429520591524</v>
       </c>
       <c r="F18">
-        <v>0.8952612166042282</v>
+        <v>0.8990418834272996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024920711130118</v>
+        <v>1.025797045207616</v>
       </c>
       <c r="J18">
-        <v>0.8983029721058501</v>
+        <v>0.9029652503339483</v>
       </c>
       <c r="K18">
-        <v>1.020279832291442</v>
+        <v>1.021054039625146</v>
       </c>
       <c r="L18">
-        <v>0.9045897072469212</v>
+        <v>0.9087112057611563</v>
       </c>
       <c r="M18">
-        <v>0.9111711011210418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9148649580457457</v>
+      </c>
+      <c r="N18">
+        <v>0.9042475645609844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8667550942209443</v>
+        <v>0.8716780697910673</v>
       </c>
       <c r="D19">
-        <v>1.007013127194531</v>
+        <v>1.007797322681947</v>
       </c>
       <c r="E19">
-        <v>0.8900562126925494</v>
+        <v>0.8942603213291062</v>
       </c>
       <c r="F19">
-        <v>0.8968800208051204</v>
+        <v>0.9006435191382536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025291223625995</v>
+        <v>1.026163977970287</v>
       </c>
       <c r="J19">
-        <v>0.8998335688349796</v>
+        <v>0.904480064754286</v>
       </c>
       <c r="K19">
-        <v>1.02064799316198</v>
+        <v>1.021418979176055</v>
       </c>
       <c r="L19">
-        <v>0.9060105910293562</v>
+        <v>0.910117259335708</v>
       </c>
       <c r="M19">
-        <v>0.9126768577934051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9163548301664416</v>
+      </c>
+      <c r="N19">
+        <v>0.9057645301915505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8585259077824605</v>
+        <v>0.8635447766663938</v>
       </c>
       <c r="D20">
-        <v>1.005018964357761</v>
+        <v>1.005819014809095</v>
       </c>
       <c r="E20">
-        <v>0.8830694260129635</v>
+        <v>0.887350040227019</v>
       </c>
       <c r="F20">
-        <v>0.8895074687224742</v>
+        <v>0.8933518937876841</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023603811156665</v>
+        <v>1.024493456566766</v>
       </c>
       <c r="J20">
-        <v>0.8928579645417869</v>
+        <v>0.8975791102953301</v>
       </c>
       <c r="K20">
-        <v>1.018974131720666</v>
+        <v>1.019760309800784</v>
       </c>
       <c r="L20">
-        <v>0.8995354683303302</v>
+        <v>0.9037122272980398</v>
       </c>
       <c r="M20">
-        <v>0.9058178212653025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9095707117248486</v>
+      </c>
+      <c r="N20">
+        <v>0.8988537755857128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.828430963108808</v>
+        <v>0.8338861124843053</v>
       </c>
       <c r="D21">
-        <v>0.9979334329968265</v>
+        <v>0.9988048544984884</v>
       </c>
       <c r="E21">
-        <v>0.8576055041667808</v>
+        <v>0.8622342123304696</v>
       </c>
       <c r="F21">
-        <v>0.8626961992741086</v>
+        <v>0.8669055130649208</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017474767308279</v>
+        <v>1.018440964181411</v>
       </c>
       <c r="J21">
-        <v>0.8673838930530385</v>
+        <v>0.8724480636519807</v>
       </c>
       <c r="K21">
-        <v>1.012954063179242</v>
+        <v>1.013808904708643</v>
       </c>
       <c r="L21">
-        <v>0.8759007159984733</v>
+        <v>0.8803981250625492</v>
       </c>
       <c r="M21">
-        <v>0.8808471128100374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8849388572186017</v>
+      </c>
+      <c r="N21">
+        <v>0.8736870399735581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8058352048967488</v>
+        <v>0.8117376533504986</v>
       </c>
       <c r="D22">
-        <v>0.9928347690965653</v>
+        <v>0.9937784284806477</v>
       </c>
       <c r="E22">
-        <v>0.8385881107235478</v>
+        <v>0.8435734903848914</v>
       </c>
       <c r="F22">
-        <v>0.8427392796709712</v>
+        <v>0.84731872610633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012930760862256</v>
+        <v>1.013974987135837</v>
       </c>
       <c r="J22">
-        <v>0.8483071759769212</v>
+        <v>0.8537266279568506</v>
       </c>
       <c r="K22">
-        <v>1.008549519629021</v>
+        <v>1.009474151737477</v>
       </c>
       <c r="L22">
-        <v>0.8582158071274053</v>
+        <v>0.8630436741956681</v>
       </c>
       <c r="M22">
-        <v>0.862235640803751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8666722619468035</v>
+      </c>
+      <c r="N22">
+        <v>0.8549390176923625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8182630779710437</v>
+        <v>0.8239040078463968</v>
       </c>
       <c r="D23">
-        <v>0.9956151243988859</v>
+        <v>0.9965166422789107</v>
       </c>
       <c r="E23">
-        <v>0.8490362832628821</v>
+        <v>0.8538131667400995</v>
       </c>
       <c r="F23">
-        <v>0.8536960551246329</v>
+        <v>0.858059493672821</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015422935944203</v>
+        <v>1.016421591890261</v>
       </c>
       <c r="J23">
-        <v>0.858793435399572</v>
+        <v>0.8640048418088374</v>
       </c>
       <c r="K23">
-        <v>1.010959111328361</v>
+        <v>1.011843002776149</v>
       </c>
       <c r="L23">
-        <v>0.8679352989091871</v>
+        <v>0.8725698152597998</v>
       </c>
       <c r="M23">
-        <v>0.872456167793124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8766914122717629</v>
+      </c>
+      <c r="N23">
+        <v>0.8652318277869463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8589850698353103</v>
+        <v>0.8639983592289777</v>
       </c>
       <c r="D24">
-        <v>1.005129602739937</v>
+        <v>1.005928732622043</v>
       </c>
       <c r="E24">
-        <v>0.883459011465257</v>
+        <v>0.8877351739256508</v>
       </c>
       <c r="F24">
-        <v>0.8899183916751183</v>
+        <v>0.8937581166086913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023697857063394</v>
+        <v>1.024586520318126</v>
       </c>
       <c r="J24">
-        <v>0.8932470864181388</v>
+        <v>0.8979638793760152</v>
       </c>
       <c r="K24">
-        <v>1.019067231682132</v>
+        <v>1.019852526917292</v>
       </c>
       <c r="L24">
-        <v>0.8998966392381502</v>
+        <v>0.9040693149904766</v>
       </c>
       <c r="M24">
-        <v>0.9062002116362952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9099487480452043</v>
+      </c>
+      <c r="N24">
+        <v>0.8992390910826256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8962697867701958</v>
+        <v>0.9009103042418473</v>
       </c>
       <c r="D25">
-        <v>1.014356883498212</v>
+        <v>1.015093895508519</v>
       </c>
       <c r="E25">
-        <v>0.9151887636468459</v>
+        <v>0.9191676987813584</v>
       </c>
       <c r="F25">
-        <v>0.9234512581781127</v>
+        <v>0.9269741820525458</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03136627771181</v>
+        <v>1.032189164819708</v>
       </c>
       <c r="J25">
-        <v>0.9248744619293338</v>
+        <v>0.929303672249804</v>
       </c>
       <c r="K25">
-        <v>1.026736341729743</v>
+        <v>1.027462331197083</v>
       </c>
       <c r="L25">
-        <v>0.9292637247486115</v>
+        <v>0.9331654006160939</v>
       </c>
       <c r="M25">
-        <v>0.9373667593947026</v>
+        <v>0.9408228230467661</v>
+      </c>
+      <c r="N25">
+        <v>0.93062339005702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.925785222676876</v>
+        <v>0.954169468766927</v>
       </c>
       <c r="D2">
-        <v>1.021520930828353</v>
+        <v>1.033181633139888</v>
       </c>
       <c r="E2">
-        <v>0.9404388312397152</v>
+        <v>0.9663792768699726</v>
       </c>
       <c r="F2">
-        <v>0.9495152113915584</v>
+        <v>0.9729035367425632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037318803723754</v>
+        <v>1.045936142698722</v>
       </c>
       <c r="J2">
-        <v>0.9504373618059326</v>
+        <v>0.9778130504711147</v>
       </c>
       <c r="K2">
-        <v>1.032688370691369</v>
+        <v>1.04419726854529</v>
       </c>
       <c r="L2">
-        <v>0.9527954200126404</v>
+        <v>0.9783277610571905</v>
       </c>
       <c r="M2">
-        <v>0.9617257581848371</v>
+        <v>0.9847537367843333</v>
       </c>
       <c r="N2">
-        <v>0.9517870918763861</v>
+        <v>0.979201657159508</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9420174544736473</v>
+        <v>0.964468251023144</v>
       </c>
       <c r="D3">
-        <v>1.025815647793846</v>
+        <v>1.037153299600271</v>
       </c>
       <c r="E3">
-        <v>0.954351390077629</v>
+        <v>0.9749930839157052</v>
       </c>
       <c r="F3">
-        <v>0.9642822863094871</v>
+        <v>0.9831093149973203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040651810651354</v>
+        <v>1.048459455778559</v>
       </c>
       <c r="J3">
-        <v>0.9642240725100314</v>
+        <v>0.9859767539137657</v>
       </c>
       <c r="K3">
-        <v>1.036128533520621</v>
+        <v>1.047331881927035</v>
       </c>
       <c r="L3">
-        <v>0.9656037097123172</v>
+        <v>0.9859562582871718</v>
       </c>
       <c r="M3">
-        <v>0.9753935443579888</v>
+        <v>0.9939629766866652</v>
       </c>
       <c r="N3">
-        <v>0.9655933812910424</v>
+        <v>0.9873769539974376</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9518473782036031</v>
+        <v>0.9708527478723284</v>
       </c>
       <c r="D4">
-        <v>1.028452712303611</v>
+        <v>1.039627818792243</v>
       </c>
       <c r="E4">
-        <v>0.9627872281803006</v>
+        <v>0.9803419464077126</v>
       </c>
       <c r="F4">
-        <v>0.9732446237395959</v>
+        <v>0.9894388482978401</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042659427912467</v>
+        <v>1.050007629439488</v>
       </c>
       <c r="J4">
-        <v>0.9725685339691239</v>
+        <v>0.9910326182264834</v>
       </c>
       <c r="K4">
-        <v>1.038219450274894</v>
+        <v>1.04927038636027</v>
       </c>
       <c r="L4">
-        <v>0.9733565438783086</v>
+        <v>0.9906835635446353</v>
       </c>
       <c r="M4">
-        <v>0.9836770612229158</v>
+        <v>0.999666430818809</v>
       </c>
       <c r="N4">
-        <v>0.9739496928425302</v>
+        <v>0.992439998217395</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9558384028022021</v>
+        <v>0.9734751582957683</v>
       </c>
       <c r="D5">
-        <v>1.029530845237422</v>
+        <v>1.040646621741094</v>
       </c>
       <c r="E5">
-        <v>0.96621433126357</v>
+        <v>0.982540922303307</v>
       </c>
       <c r="F5">
-        <v>0.9768873164366536</v>
+        <v>0.9920391220573781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043471438245122</v>
+        <v>1.050639411356115</v>
       </c>
       <c r="J5">
-        <v>0.9759550708909767</v>
+        <v>0.9931079629232844</v>
       </c>
       <c r="K5">
-        <v>1.039069456021782</v>
+        <v>1.05006509292698</v>
       </c>
       <c r="L5">
-        <v>0.976503042872474</v>
+        <v>0.9926247119216992</v>
       </c>
       <c r="M5">
-        <v>0.9870411007254161</v>
+        <v>1.002007547964303</v>
       </c>
       <c r="N5">
-        <v>0.9773410390352533</v>
+        <v>0.9945182901417109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9565007156975059</v>
+        <v>0.9739119996341503</v>
       </c>
       <c r="D6">
-        <v>1.029710169146015</v>
+        <v>1.040816459864996</v>
       </c>
       <c r="E6">
-        <v>0.966783172036854</v>
+        <v>0.9829073373497822</v>
       </c>
       <c r="F6">
-        <v>0.9774920333491942</v>
+        <v>0.9924722961299125</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043605995975685</v>
+        <v>1.05074440362244</v>
       </c>
       <c r="J6">
-        <v>0.976516979891728</v>
+        <v>0.9934535920727586</v>
       </c>
       <c r="K6">
-        <v>1.039210558676045</v>
+        <v>1.0501973745032</v>
       </c>
       <c r="L6">
-        <v>0.9770251261693799</v>
+        <v>0.9929480308127083</v>
       </c>
       <c r="M6">
-        <v>0.9875993980417602</v>
+        <v>1.002397434026115</v>
       </c>
       <c r="N6">
-        <v>0.9779037460112376</v>
+        <v>0.9948644101242216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9519012393199934</v>
+        <v>0.9708880243359531</v>
       </c>
       <c r="D7">
-        <v>1.028467234077802</v>
+        <v>1.039641514831421</v>
       </c>
       <c r="E7">
-        <v>0.9628334710980366</v>
+        <v>0.9803715193701001</v>
       </c>
       <c r="F7">
-        <v>0.9732937692846834</v>
+        <v>0.9894738254945752</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042670399411747</v>
+        <v>1.050016144822362</v>
       </c>
       <c r="J7">
-        <v>0.9726142430322348</v>
+        <v>0.9910605410554764</v>
       </c>
       <c r="K7">
-        <v>1.038230918201819</v>
+        <v>1.049281083249317</v>
       </c>
       <c r="L7">
-        <v>0.9733990128806896</v>
+        <v>0.99070967818706</v>
       </c>
       <c r="M7">
-        <v>0.983722458209478</v>
+        <v>0.9996979297914866</v>
       </c>
       <c r="N7">
-        <v>0.9739954668177535</v>
+        <v>0.992467960700008</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9314237417970843</v>
+        <v>0.9577112671766691</v>
       </c>
       <c r="D8">
-        <v>1.023004072138548</v>
+        <v>1.034544503342858</v>
       </c>
       <c r="E8">
-        <v>0.9452689376997737</v>
+        <v>0.9693395760686832</v>
       </c>
       <c r="F8">
-        <v>0.9546399597588594</v>
+        <v>0.9764126414151902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038478558266368</v>
+        <v>1.046807177946738</v>
       </c>
       <c r="J8">
-        <v>0.9552271545146143</v>
+        <v>0.980621575733774</v>
       </c>
       <c r="K8">
-        <v>1.033881199942648</v>
+        <v>1.045276027108771</v>
       </c>
       <c r="L8">
-        <v>0.9572451189838794</v>
+        <v>0.980951527564794</v>
       </c>
       <c r="M8">
-        <v>0.9664715578005898</v>
+        <v>0.9879218904887653</v>
       </c>
       <c r="N8">
-        <v>0.956583686640111</v>
+        <v>0.9820141708501826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8889777248416817</v>
+        <v>0.9320707060773135</v>
       </c>
       <c r="D9">
-        <v>1.012080909866924</v>
+        <v>1.024760899822093</v>
       </c>
       <c r="E9">
-        <v>0.9089878322005361</v>
+        <v>0.9479582372642767</v>
       </c>
       <c r="F9">
-        <v>0.9162037713419021</v>
+        <v>0.9510311638881545</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029727058203049</v>
+        <v>1.040442617360678</v>
       </c>
       <c r="J9">
-        <v>0.9191677174574908</v>
+        <v>0.9602734027578884</v>
       </c>
       <c r="K9">
-        <v>1.024980977027854</v>
+        <v>1.037464627985488</v>
       </c>
       <c r="L9">
-        <v>0.9237529683538861</v>
+        <v>0.9619561345816278</v>
       </c>
       <c r="M9">
-        <v>0.9308203508934805</v>
+        <v>0.9649720480443101</v>
       </c>
       <c r="N9">
-        <v>0.9204730410462912</v>
+        <v>0.9616371011347035</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8538427039673797</v>
+        <v>0.912866366890247</v>
       </c>
       <c r="D10">
-        <v>1.003489609629097</v>
+        <v>1.017578724868231</v>
       </c>
       <c r="E10">
-        <v>0.8791192030400922</v>
+        <v>0.9320224739017634</v>
       </c>
       <c r="F10">
-        <v>0.8846751378992866</v>
+        <v>0.9320649228258774</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022506029309433</v>
+        <v>1.03561638724488</v>
       </c>
       <c r="J10">
-        <v>0.8893517217918882</v>
+        <v>0.9450209832591423</v>
       </c>
       <c r="K10">
-        <v>1.017796142648786</v>
+        <v>1.031637681472196</v>
       </c>
       <c r="L10">
-        <v>0.8960776656228135</v>
+        <v>0.9477380429437124</v>
       </c>
       <c r="M10">
-        <v>0.9014936429628918</v>
+        <v>0.9477795697542217</v>
       </c>
       <c r="N10">
-        <v>0.890614703246901</v>
+        <v>0.9463630214507921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8359417701800184</v>
+        <v>0.9039061560395614</v>
       </c>
       <c r="D11">
-        <v>0.9992806774804304</v>
+        <v>1.014277087791978</v>
       </c>
       <c r="E11">
-        <v>0.8639705053879465</v>
+        <v>0.9246116657216243</v>
       </c>
       <c r="F11">
-        <v>0.8687308137259054</v>
+        <v>0.9232323211736769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018858060043665</v>
+        <v>1.033357106059023</v>
       </c>
       <c r="J11">
-        <v>0.8741878647730928</v>
+        <v>0.9379053609294203</v>
       </c>
       <c r="K11">
-        <v>1.014216171931738</v>
+        <v>1.028934689837211</v>
       </c>
       <c r="L11">
-        <v>0.8820115209582017</v>
+        <v>0.9411105696330985</v>
       </c>
       <c r="M11">
-        <v>0.8866401506452467</v>
+        <v>0.9397632918088774</v>
       </c>
       <c r="N11">
-        <v>0.8754293118118204</v>
+        <v>0.9392372941211885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8287209266742516</v>
+        <v>0.9004650747022934</v>
       </c>
       <c r="D12">
-        <v>0.997616188238014</v>
+        <v>1.013018063425138</v>
       </c>
       <c r="E12">
-        <v>0.857874637288608</v>
+        <v>0.9217698911332699</v>
       </c>
       <c r="F12">
-        <v>0.8623245214373232</v>
+        <v>0.9198433847266477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017394773625989</v>
+        <v>1.0324890178693</v>
       </c>
       <c r="J12">
-        <v>0.8680780771424601</v>
+        <v>0.935173176291517</v>
       </c>
       <c r="K12">
-        <v>1.012789201265332</v>
+        <v>1.027900036653739</v>
       </c>
       <c r="L12">
-        <v>0.8763460900687627</v>
+        <v>0.9385667455156734</v>
       </c>
       <c r="M12">
-        <v>0.8806683350296229</v>
+        <v>0.93668616983385</v>
       </c>
       <c r="N12">
-        <v>0.8693108475819494</v>
+        <v>0.9365012294677133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8302996795140326</v>
+        <v>0.9012086065802555</v>
       </c>
       <c r="D13">
-        <v>0.9979784538882372</v>
+        <v>1.01328967751719</v>
       </c>
       <c r="E13">
-        <v>0.8592066693285008</v>
+        <v>0.9223837241177311</v>
       </c>
       <c r="F13">
-        <v>0.8637238884872331</v>
+        <v>0.9205754959994139</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017714260421174</v>
+        <v>1.032676597091588</v>
       </c>
       <c r="J13">
-        <v>0.8694135336809293</v>
+        <v>0.935763503534252</v>
       </c>
       <c r="K13">
-        <v>1.013100321807891</v>
+        <v>1.02812342732519</v>
       </c>
       <c r="L13">
-        <v>0.8775843120111665</v>
+        <v>0.9391163315747258</v>
       </c>
       <c r="M13">
-        <v>0.881972975506999</v>
+        <v>0.9373509816120343</v>
       </c>
       <c r="N13">
-        <v>0.8706482006218823</v>
+        <v>0.9370923950428447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8353579386156985</v>
+        <v>0.9036241244195033</v>
       </c>
       <c r="D14">
-        <v>0.9991453791444682</v>
+        <v>1.014173707942331</v>
       </c>
       <c r="E14">
-        <v>0.8634773054663141</v>
+        <v>0.9243786631837766</v>
       </c>
       <c r="F14">
-        <v>0.8682122837303938</v>
+        <v>0.9229544957626725</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018739558617934</v>
+        <v>1.033285961716917</v>
       </c>
       <c r="J14">
-        <v>0.8736937053529672</v>
+        <v>0.9376814179609948</v>
       </c>
       <c r="K14">
-        <v>1.01410042042516</v>
+        <v>1.028849814132009</v>
       </c>
       <c r="L14">
-        <v>0.88155325450082</v>
+        <v>0.940902046371447</v>
       </c>
       <c r="M14">
-        <v>0.8861568661281195</v>
+        <v>0.9395110567612093</v>
       </c>
       <c r="N14">
-        <v>0.8749344506286371</v>
+        <v>0.9390130331280611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8383918285512579</v>
+        <v>0.9050969030066082</v>
       </c>
       <c r="D15">
-        <v>0.9998498301919395</v>
+        <v>1.014713931652541</v>
       </c>
       <c r="E15">
-        <v>0.8660408422616941</v>
+        <v>0.925595586835382</v>
       </c>
       <c r="F15">
-        <v>0.8709078853445847</v>
+        <v>0.9244054403837022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019355703007633</v>
+        <v>1.03365746678549</v>
       </c>
       <c r="J15">
-        <v>0.8762619092691866</v>
+        <v>0.9388508784079191</v>
       </c>
       <c r="K15">
-        <v>1.014702635692771</v>
+        <v>1.029293182088042</v>
       </c>
       <c r="L15">
-        <v>0.8839350054919307</v>
+        <v>0.9419910209694214</v>
       </c>
       <c r="M15">
-        <v>0.8886690889254711</v>
+        <v>0.9408282995563532</v>
       </c>
       <c r="N15">
-        <v>0.8775063016889948</v>
+        <v>0.9401841543429593</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8549620554601868</v>
+        <v>0.9134461649774392</v>
       </c>
       <c r="D16">
-        <v>1.003756648228221</v>
+        <v>1.017793495639777</v>
       </c>
       <c r="E16">
-        <v>0.8800681077547207</v>
+        <v>0.9325025587234832</v>
       </c>
       <c r="F16">
-        <v>0.8856749775981256</v>
+        <v>0.932636852080915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022734993112416</v>
+        <v>1.035762482556987</v>
       </c>
       <c r="J16">
-        <v>0.8903006506754697</v>
+        <v>0.9454814670088975</v>
       </c>
       <c r="K16">
-        <v>1.018021925505521</v>
+        <v>1.031812990013961</v>
       </c>
       <c r="L16">
-        <v>0.8969581262445699</v>
+        <v>0.9481670574649126</v>
       </c>
       <c r="M16">
-        <v>0.9024246056439517</v>
+        <v>0.9482984466945846</v>
       </c>
       <c r="N16">
-        <v>0.8915649797183409</v>
+        <v>0.9468241591402902</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8645469471859676</v>
+        <v>0.9185007044698067</v>
       </c>
       <c r="D17">
-        <v>1.006061528120885</v>
+        <v>1.019671442743015</v>
       </c>
       <c r="E17">
-        <v>0.8882010149431714</v>
+        <v>0.936690584459171</v>
       </c>
       <c r="F17">
-        <v>0.8942494923774568</v>
+        <v>0.9376246874001903</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024699093304965</v>
+        <v>1.037035343154197</v>
       </c>
       <c r="J17">
-        <v>0.8984292549752859</v>
+        <v>0.9494959712667672</v>
       </c>
       <c r="K17">
-        <v>1.019964105010191</v>
+        <v>1.033343132898777</v>
       </c>
       <c r="L17">
-        <v>0.904501215116853</v>
+        <v>0.9519078428255568</v>
       </c>
       <c r="M17">
-        <v>0.9104060152892613</v>
+        <v>0.9528225358231764</v>
       </c>
       <c r="N17">
-        <v>0.899705127568627</v>
+        <v>0.950844364454676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.869893070043297</v>
+        <v>0.921387995630196</v>
       </c>
       <c r="D18">
-        <v>1.007361171259322</v>
+        <v>1.020748620434352</v>
       </c>
       <c r="E18">
-        <v>0.8927429520591524</v>
+        <v>0.9390851020938481</v>
       </c>
       <c r="F18">
-        <v>0.8990418834272996</v>
+        <v>0.9404753504335813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025797045207616</v>
+        <v>1.037761695592537</v>
       </c>
       <c r="J18">
-        <v>0.9029652503339483</v>
+        <v>0.9517892050565124</v>
       </c>
       <c r="K18">
-        <v>1.021054039625146</v>
+        <v>1.034218565381382</v>
       </c>
       <c r="L18">
-        <v>0.9087112057611563</v>
+        <v>0.9540452294200733</v>
       </c>
       <c r="M18">
-        <v>0.9148649580457457</v>
+        <v>0.9554072555318799</v>
       </c>
       <c r="N18">
-        <v>0.9042475645609844</v>
+        <v>0.9531408548994404</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8716780697910673</v>
+        <v>0.9223625774270585</v>
       </c>
       <c r="D19">
-        <v>1.007797322681947</v>
+        <v>1.021112926887277</v>
       </c>
       <c r="E19">
-        <v>0.8942603213291062</v>
+        <v>0.9398937101285788</v>
       </c>
       <c r="F19">
-        <v>0.9006435191382536</v>
+        <v>0.9414378021572701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026163977970287</v>
+        <v>1.038006726276745</v>
       </c>
       <c r="J19">
-        <v>0.904480064754286</v>
+        <v>0.9525632642262342</v>
       </c>
       <c r="K19">
-        <v>1.021418979176055</v>
+        <v>1.034514266064515</v>
       </c>
       <c r="L19">
-        <v>0.910117259335708</v>
+        <v>0.9547667684407284</v>
       </c>
       <c r="M19">
-        <v>0.9163548301664416</v>
+        <v>0.9562797638513603</v>
       </c>
       <c r="N19">
-        <v>0.9057645301915505</v>
+        <v>0.9539160133219691</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8635447766663938</v>
+        <v>0.9179648066992396</v>
       </c>
       <c r="D20">
-        <v>1.005819014809095</v>
+        <v>1.019471864066864</v>
       </c>
       <c r="E20">
-        <v>0.887350040227019</v>
+        <v>0.9362463236094861</v>
       </c>
       <c r="F20">
-        <v>0.8933518937876841</v>
+        <v>0.9370957038975116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024493456566766</v>
+        <v>1.036900463336798</v>
       </c>
       <c r="J20">
-        <v>0.8975791102953301</v>
+        <v>0.9490703346809592</v>
       </c>
       <c r="K20">
-        <v>1.019760309800784</v>
+        <v>1.03318075261586</v>
       </c>
       <c r="L20">
-        <v>0.9037122272980398</v>
+        <v>0.9515111733805355</v>
       </c>
       <c r="M20">
-        <v>0.9095707117248486</v>
+        <v>0.9523428283849644</v>
       </c>
       <c r="N20">
-        <v>0.8988537755857128</v>
+        <v>0.950418123416095</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8338861124843053</v>
+        <v>0.9029160787882785</v>
       </c>
       <c r="D21">
-        <v>0.9988048544984884</v>
+        <v>1.013914319699529</v>
       </c>
       <c r="E21">
-        <v>0.8622342123304696</v>
+        <v>0.9237937767422861</v>
       </c>
       <c r="F21">
-        <v>0.8669055130649208</v>
+        <v>0.922257062648478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018440964181411</v>
+        <v>1.033107348162471</v>
       </c>
       <c r="J21">
-        <v>0.8724480636519807</v>
+        <v>0.9371192144681382</v>
       </c>
       <c r="K21">
-        <v>1.013808904708643</v>
+        <v>1.028636790509989</v>
       </c>
       <c r="L21">
-        <v>0.8803981250625492</v>
+        <v>0.9403785688331556</v>
       </c>
       <c r="M21">
-        <v>0.8849388572186017</v>
+        <v>0.9388778417353052</v>
       </c>
       <c r="N21">
-        <v>0.8736870399735581</v>
+        <v>0.9384500312417594</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8117376533504986</v>
+        <v>0.8927902181575068</v>
       </c>
       <c r="D22">
-        <v>0.9937784284806477</v>
+        <v>1.010228545464704</v>
       </c>
       <c r="E22">
-        <v>0.8435734903848914</v>
+        <v>0.9154404557379254</v>
       </c>
       <c r="F22">
-        <v>0.84731872610633</v>
+        <v>0.9122915361187893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013974987135837</v>
+        <v>1.030552960000454</v>
       </c>
       <c r="J22">
-        <v>0.8537266279568506</v>
+        <v>0.9290808660205845</v>
       </c>
       <c r="K22">
-        <v>1.009474151737477</v>
+        <v>1.025600060163545</v>
       </c>
       <c r="L22">
-        <v>0.8630436741956681</v>
+        <v>0.9328962777974822</v>
       </c>
       <c r="M22">
-        <v>0.8666722619468035</v>
+        <v>0.9298266540072436</v>
       </c>
       <c r="N22">
-        <v>0.8549390176923625</v>
+        <v>0.9304002674173986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8239040078463968</v>
+        <v>0.8982275531134024</v>
       </c>
       <c r="D23">
-        <v>0.9965166422789107</v>
+        <v>1.012202135210955</v>
       </c>
       <c r="E23">
-        <v>0.8538131667400995</v>
+        <v>0.9199233562114275</v>
       </c>
       <c r="F23">
-        <v>0.858059493672821</v>
+        <v>0.917640751022066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016421591890261</v>
+        <v>1.031924530487261</v>
       </c>
       <c r="J23">
-        <v>0.8640048418088374</v>
+        <v>0.9333968044295898</v>
       </c>
       <c r="K23">
-        <v>1.011843002776149</v>
+        <v>1.027228374980092</v>
       </c>
       <c r="L23">
-        <v>0.8725698152597998</v>
+        <v>0.9369131125035889</v>
       </c>
       <c r="M23">
-        <v>0.8766914122717629</v>
+        <v>0.9346858146268736</v>
       </c>
       <c r="N23">
-        <v>0.8652318277869463</v>
+        <v>0.9347223349539898</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8639983592289777</v>
+        <v>0.918207142975325</v>
       </c>
       <c r="D24">
-        <v>1.005928732622043</v>
+        <v>1.019562101033027</v>
       </c>
       <c r="E24">
-        <v>0.8877351739256508</v>
+        <v>0.9364472142812726</v>
       </c>
       <c r="F24">
-        <v>0.8937581166086913</v>
+        <v>0.9373349089468772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024586520318126</v>
+        <v>1.036961459179047</v>
       </c>
       <c r="J24">
-        <v>0.8979638793760152</v>
+        <v>0.9492628100748417</v>
       </c>
       <c r="K24">
-        <v>1.019852526917292</v>
+        <v>1.033254177775317</v>
       </c>
       <c r="L24">
-        <v>0.9040693149904766</v>
+        <v>0.9516905480735101</v>
       </c>
       <c r="M24">
-        <v>0.9099487480452043</v>
+        <v>0.9525597537329031</v>
       </c>
       <c r="N24">
-        <v>0.8992390910826256</v>
+        <v>0.950610872147114</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9009103042418473</v>
+        <v>0.9390304420037685</v>
       </c>
       <c r="D25">
-        <v>1.015093895508519</v>
+        <v>1.027396349101024</v>
       </c>
       <c r="E25">
-        <v>0.9191676987813584</v>
+        <v>0.9537503443174534</v>
       </c>
       <c r="F25">
-        <v>0.9269741820525458</v>
+        <v>0.9579148622150826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032189164819708</v>
+        <v>1.042181865039966</v>
       </c>
       <c r="J25">
-        <v>0.929303672249804</v>
+        <v>0.9657995575376085</v>
       </c>
       <c r="K25">
-        <v>1.027462331197083</v>
+        <v>1.039583753522711</v>
       </c>
       <c r="L25">
-        <v>0.9331654006160939</v>
+        <v>0.9671117279761177</v>
       </c>
       <c r="M25">
-        <v>0.9408228230467661</v>
+        <v>0.9712036299512325</v>
       </c>
       <c r="N25">
-        <v>0.93062339005702</v>
+        <v>0.9671711036880692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.954169468766927</v>
+        <v>1.014810177245275</v>
       </c>
       <c r="D2">
-        <v>1.033181633139888</v>
+        <v>1.044555982582746</v>
       </c>
       <c r="E2">
-        <v>0.9663792768699726</v>
+        <v>1.018346898273175</v>
       </c>
       <c r="F2">
-        <v>0.9729035367425632</v>
+        <v>1.04269228454803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045936142698722</v>
+        <v>1.057058455570347</v>
       </c>
       <c r="J2">
-        <v>0.9778130504711147</v>
+        <v>1.036556765154668</v>
       </c>
       <c r="K2">
-        <v>1.04419726854529</v>
+        <v>1.055427612777454</v>
       </c>
       <c r="L2">
-        <v>0.9783277610571905</v>
+        <v>1.029556414687654</v>
       </c>
       <c r="M2">
-        <v>0.9847537367843333</v>
+        <v>1.053587241743706</v>
       </c>
       <c r="N2">
-        <v>0.979201657159508</v>
+        <v>1.03802879465591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.964468251023144</v>
+        <v>1.021934335484726</v>
       </c>
       <c r="D3">
-        <v>1.037153299600271</v>
+        <v>1.049054419217343</v>
       </c>
       <c r="E3">
-        <v>0.9749930839157052</v>
+        <v>1.024327236046024</v>
       </c>
       <c r="F3">
-        <v>0.9831093149973203</v>
+        <v>1.048298716268534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048459455778559</v>
+        <v>1.059731804081079</v>
       </c>
       <c r="J3">
-        <v>0.9859767539137657</v>
+        <v>1.04184439801326</v>
       </c>
       <c r="K3">
-        <v>1.047331881927035</v>
+        <v>1.05909587610411</v>
       </c>
       <c r="L3">
-        <v>0.9859562582871718</v>
+        <v>1.034658027171835</v>
       </c>
       <c r="M3">
-        <v>0.9939629766866652</v>
+        <v>1.058348766221087</v>
       </c>
       <c r="N3">
-        <v>0.9873769539974376</v>
+        <v>1.043323936559662</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9708527478723284</v>
+        <v>1.026412912208358</v>
       </c>
       <c r="D4">
-        <v>1.039627818792243</v>
+        <v>1.051888837580946</v>
       </c>
       <c r="E4">
-        <v>0.9803419464077126</v>
+        <v>1.028091498947593</v>
       </c>
       <c r="F4">
-        <v>0.9894388482978401</v>
+        <v>1.051833402429311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050007629439488</v>
+        <v>1.061401553595553</v>
       </c>
       <c r="J4">
-        <v>0.9910326182264834</v>
+        <v>1.045164282740586</v>
       </c>
       <c r="K4">
-        <v>1.04927038636027</v>
+        <v>1.061398886830508</v>
       </c>
       <c r="L4">
-        <v>0.9906835635446353</v>
+        <v>1.037862305956968</v>
       </c>
       <c r="M4">
-        <v>0.999666430818809</v>
+        <v>1.061344042314118</v>
       </c>
       <c r="N4">
-        <v>0.992439998217395</v>
+        <v>1.046648535904096</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734751582957683</v>
+        <v>1.028265946377818</v>
       </c>
       <c r="D5">
-        <v>1.040646621741094</v>
+        <v>1.05306298743625</v>
       </c>
       <c r="E5">
-        <v>0.982540922303307</v>
+        <v>1.029650035479674</v>
       </c>
       <c r="F5">
-        <v>0.9920391220573781</v>
+        <v>1.053298193204108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050639411356115</v>
+        <v>1.062089743879446</v>
       </c>
       <c r="J5">
-        <v>0.9931079629232844</v>
+        <v>1.046536838551679</v>
       </c>
       <c r="K5">
-        <v>1.05006509292698</v>
+        <v>1.062350924257627</v>
       </c>
       <c r="L5">
-        <v>0.9926247119216992</v>
+        <v>1.039187341161071</v>
       </c>
       <c r="M5">
-        <v>1.002007547964303</v>
+        <v>1.062583693541024</v>
       </c>
       <c r="N5">
-        <v>0.9945182901417109</v>
+        <v>1.048023040901875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9739119996341503</v>
+        <v>1.028575379640094</v>
       </c>
       <c r="D6">
-        <v>1.040816459864996</v>
+        <v>1.053259133073979</v>
       </c>
       <c r="E6">
-        <v>0.9829073373497822</v>
+        <v>1.029910350945268</v>
       </c>
       <c r="F6">
-        <v>0.9924722961299125</v>
+        <v>1.05354292541025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05074440362244</v>
+        <v>1.062204503371161</v>
       </c>
       <c r="J6">
-        <v>0.9934535920727586</v>
+        <v>1.046765973672209</v>
       </c>
       <c r="K6">
-        <v>1.0501973745032</v>
+        <v>1.062509849455903</v>
       </c>
       <c r="L6">
-        <v>0.9929480308127083</v>
+        <v>1.039408559055765</v>
       </c>
       <c r="M6">
-        <v>1.002397434026115</v>
+        <v>1.062790715995422</v>
       </c>
       <c r="N6">
-        <v>0.9948644101242216</v>
+        <v>1.048252501420559</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9708880243359531</v>
+        <v>1.02643778738046</v>
       </c>
       <c r="D7">
-        <v>1.039641514831421</v>
+        <v>1.051904594084158</v>
       </c>
       <c r="E7">
-        <v>0.9803715193701001</v>
+        <v>1.028112416716765</v>
       </c>
       <c r="F7">
-        <v>0.9894738254945752</v>
+        <v>1.051853056926655</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050016144822362</v>
+        <v>1.061410802568354</v>
       </c>
       <c r="J7">
-        <v>0.9910605410554764</v>
+        <v>1.045182712250639</v>
       </c>
       <c r="K7">
-        <v>1.049281083249317</v>
+        <v>1.061411670497342</v>
       </c>
       <c r="L7">
-        <v>0.99070967818706</v>
+        <v>1.037880096325541</v>
       </c>
       <c r="M7">
-        <v>0.9996979297914866</v>
+        <v>1.061360682239146</v>
       </c>
       <c r="N7">
-        <v>0.992467960700008</v>
+        <v>1.046666991586167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9577112671766691</v>
+        <v>1.017246032109392</v>
       </c>
       <c r="D8">
-        <v>1.034544503342858</v>
+        <v>1.046092591724727</v>
       </c>
       <c r="E8">
-        <v>0.9693395760686832</v>
+        <v>1.020390609162826</v>
       </c>
       <c r="F8">
-        <v>0.9764126414151902</v>
+        <v>1.044606950626209</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046807177946738</v>
+        <v>1.057974751219136</v>
       </c>
       <c r="J8">
-        <v>0.980621575733774</v>
+        <v>1.038365523112968</v>
       </c>
       <c r="K8">
-        <v>1.045276027108771</v>
+        <v>1.056682410174069</v>
       </c>
       <c r="L8">
-        <v>0.980951527564794</v>
+        <v>1.031301282588908</v>
       </c>
       <c r="M8">
-        <v>0.9879218904887653</v>
+        <v>1.055214781018996</v>
       </c>
       <c r="N8">
-        <v>0.9820141708501826</v>
+        <v>1.039840121257979</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9320707060773135</v>
+        <v>0.9999618921808002</v>
       </c>
       <c r="D9">
-        <v>1.024760899822093</v>
+        <v>1.035224686254034</v>
       </c>
       <c r="E9">
-        <v>0.9479582372642767</v>
+        <v>1.005913396568764</v>
       </c>
       <c r="F9">
-        <v>0.9510311638881545</v>
+        <v>1.031072321800623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040442617360678</v>
+        <v>1.051429590524406</v>
       </c>
       <c r="J9">
-        <v>0.9602734027578884</v>
+        <v>1.025515996203788</v>
       </c>
       <c r="K9">
-        <v>1.037464627985488</v>
+        <v>1.047770997076047</v>
       </c>
       <c r="L9">
-        <v>0.9619561345816278</v>
+        <v>1.018911256107985</v>
       </c>
       <c r="M9">
-        <v>0.9649720480443101</v>
+        <v>1.043680614178705</v>
       </c>
       <c r="N9">
-        <v>0.9616371011347035</v>
+        <v>1.026972346546726</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.912866366890247</v>
+        <v>0.9875799545129202</v>
       </c>
       <c r="D10">
-        <v>1.017578724868231</v>
+        <v>1.027493826791046</v>
       </c>
       <c r="E10">
-        <v>0.9320224739017634</v>
+        <v>0.9955784368118278</v>
       </c>
       <c r="F10">
-        <v>0.9320649228258774</v>
+        <v>1.021451204239239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03561638724488</v>
+        <v>1.046689364723348</v>
       </c>
       <c r="J10">
-        <v>0.9450209832591423</v>
+        <v>1.016295159636144</v>
       </c>
       <c r="K10">
-        <v>1.031637681472196</v>
+        <v>1.041383803001013</v>
       </c>
       <c r="L10">
-        <v>0.9477380429437124</v>
+        <v>1.010027985506535</v>
       </c>
       <c r="M10">
-        <v>0.9477795697542217</v>
+        <v>1.035443658844165</v>
       </c>
       <c r="N10">
-        <v>0.9463630214507921</v>
+        <v>1.017738415333511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9039061560395614</v>
+        <v>0.9819813163938889</v>
       </c>
       <c r="D11">
-        <v>1.014277087791978</v>
+        <v>1.024014532566408</v>
       </c>
       <c r="E11">
-        <v>0.9246116657216243</v>
+        <v>0.9909157429819817</v>
       </c>
       <c r="F11">
-        <v>0.9232323211736769</v>
+        <v>1.017121940462713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033357106059023</v>
+        <v>1.044535262353089</v>
       </c>
       <c r="J11">
-        <v>0.9379053609294203</v>
+        <v>1.012123392316414</v>
       </c>
       <c r="K11">
-        <v>1.028934689837211</v>
+        <v>1.038497348145047</v>
       </c>
       <c r="L11">
-        <v>0.9411105696330985</v>
+        <v>1.006011032844892</v>
       </c>
       <c r="M11">
-        <v>0.9397632918088774</v>
+        <v>1.03172802775007</v>
       </c>
       <c r="N11">
-        <v>0.9392372941211885</v>
+        <v>1.013560723625679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9004650747022934</v>
+        <v>0.9798628344789411</v>
       </c>
       <c r="D12">
-        <v>1.013018063425138</v>
+        <v>1.022700759966495</v>
       </c>
       <c r="E12">
-        <v>0.9217698911332699</v>
+        <v>0.9891531463896329</v>
       </c>
       <c r="F12">
-        <v>0.9198433847266477</v>
+        <v>1.015487254614353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0324890178693</v>
+        <v>1.043718689970083</v>
       </c>
       <c r="J12">
-        <v>0.935173176291517</v>
+        <v>1.010544580940409</v>
       </c>
       <c r="K12">
-        <v>1.027900036653739</v>
+        <v>1.03740559989176</v>
       </c>
       <c r="L12">
-        <v>0.9385667455156734</v>
+        <v>1.004491147795603</v>
       </c>
       <c r="M12">
-        <v>0.93668616983385</v>
+        <v>1.03032363887973</v>
       </c>
       <c r="N12">
-        <v>0.9365012294677133</v>
+        <v>1.011979670156429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9012086065802555</v>
+        <v>0.9803190732045927</v>
       </c>
       <c r="D13">
-        <v>1.01328967751719</v>
+        <v>1.02298356531937</v>
       </c>
       <c r="E13">
-        <v>0.9223837241177311</v>
+        <v>0.989532660151675</v>
       </c>
       <c r="F13">
-        <v>0.9205754959994139</v>
+        <v>1.015839140250585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032676597091588</v>
+        <v>1.043894612203393</v>
       </c>
       <c r="J13">
-        <v>0.935763503534252</v>
+        <v>1.010884604605768</v>
       </c>
       <c r="K13">
-        <v>1.02812342732519</v>
+        <v>1.037640695251631</v>
       </c>
       <c r="L13">
-        <v>0.9391163315747258</v>
+        <v>1.004818465106945</v>
       </c>
       <c r="M13">
-        <v>0.9373509816120343</v>
+        <v>1.030626014126543</v>
       </c>
       <c r="N13">
-        <v>0.9370923950428447</v>
+        <v>1.012320176694393</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9036241244195033</v>
+        <v>0.981807015877336</v>
       </c>
       <c r="D14">
-        <v>1.014173707942331</v>
+        <v>1.023906382407825</v>
       </c>
       <c r="E14">
-        <v>0.9243786631837766</v>
+        <v>0.9907706871758479</v>
       </c>
       <c r="F14">
-        <v>0.9229544957626725</v>
+        <v>1.016987372435606</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033285961716917</v>
+        <v>1.044468107021503</v>
       </c>
       <c r="J14">
-        <v>0.9376814179609948</v>
+        <v>1.01199349805501</v>
       </c>
       <c r="K14">
-        <v>1.028849814132009</v>
+        <v>1.038407512520865</v>
       </c>
       <c r="L14">
-        <v>0.940902046371447</v>
+        <v>1.005885979693586</v>
       </c>
       <c r="M14">
-        <v>0.9395110567612093</v>
+        <v>1.031612446502394</v>
       </c>
       <c r="N14">
-        <v>0.9390130331280611</v>
+        <v>1.013430644899525</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9050969030066082</v>
+        <v>0.982718527420271</v>
       </c>
       <c r="D15">
-        <v>1.014713931652541</v>
+        <v>1.024472072376273</v>
       </c>
       <c r="E15">
-        <v>0.925595586835382</v>
+        <v>0.9915293337644046</v>
       </c>
       <c r="F15">
-        <v>0.9244054403837022</v>
+        <v>1.017691244504543</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03365746678549</v>
+        <v>1.044819239371382</v>
       </c>
       <c r="J15">
-        <v>0.9388508784079191</v>
+        <v>1.012672776050457</v>
       </c>
       <c r="K15">
-        <v>1.029293182088042</v>
+        <v>1.038877331787132</v>
       </c>
       <c r="L15">
-        <v>0.9419910209694214</v>
+        <v>1.00653995507109</v>
       </c>
       <c r="M15">
-        <v>0.9408282995563532</v>
+        <v>1.032216948975831</v>
       </c>
       <c r="N15">
-        <v>0.9401841543429593</v>
+        <v>1.014110887547639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9134461649774392</v>
+        <v>0.9879462510410871</v>
       </c>
       <c r="D16">
-        <v>1.017793495639777</v>
+        <v>1.02772182648496</v>
       </c>
       <c r="E16">
-        <v>0.9325025587234832</v>
+        <v>0.9958837271215152</v>
       </c>
       <c r="F16">
-        <v>0.932636852080915</v>
+        <v>1.021734911797216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035762482556987</v>
+        <v>1.046830087784652</v>
       </c>
       <c r="J16">
-        <v>0.9454814670088975</v>
+        <v>1.016568060842125</v>
       </c>
       <c r="K16">
-        <v>1.031812990013961</v>
+        <v>1.041572703536746</v>
       </c>
       <c r="L16">
-        <v>0.9481670574649126</v>
+        <v>1.010290804415801</v>
       </c>
       <c r="M16">
-        <v>0.9482984466945846</v>
+        <v>1.035686960815269</v>
       </c>
       <c r="N16">
-        <v>0.9468241591402902</v>
+        <v>1.018011704090508</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9185007044698067</v>
+        <v>0.9911597833569512</v>
       </c>
       <c r="D17">
-        <v>1.019671442743015</v>
+        <v>1.029723951167543</v>
       </c>
       <c r="E17">
-        <v>0.936690584459171</v>
+        <v>0.9985632401589546</v>
       </c>
       <c r="F17">
-        <v>0.9376246874001903</v>
+        <v>1.024226297336324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037035343154197</v>
+        <v>1.048063457486364</v>
       </c>
       <c r="J17">
-        <v>0.9494959712667672</v>
+        <v>1.018961968649558</v>
       </c>
       <c r="K17">
-        <v>1.033343132898777</v>
+        <v>1.043230138810765</v>
       </c>
       <c r="L17">
-        <v>0.9519078428255568</v>
+        <v>1.01259650796411</v>
       </c>
       <c r="M17">
-        <v>0.9528225358231764</v>
+        <v>1.037822479410782</v>
       </c>
       <c r="N17">
-        <v>0.950844364454676</v>
+        <v>1.020409011521611</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.921387995630196</v>
+        <v>0.9930115390455351</v>
       </c>
       <c r="D18">
-        <v>1.020748620434352</v>
+        <v>1.030879159777261</v>
       </c>
       <c r="E18">
-        <v>0.9390851020938481</v>
+        <v>1.00010823791118</v>
       </c>
       <c r="F18">
-        <v>0.9404753504335813</v>
+        <v>1.025663881049832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037761695592537</v>
+        <v>1.048773149945293</v>
       </c>
       <c r="J18">
-        <v>0.9517892050565124</v>
+        <v>1.020341186838915</v>
       </c>
       <c r="K18">
-        <v>1.034218565381382</v>
+        <v>1.044185347782187</v>
       </c>
       <c r="L18">
-        <v>0.9540452294200733</v>
+        <v>1.013925103289316</v>
       </c>
       <c r="M18">
-        <v>0.9554072555318799</v>
+        <v>1.039053853749284</v>
       </c>
       <c r="N18">
-        <v>0.9531408548994404</v>
+        <v>1.021790188358996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9223625774270585</v>
+        <v>0.9936391918706446</v>
       </c>
       <c r="D19">
-        <v>1.021112926887277</v>
+        <v>1.031270965284825</v>
       </c>
       <c r="E19">
-        <v>0.9398937101285788</v>
+        <v>1.000632073773469</v>
       </c>
       <c r="F19">
-        <v>0.9414378021572701</v>
+        <v>1.026151473205857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038006726276745</v>
+        <v>1.049013523280973</v>
       </c>
       <c r="J19">
-        <v>0.9525632642262342</v>
+        <v>1.020808628940601</v>
       </c>
       <c r="K19">
-        <v>1.034514266064515</v>
+        <v>1.044509132366407</v>
       </c>
       <c r="L19">
-        <v>0.9547667684407284</v>
+        <v>1.014375420812454</v>
       </c>
       <c r="M19">
-        <v>0.9562797638513603</v>
+        <v>1.039471358504347</v>
       </c>
       <c r="N19">
-        <v>0.9539160133219691</v>
+        <v>1.022258294282082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9179648066992396</v>
+        <v>0.9908173661705933</v>
       </c>
       <c r="D20">
-        <v>1.019471864066864</v>
+        <v>1.029510456121553</v>
       </c>
       <c r="E20">
-        <v>0.9362463236094861</v>
+        <v>0.9982776239756217</v>
       </c>
       <c r="F20">
-        <v>0.9370957038975116</v>
+        <v>1.023960622993034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036900463336798</v>
+        <v>1.04793214118525</v>
       </c>
       <c r="J20">
-        <v>0.9490703346809592</v>
+        <v>1.018706910440419</v>
       </c>
       <c r="K20">
-        <v>1.03318075261586</v>
+        <v>1.043053515764867</v>
       </c>
       <c r="L20">
-        <v>0.9515111733805355</v>
+        <v>1.012350827051687</v>
       </c>
       <c r="M20">
-        <v>0.9523428283849644</v>
+        <v>1.037594843847459</v>
       </c>
       <c r="N20">
-        <v>0.950418123416095</v>
+        <v>1.020153591100561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9029160787882785</v>
+        <v>0.981369955917035</v>
       </c>
       <c r="D21">
-        <v>1.013914319699529</v>
+        <v>1.023635240613853</v>
       </c>
       <c r="E21">
-        <v>0.9237937767422861</v>
+        <v>0.9904069870194385</v>
       </c>
       <c r="F21">
-        <v>0.922257062648478</v>
+        <v>1.01664999901364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033107348162471</v>
+        <v>1.044299691237519</v>
       </c>
       <c r="J21">
-        <v>0.9371192144681382</v>
+        <v>1.011667783617435</v>
       </c>
       <c r="K21">
-        <v>1.028636790509989</v>
+        <v>1.038182257235821</v>
       </c>
       <c r="L21">
-        <v>0.9403785688331556</v>
+        <v>1.005572410002129</v>
       </c>
       <c r="M21">
-        <v>0.9388778417353052</v>
+        <v>1.031322651867066</v>
       </c>
       <c r="N21">
-        <v>0.9384500312417594</v>
+        <v>1.013104467910089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8927902181575068</v>
+        <v>0.9752030084953599</v>
       </c>
       <c r="D22">
-        <v>1.010228545464704</v>
+        <v>1.01981645839725</v>
       </c>
       <c r="E22">
-        <v>0.9154404557379254</v>
+        <v>0.9852795284914158</v>
       </c>
       <c r="F22">
-        <v>0.9122915361187893</v>
+        <v>1.011898376479077</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030552960000454</v>
+        <v>1.041919995593628</v>
       </c>
       <c r="J22">
-        <v>0.9290808660205845</v>
+        <v>1.007071510942026</v>
       </c>
       <c r="K22">
-        <v>1.025600060163545</v>
+        <v>1.035005310345502</v>
       </c>
       <c r="L22">
-        <v>0.9328962777974822</v>
+        <v>1.001148351975496</v>
       </c>
       <c r="M22">
-        <v>0.9298266540072436</v>
+        <v>1.027237752698756</v>
       </c>
       <c r="N22">
-        <v>0.9304002674173986</v>
+        <v>1.008501668000281</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8982275531134024</v>
+        <v>0.9784949412903358</v>
       </c>
       <c r="D23">
-        <v>1.012202135210955</v>
+        <v>1.021853285607746</v>
       </c>
       <c r="E23">
-        <v>0.9199233562114275</v>
+        <v>0.988015557733771</v>
       </c>
       <c r="F23">
-        <v>0.917640751022066</v>
+        <v>1.014432767816218</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031924530487261</v>
+        <v>1.043191035691738</v>
       </c>
       <c r="J23">
-        <v>0.9333968044295898</v>
+        <v>1.009525097371592</v>
       </c>
       <c r="K23">
-        <v>1.027228374980092</v>
+        <v>1.03670082458806</v>
       </c>
       <c r="L23">
-        <v>0.9369131125035889</v>
+        <v>1.003509812542076</v>
       </c>
       <c r="M23">
-        <v>0.9346858146268736</v>
+        <v>1.029417310948195</v>
       </c>
       <c r="N23">
-        <v>0.9347223349539898</v>
+        <v>1.010958738804007</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.918207142975325</v>
+        <v>0.9909721594906928</v>
       </c>
       <c r="D24">
-        <v>1.019562101033027</v>
+        <v>1.029606964152172</v>
       </c>
       <c r="E24">
-        <v>0.9364472142812726</v>
+        <v>0.9984067368194499</v>
       </c>
       <c r="F24">
-        <v>0.9373349089468772</v>
+        <v>1.024080717845966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036961459179047</v>
+        <v>1.047991507291965</v>
       </c>
       <c r="J24">
-        <v>0.9492628100748417</v>
+        <v>1.018822212961976</v>
       </c>
       <c r="K24">
-        <v>1.033254177775317</v>
+        <v>1.043133359686953</v>
       </c>
       <c r="L24">
-        <v>0.9516905480735101</v>
+        <v>1.012461889835507</v>
       </c>
       <c r="M24">
-        <v>0.9525597537329031</v>
+        <v>1.037697746420957</v>
       </c>
       <c r="N24">
-        <v>0.950610872147114</v>
+        <v>1.020269057364924</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390304420037685</v>
+        <v>1.004571441539526</v>
       </c>
       <c r="D25">
-        <v>1.027396349101024</v>
+        <v>1.038114765847377</v>
       </c>
       <c r="E25">
-        <v>0.9537503443174534</v>
+        <v>1.009768734820537</v>
       </c>
       <c r="F25">
-        <v>0.9579148622150826</v>
+        <v>1.034670153156836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042181865039966</v>
+        <v>1.053184331006094</v>
       </c>
       <c r="J25">
-        <v>0.9657995575376085</v>
+        <v>1.028945931814323</v>
       </c>
       <c r="K25">
-        <v>1.039583753522711</v>
+        <v>1.050148869766103</v>
       </c>
       <c r="L25">
-        <v>0.9671117279761177</v>
+        <v>1.022217273128029</v>
       </c>
       <c r="M25">
-        <v>0.9712036299512325</v>
+        <v>1.046753085594046</v>
       </c>
       <c r="N25">
-        <v>0.9671711036880692</v>
+        <v>1.030407153059248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014810177245275</v>
+        <v>1.051248330555805</v>
       </c>
       <c r="D2">
-        <v>1.044555982582746</v>
+        <v>1.057180132492496</v>
       </c>
       <c r="E2">
-        <v>1.018346898273175</v>
+        <v>1.048143192356557</v>
       </c>
       <c r="F2">
-        <v>1.04269228454803</v>
+        <v>1.064939561016133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057058455570347</v>
+        <v>1.049168331995405</v>
       </c>
       <c r="J2">
-        <v>1.036556765154668</v>
+        <v>1.05627720495258</v>
       </c>
       <c r="K2">
-        <v>1.055427612777454</v>
+        <v>1.059915808933184</v>
       </c>
       <c r="L2">
-        <v>1.029556414687654</v>
+        <v>1.050903860449022</v>
       </c>
       <c r="M2">
-        <v>1.053587241743706</v>
+        <v>1.067654145098621</v>
       </c>
       <c r="N2">
-        <v>1.03802879465591</v>
+        <v>1.057777239740302</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021934335484726</v>
+        <v>1.05265992944496</v>
       </c>
       <c r="D3">
-        <v>1.049054419217343</v>
+        <v>1.058068084271872</v>
       </c>
       <c r="E3">
-        <v>1.024327236046024</v>
+        <v>1.049365062568878</v>
       </c>
       <c r="F3">
-        <v>1.048298716268534</v>
+        <v>1.066091568972227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059731804081079</v>
+        <v>1.04960547009556</v>
       </c>
       <c r="J3">
-        <v>1.04184439801326</v>
+        <v>1.057336558526316</v>
       </c>
       <c r="K3">
-        <v>1.05909587610411</v>
+        <v>1.060617357570881</v>
       </c>
       <c r="L3">
-        <v>1.034658027171835</v>
+        <v>1.051936655679465</v>
       </c>
       <c r="M3">
-        <v>1.058348766221087</v>
+        <v>1.068620613010205</v>
       </c>
       <c r="N3">
-        <v>1.043323936559662</v>
+        <v>1.058838097717622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026412912208358</v>
+        <v>1.053572276119186</v>
       </c>
       <c r="D4">
-        <v>1.051888837580946</v>
+        <v>1.058641961211886</v>
       </c>
       <c r="E4">
-        <v>1.028091498947593</v>
+        <v>1.050154849252077</v>
       </c>
       <c r="F4">
-        <v>1.051833402429311</v>
+        <v>1.0668365929837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061401553595553</v>
+        <v>1.049886531038929</v>
       </c>
       <c r="J4">
-        <v>1.045164282740586</v>
+        <v>1.058020538702663</v>
       </c>
       <c r="K4">
-        <v>1.061398886830508</v>
+        <v>1.061069983700112</v>
       </c>
       <c r="L4">
-        <v>1.037862305956968</v>
+        <v>1.052603537049207</v>
       </c>
       <c r="M4">
-        <v>1.061344042314118</v>
+        <v>1.069244997405348</v>
       </c>
       <c r="N4">
-        <v>1.046648535904096</v>
+        <v>1.059523049224273</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028265946377818</v>
+        <v>1.053955580140386</v>
       </c>
       <c r="D5">
-        <v>1.05306298743625</v>
+        <v>1.05888305618524</v>
       </c>
       <c r="E5">
-        <v>1.029650035479674</v>
+        <v>1.050486677166228</v>
       </c>
       <c r="F5">
-        <v>1.053298193204108</v>
+        <v>1.067149707368734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062089743879446</v>
+        <v>1.050004260476436</v>
       </c>
       <c r="J5">
-        <v>1.046536838551679</v>
+        <v>1.058307730436095</v>
       </c>
       <c r="K5">
-        <v>1.062350924257627</v>
+        <v>1.061259952790646</v>
       </c>
       <c r="L5">
-        <v>1.039187341161071</v>
+        <v>1.052883560905975</v>
       </c>
       <c r="M5">
-        <v>1.062583693541024</v>
+        <v>1.069507255212516</v>
       </c>
       <c r="N5">
-        <v>1.048023040901875</v>
+        <v>1.059810648802908</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028575379640094</v>
+        <v>1.054019924272003</v>
       </c>
       <c r="D6">
-        <v>1.053259133073979</v>
+        <v>1.058923527587304</v>
       </c>
       <c r="E6">
-        <v>1.029910350945268</v>
+        <v>1.050542381011441</v>
       </c>
       <c r="F6">
-        <v>1.05354292541025</v>
+        <v>1.067202275231042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062204503371161</v>
+        <v>1.050024002679189</v>
       </c>
       <c r="J6">
-        <v>1.046765973672209</v>
+        <v>1.058355930569384</v>
       </c>
       <c r="K6">
-        <v>1.062509849455903</v>
+        <v>1.061291831019183</v>
       </c>
       <c r="L6">
-        <v>1.039408559055765</v>
+        <v>1.05293055871594</v>
       </c>
       <c r="M6">
-        <v>1.062790715995422</v>
+        <v>1.069551275835909</v>
       </c>
       <c r="N6">
-        <v>1.048252501420559</v>
+        <v>1.059858917385915</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02643778738046</v>
+        <v>1.05357739880826</v>
       </c>
       <c r="D7">
-        <v>1.051904594084158</v>
+        <v>1.058645183372759</v>
       </c>
       <c r="E7">
-        <v>1.028112416716765</v>
+        <v>1.050159283927676</v>
       </c>
       <c r="F7">
-        <v>1.051853056926655</v>
+        <v>1.066840777198464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061410802568354</v>
+        <v>1.049888105827576</v>
       </c>
       <c r="J7">
-        <v>1.045182712250639</v>
+        <v>1.058024377557151</v>
       </c>
       <c r="K7">
-        <v>1.061411670497342</v>
+        <v>1.06107252331173</v>
       </c>
       <c r="L7">
-        <v>1.037880096325541</v>
+        <v>1.052607280045997</v>
       </c>
       <c r="M7">
-        <v>1.061360682239146</v>
+        <v>1.069248502621092</v>
       </c>
       <c r="N7">
-        <v>1.046666991586167</v>
+        <v>1.059526893530375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017246032109392</v>
+        <v>1.051725608116478</v>
       </c>
       <c r="D8">
-        <v>1.046092591724727</v>
+        <v>1.057480363237988</v>
       </c>
       <c r="E8">
-        <v>1.020390609162826</v>
+        <v>1.048556306439736</v>
       </c>
       <c r="F8">
-        <v>1.044606950626209</v>
+        <v>1.065328972321889</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057974751219136</v>
+        <v>1.049316437795605</v>
       </c>
       <c r="J8">
-        <v>1.038365523112968</v>
+        <v>1.05663552973436</v>
       </c>
       <c r="K8">
-        <v>1.056682410174069</v>
+        <v>1.060153175511816</v>
       </c>
       <c r="L8">
-        <v>1.031301282588908</v>
+        <v>1.051253191754251</v>
       </c>
       <c r="M8">
-        <v>1.055214781018996</v>
+        <v>1.067980972854145</v>
       </c>
       <c r="N8">
-        <v>1.039840121257979</v>
+        <v>1.058136073384372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9999618921808002</v>
+        <v>1.048454216399903</v>
       </c>
       <c r="D9">
-        <v>1.035224686254034</v>
+        <v>1.055422463925075</v>
       </c>
       <c r="E9">
-        <v>1.005913396568764</v>
+        <v>1.045725008060489</v>
       </c>
       <c r="F9">
-        <v>1.031072321800623</v>
+        <v>1.062661782932721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051429590524406</v>
+        <v>1.048295256380686</v>
       </c>
       <c r="J9">
-        <v>1.025515996203788</v>
+        <v>1.054176603435648</v>
       </c>
       <c r="K9">
-        <v>1.047770997076047</v>
+        <v>1.058522958199082</v>
       </c>
       <c r="L9">
-        <v>1.018911256107985</v>
+        <v>1.048856184588174</v>
       </c>
       <c r="M9">
-        <v>1.043680614178705</v>
+        <v>1.065739771066025</v>
       </c>
       <c r="N9">
-        <v>1.026972346546726</v>
+        <v>1.055673655128273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9875799545129202</v>
+        <v>1.046267369000302</v>
       </c>
       <c r="D10">
-        <v>1.027493826791046</v>
+        <v>1.054046836301113</v>
       </c>
       <c r="E10">
-        <v>0.9955784368118278</v>
+        <v>1.043832759588853</v>
       </c>
       <c r="F10">
-        <v>1.021451204239239</v>
+        <v>1.060881343056227</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046689364723348</v>
+        <v>1.047605072551103</v>
       </c>
       <c r="J10">
-        <v>1.016295159636144</v>
+        <v>1.052529282754634</v>
       </c>
       <c r="K10">
-        <v>1.041383803001013</v>
+        <v>1.057429171031676</v>
       </c>
       <c r="L10">
-        <v>1.010027985506535</v>
+        <v>1.0472506041001</v>
       </c>
       <c r="M10">
-        <v>1.035443658844165</v>
+        <v>1.06424033708536</v>
       </c>
       <c r="N10">
-        <v>1.017738415333511</v>
+        <v>1.054023995062942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9819813163938889</v>
+        <v>1.045318959878337</v>
       </c>
       <c r="D11">
-        <v>1.024014532566408</v>
+        <v>1.053450273545306</v>
       </c>
       <c r="E11">
-        <v>0.9909157429819817</v>
+        <v>1.043012220894478</v>
       </c>
       <c r="F11">
-        <v>1.017121940462713</v>
+        <v>1.060109806672348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044535262353089</v>
+        <v>1.047303964377753</v>
       </c>
       <c r="J11">
-        <v>1.012123392316414</v>
+        <v>1.05181401501096</v>
       </c>
       <c r="K11">
-        <v>1.038497348145047</v>
+        <v>1.056953869081788</v>
       </c>
       <c r="L11">
-        <v>1.006011032844892</v>
+        <v>1.046553522166213</v>
       </c>
       <c r="M11">
-        <v>1.03172802775007</v>
+        <v>1.063589773544291</v>
       </c>
       <c r="N11">
-        <v>1.013560723625679</v>
+        <v>1.05330771155703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9798628344789411</v>
+        <v>1.044966448052417</v>
       </c>
       <c r="D12">
-        <v>1.022700759966495</v>
+        <v>1.053228545116226</v>
       </c>
       <c r="E12">
-        <v>0.9891531463896329</v>
+        <v>1.042707253738071</v>
       </c>
       <c r="F12">
-        <v>1.015487254614353</v>
+        <v>1.059823131109918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043718689970083</v>
+        <v>1.047191778762562</v>
       </c>
       <c r="J12">
-        <v>1.010544580940409</v>
+        <v>1.051548032498836</v>
       </c>
       <c r="K12">
-        <v>1.03740559989176</v>
+        <v>1.056777065354286</v>
       </c>
       <c r="L12">
-        <v>1.004491147795603</v>
+        <v>1.046294311728169</v>
       </c>
       <c r="M12">
-        <v>1.03032363887973</v>
+        <v>1.063347927038186</v>
       </c>
       <c r="N12">
-        <v>1.011979670156429</v>
+        <v>1.05304135131923</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9803190732045927</v>
+        <v>1.045042073570904</v>
       </c>
       <c r="D13">
-        <v>1.02298356531937</v>
+        <v>1.053276112918155</v>
       </c>
       <c r="E13">
-        <v>0.989532660151675</v>
+        <v>1.042772678567761</v>
       </c>
       <c r="F13">
-        <v>1.015839140250585</v>
+        <v>1.059884628235126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043894612203393</v>
+        <v>1.047215858404311</v>
       </c>
       <c r="J13">
-        <v>1.010884604605768</v>
+        <v>1.0516051003122</v>
       </c>
       <c r="K13">
-        <v>1.037640695251631</v>
+        <v>1.056815001949199</v>
       </c>
       <c r="L13">
-        <v>1.004818465106945</v>
+        <v>1.046349926133289</v>
       </c>
       <c r="M13">
-        <v>1.030626014126543</v>
+        <v>1.063399812955864</v>
       </c>
       <c r="N13">
-        <v>1.012320176694393</v>
+        <v>1.053098500175434</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.981807015877336</v>
+        <v>1.045289825880431</v>
       </c>
       <c r="D14">
-        <v>1.023906382407825</v>
+        <v>1.053431948241553</v>
       </c>
       <c r="E14">
-        <v>0.9907706871758479</v>
+        <v>1.042987015966481</v>
       </c>
       <c r="F14">
-        <v>1.016987372435606</v>
+        <v>1.06008611188922</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044468107021503</v>
+        <v>1.047294698040176</v>
       </c>
       <c r="J14">
-        <v>1.01199349805501</v>
+        <v>1.051792034965332</v>
       </c>
       <c r="K14">
-        <v>1.038407512520865</v>
+        <v>1.056939259654297</v>
       </c>
       <c r="L14">
-        <v>1.005885979693586</v>
+        <v>1.046532101553133</v>
       </c>
       <c r="M14">
-        <v>1.031612446502394</v>
+        <v>1.06356978649883</v>
       </c>
       <c r="N14">
-        <v>1.013430644899525</v>
+        <v>1.053285700297216</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.982718527420271</v>
+        <v>1.045442443519363</v>
       </c>
       <c r="D15">
-        <v>1.024472072376273</v>
+        <v>1.053527945113952</v>
       </c>
       <c r="E15">
-        <v>0.9915293337644046</v>
+        <v>1.043119051975758</v>
       </c>
       <c r="F15">
-        <v>1.017691244504543</v>
+        <v>1.060210240248317</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044819239371382</v>
+        <v>1.047343228544923</v>
       </c>
       <c r="J15">
-        <v>1.012672776050457</v>
+        <v>1.051907171650888</v>
       </c>
       <c r="K15">
-        <v>1.038877331787132</v>
+        <v>1.057015785013089</v>
       </c>
       <c r="L15">
-        <v>1.00653995507109</v>
+        <v>1.046644308184601</v>
       </c>
       <c r="M15">
-        <v>1.032216948975831</v>
+        <v>1.063674486445951</v>
       </c>
       <c r="N15">
-        <v>1.014110887547639</v>
+        <v>1.053401000490071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9879462510410871</v>
+        <v>1.046330279837527</v>
       </c>
       <c r="D16">
-        <v>1.02772182648496</v>
+        <v>1.05408640891098</v>
       </c>
       <c r="E16">
-        <v>0.9958837271215152</v>
+        <v>1.043887190707687</v>
       </c>
       <c r="F16">
-        <v>1.021734911797216</v>
+        <v>1.060932534582929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046830087784652</v>
+        <v>1.047625008449566</v>
       </c>
       <c r="J16">
-        <v>1.016568060842125</v>
+        <v>1.052576710875545</v>
       </c>
       <c r="K16">
-        <v>1.041572703536746</v>
+        <v>1.057460679563407</v>
       </c>
       <c r="L16">
-        <v>1.010290804415801</v>
+        <v>1.047296827668074</v>
       </c>
       <c r="M16">
-        <v>1.035686960815269</v>
+        <v>1.064283485216333</v>
       </c>
       <c r="N16">
-        <v>1.018011704090508</v>
+        <v>1.054071490537225</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9911597833569512</v>
+        <v>1.04688679258156</v>
       </c>
       <c r="D17">
-        <v>1.029723951167543</v>
+        <v>1.054436474137715</v>
       </c>
       <c r="E17">
-        <v>0.9985632401589546</v>
+        <v>1.044368703785966</v>
       </c>
       <c r="F17">
-        <v>1.024226297336324</v>
+        <v>1.061385449316868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048063457486364</v>
+        <v>1.047801156671652</v>
       </c>
       <c r="J17">
-        <v>1.018961968649558</v>
+        <v>1.052996165204062</v>
       </c>
       <c r="K17">
-        <v>1.043230138810765</v>
+        <v>1.057739297460203</v>
       </c>
       <c r="L17">
-        <v>1.01259650796411</v>
+        <v>1.047705636113336</v>
       </c>
       <c r="M17">
-        <v>1.037822479410782</v>
+        <v>1.064665144151194</v>
       </c>
       <c r="N17">
-        <v>1.020409011521611</v>
+        <v>1.054491540539</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9930115390455351</v>
+        <v>1.047211253759273</v>
       </c>
       <c r="D18">
-        <v>1.030879159777261</v>
+        <v>1.054640573908488</v>
       </c>
       <c r="E18">
-        <v>1.00010823791118</v>
+        <v>1.044649448444036</v>
       </c>
       <c r="F18">
-        <v>1.025663881049832</v>
+        <v>1.061649569717047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048773149945293</v>
+        <v>1.047903683604793</v>
       </c>
       <c r="J18">
-        <v>1.020341186838915</v>
+        <v>1.053240636348415</v>
       </c>
       <c r="K18">
-        <v>1.044185347782187</v>
+        <v>1.057901648154251</v>
       </c>
       <c r="L18">
-        <v>1.013925103289316</v>
+        <v>1.047943908488243</v>
       </c>
       <c r="M18">
-        <v>1.039053853749284</v>
+        <v>1.06488763425472</v>
       </c>
       <c r="N18">
-        <v>1.021790188358996</v>
+        <v>1.054736358860419</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936391918706446</v>
+        <v>1.047321862531153</v>
       </c>
       <c r="D19">
-        <v>1.031270965284825</v>
+        <v>1.054710151905314</v>
       </c>
       <c r="E19">
-        <v>1.000632073773469</v>
+        <v>1.044745155966015</v>
       </c>
       <c r="F19">
-        <v>1.026151473205857</v>
+        <v>1.061739618362586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049013523280973</v>
+        <v>1.047938605833896</v>
       </c>
       <c r="J19">
-        <v>1.020808628940601</v>
+        <v>1.053323962695243</v>
       </c>
       <c r="K19">
-        <v>1.044509132366407</v>
+        <v>1.057956978066192</v>
       </c>
       <c r="L19">
-        <v>1.014375420812454</v>
+        <v>1.048025123039039</v>
       </c>
       <c r="M19">
-        <v>1.039471358504347</v>
+        <v>1.064963476505615</v>
       </c>
       <c r="N19">
-        <v>1.022258294282082</v>
+        <v>1.054819803540218</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9908173661705933</v>
+        <v>1.046827098900281</v>
       </c>
       <c r="D20">
-        <v>1.029510456121553</v>
+        <v>1.054398924503357</v>
       </c>
       <c r="E20">
-        <v>0.9982776239756217</v>
+        <v>1.044317053793304</v>
       </c>
       <c r="F20">
-        <v>1.023960622993034</v>
+        <v>1.061336861782815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04793214118525</v>
+        <v>1.047782280129951</v>
       </c>
       <c r="J20">
-        <v>1.018706910440419</v>
+        <v>1.052951181356139</v>
       </c>
       <c r="K20">
-        <v>1.043053515764867</v>
+        <v>1.057709421212325</v>
       </c>
       <c r="L20">
-        <v>1.012350827051687</v>
+        <v>1.047661793349831</v>
       </c>
       <c r="M20">
-        <v>1.037594843847459</v>
+        <v>1.064624208721488</v>
       </c>
       <c r="N20">
-        <v>1.020153591100561</v>
+        <v>1.054446492808853</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.981369955917035</v>
+        <v>1.045216875415316</v>
       </c>
       <c r="D21">
-        <v>1.023635240613853</v>
+        <v>1.053386062462879</v>
       </c>
       <c r="E21">
-        <v>0.9904069870194385</v>
+        <v>1.042923904023373</v>
       </c>
       <c r="F21">
-        <v>1.01664999901364</v>
+        <v>1.060026782557923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044299691237519</v>
+        <v>1.04727149115163</v>
       </c>
       <c r="J21">
-        <v>1.011667783617435</v>
+        <v>1.051736995694789</v>
       </c>
       <c r="K21">
-        <v>1.038182257235821</v>
+        <v>1.056902675926479</v>
       </c>
       <c r="L21">
-        <v>1.005572410002129</v>
+        <v>1.046478463285578</v>
       </c>
       <c r="M21">
-        <v>1.031322651867066</v>
+        <v>1.063519739024488</v>
       </c>
       <c r="N21">
-        <v>1.013104467910089</v>
+        <v>1.053230582864595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9752030084953599</v>
+        <v>1.044203127376864</v>
       </c>
       <c r="D22">
-        <v>1.01981645839725</v>
+        <v>1.052748433705983</v>
       </c>
       <c r="E22">
-        <v>0.9852795284914158</v>
+        <v>1.04204691685029</v>
       </c>
       <c r="F22">
-        <v>1.011898376479077</v>
+        <v>1.059202546348942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041919995593628</v>
+        <v>1.046948366055733</v>
       </c>
       <c r="J22">
-        <v>1.007071510942026</v>
+        <v>1.050971849620571</v>
       </c>
       <c r="K22">
-        <v>1.035005310345502</v>
+        <v>1.056393964217062</v>
       </c>
       <c r="L22">
-        <v>1.001148351975496</v>
+        <v>1.045732816134757</v>
       </c>
       <c r="M22">
-        <v>1.027237752698756</v>
+        <v>1.062824166568752</v>
       </c>
       <c r="N22">
-        <v>1.008501668000281</v>
+        <v>1.052464350195188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9784949412903358</v>
+        <v>1.044740663311437</v>
       </c>
       <c r="D23">
-        <v>1.021853285607746</v>
+        <v>1.053086529553793</v>
       </c>
       <c r="E23">
-        <v>0.988015557733771</v>
+        <v>1.042511926323257</v>
       </c>
       <c r="F23">
-        <v>1.014432767816218</v>
+        <v>1.059639541615234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043191035691738</v>
+        <v>1.047119848353832</v>
       </c>
       <c r="J23">
-        <v>1.009525097371592</v>
+        <v>1.051377634479259</v>
       </c>
       <c r="K23">
-        <v>1.03670082458806</v>
+        <v>1.056663782871554</v>
       </c>
       <c r="L23">
-        <v>1.003509812542076</v>
+        <v>1.046128254806466</v>
       </c>
       <c r="M23">
-        <v>1.029417310948195</v>
+        <v>1.063193012601728</v>
       </c>
       <c r="N23">
-        <v>1.010958738804007</v>
+        <v>1.05287071131492</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9909721594906928</v>
+        <v>1.046854072348476</v>
       </c>
       <c r="D24">
-        <v>1.029606964152172</v>
+        <v>1.054415891837106</v>
       </c>
       <c r="E24">
-        <v>0.9984067368194499</v>
+        <v>1.044340392553661</v>
       </c>
       <c r="F24">
-        <v>1.024080717845966</v>
+        <v>1.061358816574893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047991507291965</v>
+        <v>1.047790810298373</v>
       </c>
       <c r="J24">
-        <v>1.018822212961976</v>
+        <v>1.05297150820647</v>
       </c>
       <c r="K24">
-        <v>1.043133359686953</v>
+        <v>1.05772292150486</v>
       </c>
       <c r="L24">
-        <v>1.012461889835507</v>
+        <v>1.047681604559876</v>
       </c>
       <c r="M24">
-        <v>1.037697746420957</v>
+        <v>1.064642706067026</v>
       </c>
       <c r="N24">
-        <v>1.020269057364924</v>
+        <v>1.054466848525644</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004571441539526</v>
+        <v>1.049300967971932</v>
       </c>
       <c r="D25">
-        <v>1.038114765847377</v>
+        <v>1.055955123603149</v>
       </c>
       <c r="E25">
-        <v>1.009768734820537</v>
+        <v>1.046457779634014</v>
       </c>
       <c r="F25">
-        <v>1.034670153156836</v>
+        <v>1.063351710960077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053184331006094</v>
+        <v>1.048560905164986</v>
       </c>
       <c r="J25">
-        <v>1.028945931814323</v>
+        <v>1.054813693780952</v>
       </c>
       <c r="K25">
-        <v>1.050148869766103</v>
+        <v>1.058945629713692</v>
       </c>
       <c r="L25">
-        <v>1.022217273128029</v>
+        <v>1.049477186980676</v>
       </c>
       <c r="M25">
-        <v>1.046753085594046</v>
+        <v>1.066320098127007</v>
       </c>
       <c r="N25">
-        <v>1.030407153059248</v>
+        <v>1.056311650214942</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.051248330555805</v>
+        <v>1.014810177245274</v>
       </c>
       <c r="D2">
-        <v>1.057180132492496</v>
+        <v>1.044555982582745</v>
       </c>
       <c r="E2">
-        <v>1.048143192356557</v>
+        <v>1.018346898273175</v>
       </c>
       <c r="F2">
-        <v>1.064939561016133</v>
+        <v>1.042692284548029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049168331995405</v>
+        <v>1.057058455570346</v>
       </c>
       <c r="J2">
-        <v>1.05627720495258</v>
+        <v>1.036556765154667</v>
       </c>
       <c r="K2">
-        <v>1.059915808933184</v>
+        <v>1.055427612777454</v>
       </c>
       <c r="L2">
-        <v>1.050903860449022</v>
+        <v>1.029556414687654</v>
       </c>
       <c r="M2">
-        <v>1.067654145098621</v>
+        <v>1.053587241743706</v>
       </c>
       <c r="N2">
-        <v>1.057777239740302</v>
+        <v>1.038028794655909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05265992944496</v>
+        <v>1.021934335484725</v>
       </c>
       <c r="D3">
-        <v>1.058068084271872</v>
+        <v>1.049054419217343</v>
       </c>
       <c r="E3">
-        <v>1.049365062568878</v>
+        <v>1.024327236046022</v>
       </c>
       <c r="F3">
-        <v>1.066091568972227</v>
+        <v>1.048298716268534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04960547009556</v>
+        <v>1.059731804081079</v>
       </c>
       <c r="J3">
-        <v>1.057336558526316</v>
+        <v>1.04184439801326</v>
       </c>
       <c r="K3">
-        <v>1.060617357570881</v>
+        <v>1.059095876104109</v>
       </c>
       <c r="L3">
-        <v>1.051936655679465</v>
+        <v>1.034658027171834</v>
       </c>
       <c r="M3">
-        <v>1.068620613010205</v>
+        <v>1.058348766221086</v>
       </c>
       <c r="N3">
-        <v>1.058838097717622</v>
+        <v>1.043323936559661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053572276119186</v>
+        <v>1.026412912208355</v>
       </c>
       <c r="D4">
-        <v>1.058641961211886</v>
+        <v>1.051888837580944</v>
       </c>
       <c r="E4">
-        <v>1.050154849252077</v>
+        <v>1.02809149894759</v>
       </c>
       <c r="F4">
-        <v>1.0668365929837</v>
+        <v>1.051833402429308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049886531038929</v>
+        <v>1.061401553595551</v>
       </c>
       <c r="J4">
-        <v>1.058020538702663</v>
+        <v>1.045164282740582</v>
       </c>
       <c r="K4">
-        <v>1.061069983700112</v>
+        <v>1.061398886830506</v>
       </c>
       <c r="L4">
-        <v>1.052603537049207</v>
+        <v>1.037862305956966</v>
       </c>
       <c r="M4">
-        <v>1.069244997405348</v>
+        <v>1.061344042314116</v>
       </c>
       <c r="N4">
-        <v>1.059523049224273</v>
+        <v>1.046648535904093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053955580140386</v>
+        <v>1.028265946377817</v>
       </c>
       <c r="D5">
-        <v>1.05888305618524</v>
+        <v>1.053062987436249</v>
       </c>
       <c r="E5">
-        <v>1.050486677166228</v>
+        <v>1.029650035479673</v>
       </c>
       <c r="F5">
-        <v>1.067149707368734</v>
+        <v>1.053298193204107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050004260476436</v>
+        <v>1.062089743879446</v>
       </c>
       <c r="J5">
-        <v>1.058307730436095</v>
+        <v>1.046536838551679</v>
       </c>
       <c r="K5">
-        <v>1.061259952790646</v>
+        <v>1.062350924257627</v>
       </c>
       <c r="L5">
-        <v>1.052883560905975</v>
+        <v>1.03918734116107</v>
       </c>
       <c r="M5">
-        <v>1.069507255212516</v>
+        <v>1.062583693541024</v>
       </c>
       <c r="N5">
-        <v>1.059810648802908</v>
+        <v>1.048023040901875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054019924272003</v>
+        <v>1.028575379640093</v>
       </c>
       <c r="D6">
-        <v>1.058923527587304</v>
+        <v>1.053259133073978</v>
       </c>
       <c r="E6">
-        <v>1.050542381011441</v>
+        <v>1.029910350945267</v>
       </c>
       <c r="F6">
-        <v>1.067202275231042</v>
+        <v>1.053542925410249</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050024002679189</v>
+        <v>1.06220450337116</v>
       </c>
       <c r="J6">
-        <v>1.058355930569384</v>
+        <v>1.046765973672208</v>
       </c>
       <c r="K6">
-        <v>1.061291831019183</v>
+        <v>1.062509849455901</v>
       </c>
       <c r="L6">
-        <v>1.05293055871594</v>
+        <v>1.039408559055764</v>
       </c>
       <c r="M6">
-        <v>1.069551275835909</v>
+        <v>1.06279071599542</v>
       </c>
       <c r="N6">
-        <v>1.059858917385915</v>
+        <v>1.048252501420558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05357739880826</v>
+        <v>1.026437787380459</v>
       </c>
       <c r="D7">
-        <v>1.058645183372759</v>
+        <v>1.051904594084157</v>
       </c>
       <c r="E7">
-        <v>1.050159283927676</v>
+        <v>1.028112416716764</v>
       </c>
       <c r="F7">
-        <v>1.066840777198464</v>
+        <v>1.051853056926655</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049888105827576</v>
+        <v>1.061410802568353</v>
       </c>
       <c r="J7">
-        <v>1.058024377557151</v>
+        <v>1.045182712250638</v>
       </c>
       <c r="K7">
-        <v>1.06107252331173</v>
+        <v>1.061411670497342</v>
       </c>
       <c r="L7">
-        <v>1.052607280045997</v>
+        <v>1.03788009632554</v>
       </c>
       <c r="M7">
-        <v>1.069248502621092</v>
+        <v>1.061360682239145</v>
       </c>
       <c r="N7">
-        <v>1.059526893530375</v>
+        <v>1.046666991586167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051725608116478</v>
+        <v>1.017246032109391</v>
       </c>
       <c r="D8">
-        <v>1.057480363237988</v>
+        <v>1.046092591724727</v>
       </c>
       <c r="E8">
-        <v>1.048556306439736</v>
+        <v>1.020390609162825</v>
       </c>
       <c r="F8">
-        <v>1.065328972321889</v>
+        <v>1.044606950626208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049316437795605</v>
+        <v>1.057974751219136</v>
       </c>
       <c r="J8">
-        <v>1.05663552973436</v>
+        <v>1.038365523112967</v>
       </c>
       <c r="K8">
-        <v>1.060153175511816</v>
+        <v>1.056682410174069</v>
       </c>
       <c r="L8">
-        <v>1.051253191754251</v>
+        <v>1.031301282588907</v>
       </c>
       <c r="M8">
-        <v>1.067980972854145</v>
+        <v>1.055214781018994</v>
       </c>
       <c r="N8">
-        <v>1.058136073384372</v>
+        <v>1.039840121257977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048454216399903</v>
+        <v>0.9999618921808009</v>
       </c>
       <c r="D9">
-        <v>1.055422463925075</v>
+        <v>1.035224686254034</v>
       </c>
       <c r="E9">
-        <v>1.045725008060489</v>
+        <v>1.005913396568765</v>
       </c>
       <c r="F9">
-        <v>1.062661782932721</v>
+        <v>1.031072321800624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048295256380686</v>
+        <v>1.051429590524406</v>
       </c>
       <c r="J9">
-        <v>1.054176603435648</v>
+        <v>1.025515996203788</v>
       </c>
       <c r="K9">
-        <v>1.058522958199082</v>
+        <v>1.047770997076047</v>
       </c>
       <c r="L9">
-        <v>1.048856184588174</v>
+        <v>1.018911256107985</v>
       </c>
       <c r="M9">
-        <v>1.065739771066025</v>
+        <v>1.043680614178705</v>
       </c>
       <c r="N9">
-        <v>1.055673655128273</v>
+        <v>1.026972346546726</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046267369000302</v>
+        <v>0.9875799545129191</v>
       </c>
       <c r="D10">
-        <v>1.054046836301113</v>
+        <v>1.027493826791046</v>
       </c>
       <c r="E10">
-        <v>1.043832759588853</v>
+        <v>0.9955784368118266</v>
       </c>
       <c r="F10">
-        <v>1.060881343056227</v>
+        <v>1.021451204239239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047605072551103</v>
+        <v>1.046689364723347</v>
       </c>
       <c r="J10">
-        <v>1.052529282754634</v>
+        <v>1.016295159636143</v>
       </c>
       <c r="K10">
-        <v>1.057429171031676</v>
+        <v>1.041383803001012</v>
       </c>
       <c r="L10">
-        <v>1.0472506041001</v>
+        <v>1.010027985506534</v>
       </c>
       <c r="M10">
-        <v>1.06424033708536</v>
+        <v>1.035443658844165</v>
       </c>
       <c r="N10">
-        <v>1.054023995062942</v>
+        <v>1.01773841533351</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045318959878337</v>
+        <v>0.9819813163938893</v>
       </c>
       <c r="D11">
-        <v>1.053450273545306</v>
+        <v>1.024014532566409</v>
       </c>
       <c r="E11">
-        <v>1.043012220894478</v>
+        <v>0.9909157429819818</v>
       </c>
       <c r="F11">
-        <v>1.060109806672348</v>
+        <v>1.017121940462714</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047303964377753</v>
+        <v>1.04453526235309</v>
       </c>
       <c r="J11">
-        <v>1.05181401501096</v>
+        <v>1.012123392316414</v>
       </c>
       <c r="K11">
-        <v>1.056953869081788</v>
+        <v>1.038497348145047</v>
       </c>
       <c r="L11">
-        <v>1.046553522166213</v>
+        <v>1.006011032844892</v>
       </c>
       <c r="M11">
-        <v>1.063589773544291</v>
+        <v>1.031728027750071</v>
       </c>
       <c r="N11">
-        <v>1.05330771155703</v>
+        <v>1.013560723625679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044966448052417</v>
+        <v>0.9798628344789401</v>
       </c>
       <c r="D12">
-        <v>1.053228545116226</v>
+        <v>1.022700759966495</v>
       </c>
       <c r="E12">
-        <v>1.042707253738071</v>
+        <v>0.989153146389632</v>
       </c>
       <c r="F12">
-        <v>1.059823131109918</v>
+        <v>1.015487254614353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047191778762562</v>
+        <v>1.043718689970082</v>
       </c>
       <c r="J12">
-        <v>1.051548032498836</v>
+        <v>1.010544580940409</v>
       </c>
       <c r="K12">
-        <v>1.056777065354286</v>
+        <v>1.03740559989176</v>
       </c>
       <c r="L12">
-        <v>1.046294311728169</v>
+        <v>1.004491147795602</v>
       </c>
       <c r="M12">
-        <v>1.063347927038186</v>
+        <v>1.030323638879729</v>
       </c>
       <c r="N12">
-        <v>1.05304135131923</v>
+        <v>1.011979670156428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045042073570904</v>
+        <v>0.9803190732045943</v>
       </c>
       <c r="D13">
-        <v>1.053276112918155</v>
+        <v>1.02298356531937</v>
       </c>
       <c r="E13">
-        <v>1.042772678567761</v>
+        <v>0.9895326601516765</v>
       </c>
       <c r="F13">
-        <v>1.059884628235126</v>
+        <v>1.015839140250585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047215858404311</v>
+        <v>1.043894612203393</v>
       </c>
       <c r="J13">
-        <v>1.0516051003122</v>
+        <v>1.010884604605769</v>
       </c>
       <c r="K13">
-        <v>1.056815001949199</v>
+        <v>1.037640695251632</v>
       </c>
       <c r="L13">
-        <v>1.046349926133289</v>
+        <v>1.004818465106947</v>
       </c>
       <c r="M13">
-        <v>1.063399812955864</v>
+        <v>1.030626014126543</v>
       </c>
       <c r="N13">
-        <v>1.053098500175434</v>
+        <v>1.012320176694394</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045289825880431</v>
+        <v>0.9818070158773337</v>
       </c>
       <c r="D14">
-        <v>1.053431948241553</v>
+        <v>1.023906382407824</v>
       </c>
       <c r="E14">
-        <v>1.042987015966481</v>
+        <v>0.9907706871758454</v>
       </c>
       <c r="F14">
-        <v>1.06008611188922</v>
+        <v>1.016987372435605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047294698040176</v>
+        <v>1.044468107021502</v>
       </c>
       <c r="J14">
-        <v>1.051792034965332</v>
+        <v>1.011993498055008</v>
       </c>
       <c r="K14">
-        <v>1.056939259654297</v>
+        <v>1.038407512520864</v>
       </c>
       <c r="L14">
-        <v>1.046532101553133</v>
+        <v>1.005885979693583</v>
       </c>
       <c r="M14">
-        <v>1.06356978649883</v>
+        <v>1.031612446502393</v>
       </c>
       <c r="N14">
-        <v>1.053285700297216</v>
+        <v>1.013430644899523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045442443519363</v>
+        <v>0.9827185274202717</v>
       </c>
       <c r="D15">
-        <v>1.053527945113952</v>
+        <v>1.024472072376273</v>
       </c>
       <c r="E15">
-        <v>1.043119051975758</v>
+        <v>0.9915293337644051</v>
       </c>
       <c r="F15">
-        <v>1.060210240248317</v>
+        <v>1.017691244504544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047343228544923</v>
+        <v>1.044819239371382</v>
       </c>
       <c r="J15">
-        <v>1.051907171650888</v>
+        <v>1.012672776050458</v>
       </c>
       <c r="K15">
-        <v>1.057015785013089</v>
+        <v>1.038877331787132</v>
       </c>
       <c r="L15">
-        <v>1.046644308184601</v>
+        <v>1.006539955071091</v>
       </c>
       <c r="M15">
-        <v>1.063674486445951</v>
+        <v>1.032216948975831</v>
       </c>
       <c r="N15">
-        <v>1.053401000490071</v>
+        <v>1.01411088754764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046330279837527</v>
+        <v>0.9879462510410868</v>
       </c>
       <c r="D16">
-        <v>1.05408640891098</v>
+        <v>1.027721826484959</v>
       </c>
       <c r="E16">
-        <v>1.043887190707687</v>
+        <v>0.9958837271215143</v>
       </c>
       <c r="F16">
-        <v>1.060932534582929</v>
+        <v>1.021734911797216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047625008449566</v>
+        <v>1.046830087784652</v>
       </c>
       <c r="J16">
-        <v>1.052576710875545</v>
+        <v>1.016568060842125</v>
       </c>
       <c r="K16">
-        <v>1.057460679563407</v>
+        <v>1.041572703536746</v>
       </c>
       <c r="L16">
-        <v>1.047296827668074</v>
+        <v>1.0102908044158</v>
       </c>
       <c r="M16">
-        <v>1.064283485216333</v>
+        <v>1.035686960815269</v>
       </c>
       <c r="N16">
-        <v>1.054071490537225</v>
+        <v>1.018011704090507</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04688679258156</v>
+        <v>0.9911597833569513</v>
       </c>
       <c r="D17">
-        <v>1.054436474137715</v>
+        <v>1.029723951167542</v>
       </c>
       <c r="E17">
-        <v>1.044368703785966</v>
+        <v>0.9985632401589547</v>
       </c>
       <c r="F17">
-        <v>1.061385449316868</v>
+        <v>1.024226297336324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047801156671652</v>
+        <v>1.048063457486364</v>
       </c>
       <c r="J17">
-        <v>1.052996165204062</v>
+        <v>1.018961968649558</v>
       </c>
       <c r="K17">
-        <v>1.057739297460203</v>
+        <v>1.043230138810765</v>
       </c>
       <c r="L17">
-        <v>1.047705636113336</v>
+        <v>1.01259650796411</v>
       </c>
       <c r="M17">
-        <v>1.064665144151194</v>
+        <v>1.037822479410782</v>
       </c>
       <c r="N17">
-        <v>1.054491540539</v>
+        <v>1.020409011521611</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047211253759273</v>
+        <v>0.9930115390455339</v>
       </c>
       <c r="D18">
-        <v>1.054640573908488</v>
+        <v>1.030879159777261</v>
       </c>
       <c r="E18">
-        <v>1.044649448444036</v>
+        <v>1.000108237911179</v>
       </c>
       <c r="F18">
-        <v>1.061649569717047</v>
+        <v>1.025663881049831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047903683604793</v>
+        <v>1.048773149945292</v>
       </c>
       <c r="J18">
-        <v>1.053240636348415</v>
+        <v>1.020341186838914</v>
       </c>
       <c r="K18">
-        <v>1.057901648154251</v>
+        <v>1.044185347782187</v>
       </c>
       <c r="L18">
-        <v>1.047943908488243</v>
+        <v>1.013925103289315</v>
       </c>
       <c r="M18">
-        <v>1.06488763425472</v>
+        <v>1.039053853749283</v>
       </c>
       <c r="N18">
-        <v>1.054736358860419</v>
+        <v>1.021790188358995</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047321862531153</v>
+        <v>0.9936391918706445</v>
       </c>
       <c r="D19">
-        <v>1.054710151905314</v>
+        <v>1.031270965284825</v>
       </c>
       <c r="E19">
-        <v>1.044745155966015</v>
+        <v>1.000632073773468</v>
       </c>
       <c r="F19">
-        <v>1.061739618362586</v>
+        <v>1.026151473205856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047938605833896</v>
+        <v>1.049013523280973</v>
       </c>
       <c r="J19">
-        <v>1.053323962695243</v>
+        <v>1.0208086289406</v>
       </c>
       <c r="K19">
-        <v>1.057956978066192</v>
+        <v>1.044509132366406</v>
       </c>
       <c r="L19">
-        <v>1.048025123039039</v>
+        <v>1.014375420812453</v>
       </c>
       <c r="M19">
-        <v>1.064963476505615</v>
+        <v>1.039471358504347</v>
       </c>
       <c r="N19">
-        <v>1.054819803540218</v>
+        <v>1.022258294282082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046827098900281</v>
+        <v>0.9908173661705936</v>
       </c>
       <c r="D20">
-        <v>1.054398924503357</v>
+        <v>1.029510456121553</v>
       </c>
       <c r="E20">
-        <v>1.044317053793304</v>
+        <v>0.998277623975622</v>
       </c>
       <c r="F20">
-        <v>1.061336861782815</v>
+        <v>1.023960622993034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047782280129951</v>
+        <v>1.04793214118525</v>
       </c>
       <c r="J20">
-        <v>1.052951181356139</v>
+        <v>1.01870691044042</v>
       </c>
       <c r="K20">
-        <v>1.057709421212325</v>
+        <v>1.043053515764867</v>
       </c>
       <c r="L20">
-        <v>1.047661793349831</v>
+        <v>1.012350827051687</v>
       </c>
       <c r="M20">
-        <v>1.064624208721488</v>
+        <v>1.037594843847459</v>
       </c>
       <c r="N20">
-        <v>1.054446492808853</v>
+        <v>1.020153591100561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045216875415316</v>
+        <v>0.9813699559170354</v>
       </c>
       <c r="D21">
-        <v>1.053386062462879</v>
+        <v>1.023635240613853</v>
       </c>
       <c r="E21">
-        <v>1.042923904023373</v>
+        <v>0.9904069870194386</v>
       </c>
       <c r="F21">
-        <v>1.060026782557923</v>
+        <v>1.016649999013641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04727149115163</v>
+        <v>1.04429969123752</v>
       </c>
       <c r="J21">
-        <v>1.051736995694789</v>
+        <v>1.011667783617435</v>
       </c>
       <c r="K21">
-        <v>1.056902675926479</v>
+        <v>1.038182257235821</v>
       </c>
       <c r="L21">
-        <v>1.046478463285578</v>
+        <v>1.005572410002129</v>
       </c>
       <c r="M21">
-        <v>1.063519739024488</v>
+        <v>1.031322651867067</v>
       </c>
       <c r="N21">
-        <v>1.053230582864595</v>
+        <v>1.013104467910089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044203127376864</v>
+        <v>0.9752030084953585</v>
       </c>
       <c r="D22">
-        <v>1.052748433705983</v>
+        <v>1.019816458397248</v>
       </c>
       <c r="E22">
-        <v>1.04204691685029</v>
+        <v>0.9852795284914148</v>
       </c>
       <c r="F22">
-        <v>1.059202546348942</v>
+        <v>1.011898376479076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046948366055733</v>
+        <v>1.041919995593628</v>
       </c>
       <c r="J22">
-        <v>1.050971849620571</v>
+        <v>1.007071510942025</v>
       </c>
       <c r="K22">
-        <v>1.056393964217062</v>
+        <v>1.035005310345501</v>
       </c>
       <c r="L22">
-        <v>1.045732816134757</v>
+        <v>1.001148351975495</v>
       </c>
       <c r="M22">
-        <v>1.062824166568752</v>
+        <v>1.027237752698755</v>
       </c>
       <c r="N22">
-        <v>1.052464350195188</v>
+        <v>1.00850166800028</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044740663311437</v>
+        <v>0.9784949412903354</v>
       </c>
       <c r="D23">
-        <v>1.053086529553793</v>
+        <v>1.021853285607746</v>
       </c>
       <c r="E23">
-        <v>1.042511926323257</v>
+        <v>0.9880155577337705</v>
       </c>
       <c r="F23">
-        <v>1.059639541615234</v>
+        <v>1.014432767816218</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047119848353832</v>
+        <v>1.043191035691739</v>
       </c>
       <c r="J23">
-        <v>1.051377634479259</v>
+        <v>1.009525097371592</v>
       </c>
       <c r="K23">
-        <v>1.056663782871554</v>
+        <v>1.03670082458806</v>
       </c>
       <c r="L23">
-        <v>1.046128254806466</v>
+        <v>1.003509812542076</v>
       </c>
       <c r="M23">
-        <v>1.063193012601728</v>
+        <v>1.029417310948195</v>
       </c>
       <c r="N23">
-        <v>1.05287071131492</v>
+        <v>1.010958738804007</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046854072348476</v>
+        <v>0.9909721594906933</v>
       </c>
       <c r="D24">
-        <v>1.054415891837106</v>
+        <v>1.029606964152172</v>
       </c>
       <c r="E24">
-        <v>1.044340392553661</v>
+        <v>0.9984067368194501</v>
       </c>
       <c r="F24">
-        <v>1.061358816574893</v>
+        <v>1.024080717845966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047790810298373</v>
+        <v>1.047991507291965</v>
       </c>
       <c r="J24">
-        <v>1.05297150820647</v>
+        <v>1.018822212961976</v>
       </c>
       <c r="K24">
-        <v>1.05772292150486</v>
+        <v>1.043133359686953</v>
       </c>
       <c r="L24">
-        <v>1.047681604559876</v>
+        <v>1.012461889835508</v>
       </c>
       <c r="M24">
-        <v>1.064642706067026</v>
+        <v>1.037697746420957</v>
       </c>
       <c r="N24">
-        <v>1.054466848525644</v>
+        <v>1.020269057364924</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049300967971932</v>
+        <v>1.004571441539527</v>
       </c>
       <c r="D25">
-        <v>1.055955123603149</v>
+        <v>1.038114765847377</v>
       </c>
       <c r="E25">
-        <v>1.046457779634014</v>
+        <v>1.009768734820537</v>
       </c>
       <c r="F25">
-        <v>1.063351710960077</v>
+        <v>1.034670153156837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048560905164986</v>
+        <v>1.053184331006094</v>
       </c>
       <c r="J25">
-        <v>1.054813693780952</v>
+        <v>1.028945931814323</v>
       </c>
       <c r="K25">
-        <v>1.058945629713692</v>
+        <v>1.050148869766104</v>
       </c>
       <c r="L25">
-        <v>1.049477186980676</v>
+        <v>1.022217273128028</v>
       </c>
       <c r="M25">
-        <v>1.066320098127007</v>
+        <v>1.046753085594046</v>
       </c>
       <c r="N25">
-        <v>1.056311650214942</v>
+        <v>1.030407153059248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014810177245274</v>
+        <v>0.997519259361619</v>
       </c>
       <c r="D2">
-        <v>1.044555982582745</v>
+        <v>1.036793216827585</v>
       </c>
       <c r="E2">
-        <v>1.018346898273175</v>
+        <v>1.0043438647395</v>
       </c>
       <c r="F2">
-        <v>1.042692284548029</v>
+        <v>1.025468920191677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057058455570346</v>
+        <v>1.050406556851564</v>
       </c>
       <c r="J2">
-        <v>1.036556765154667</v>
+        <v>1.019774422975122</v>
       </c>
       <c r="K2">
-        <v>1.055427612777454</v>
+        <v>1.047762700132708</v>
       </c>
       <c r="L2">
-        <v>1.029556414687654</v>
+        <v>1.015743012543531</v>
       </c>
       <c r="M2">
-        <v>1.053587241743706</v>
+        <v>1.036584478996952</v>
       </c>
       <c r="N2">
-        <v>1.038028794655909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010568615583822</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037526545374788</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044842629868985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021934335484725</v>
+        <v>1.001027239994607</v>
       </c>
       <c r="D3">
-        <v>1.049054419217343</v>
+        <v>1.038555124721338</v>
       </c>
       <c r="E3">
-        <v>1.024327236046022</v>
+        <v>1.00706893533282</v>
       </c>
       <c r="F3">
-        <v>1.048298716268534</v>
+        <v>1.028096863511649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059731804081079</v>
+        <v>1.051172239708046</v>
       </c>
       <c r="J3">
-        <v>1.04184439801326</v>
+        <v>1.021489940530145</v>
       </c>
       <c r="K3">
-        <v>1.059095876104109</v>
+        <v>1.048717353247556</v>
       </c>
       <c r="L3">
-        <v>1.034658027171834</v>
+        <v>1.017612159810044</v>
       </c>
       <c r="M3">
-        <v>1.058348766221086</v>
+        <v>1.038382431293801</v>
       </c>
       <c r="N3">
-        <v>1.043323936559661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011145482677581</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03894950855307</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045514995308672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026412912208355</v>
+        <v>1.00325734512838</v>
       </c>
       <c r="D4">
-        <v>1.051888837580944</v>
+        <v>1.039680419850417</v>
       </c>
       <c r="E4">
-        <v>1.02809149894759</v>
+        <v>1.008807108991269</v>
       </c>
       <c r="F4">
-        <v>1.051833402429308</v>
+        <v>1.029774248308621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061401553595551</v>
+        <v>1.051649720601898</v>
       </c>
       <c r="J4">
-        <v>1.045164282740582</v>
+        <v>1.022578093116113</v>
       </c>
       <c r="K4">
-        <v>1.061398886830506</v>
+        <v>1.049322410703428</v>
       </c>
       <c r="L4">
-        <v>1.037862305956966</v>
+        <v>1.018800389490188</v>
       </c>
       <c r="M4">
-        <v>1.061344042314116</v>
+        <v>1.039526129245278</v>
       </c>
       <c r="N4">
-        <v>1.046648535904093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01151138039526</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039854670180586</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045943702398133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028265946377817</v>
+        <v>1.004186140105299</v>
       </c>
       <c r="D5">
-        <v>1.053062987436249</v>
+        <v>1.040155556130733</v>
       </c>
       <c r="E5">
-        <v>1.029650035479673</v>
+        <v>1.009532511938774</v>
       </c>
       <c r="F5">
-        <v>1.053298193204107</v>
+        <v>1.030474299821276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062089743879446</v>
+        <v>1.051847974530619</v>
       </c>
       <c r="J5">
-        <v>1.046536838551679</v>
+        <v>1.023030931370603</v>
       </c>
       <c r="K5">
-        <v>1.062350924257627</v>
+        <v>1.049579268367968</v>
       </c>
       <c r="L5">
-        <v>1.03918734116107</v>
+        <v>1.019295484009129</v>
       </c>
       <c r="M5">
-        <v>1.062583693541024</v>
+        <v>1.040002590162121</v>
       </c>
       <c r="N5">
-        <v>1.048023040901875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011663887953406</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040231757289668</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046132430308676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028575379640093</v>
+        <v>1.004342181191695</v>
       </c>
       <c r="D6">
-        <v>1.053259133073978</v>
+        <v>1.040241857889216</v>
       </c>
       <c r="E6">
-        <v>1.029910350945267</v>
+        <v>1.009654619678776</v>
       </c>
       <c r="F6">
-        <v>1.053542925410249</v>
+        <v>1.030591851035273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06220450337116</v>
+        <v>1.051883157075768</v>
       </c>
       <c r="J6">
-        <v>1.046765973672208</v>
+        <v>1.023107280035369</v>
       </c>
       <c r="K6">
-        <v>1.062509849455901</v>
+        <v>1.049628877146816</v>
       </c>
       <c r="L6">
-        <v>1.039408559055764</v>
+        <v>1.019378965901234</v>
       </c>
       <c r="M6">
-        <v>1.06279071599542</v>
+        <v>1.040082640504673</v>
       </c>
       <c r="N6">
-        <v>1.048252501420558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011689895875976</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04029511178938</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046176180205708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026437787380459</v>
+        <v>1.003271430793235</v>
       </c>
       <c r="D7">
-        <v>1.051904594084157</v>
+        <v>1.0397047404112</v>
       </c>
       <c r="E7">
-        <v>1.028112416716764</v>
+        <v>1.00881853199301</v>
       </c>
       <c r="F7">
-        <v>1.051853056926655</v>
+        <v>1.029784438708769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061410802568353</v>
+        <v>1.051658057736681</v>
       </c>
       <c r="J7">
-        <v>1.045182712250638</v>
+        <v>1.022585761431541</v>
       </c>
       <c r="K7">
-        <v>1.061411670497342</v>
+        <v>1.049343615889092</v>
       </c>
       <c r="L7">
-        <v>1.03788009632554</v>
+        <v>1.018808711478818</v>
       </c>
       <c r="M7">
-        <v>1.061360682239145</v>
+        <v>1.039533319869151</v>
       </c>
       <c r="N7">
-        <v>1.046666991586167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011514766161129</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039860361082343</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045978641344087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017246032109391</v>
+        <v>0.9987150115068076</v>
       </c>
       <c r="D8">
-        <v>1.046092591724727</v>
+        <v>1.037413612488272</v>
       </c>
       <c r="E8">
-        <v>1.020390609162825</v>
+        <v>1.005272065179612</v>
       </c>
       <c r="F8">
-        <v>1.044606950626208</v>
+        <v>1.026362691708346</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057974751219136</v>
+        <v>1.050675751835242</v>
       </c>
       <c r="J8">
-        <v>1.038365523112967</v>
+        <v>1.020360554324436</v>
       </c>
       <c r="K8">
-        <v>1.056682410174069</v>
+        <v>1.048109563116667</v>
       </c>
       <c r="L8">
-        <v>1.031301282588907</v>
+        <v>1.01638109344429</v>
       </c>
       <c r="M8">
-        <v>1.055214781018994</v>
+        <v>1.037197022519751</v>
       </c>
       <c r="N8">
-        <v>1.039840121257977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010766755692971</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038011334349255</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045110597926935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9999618921808009</v>
+        <v>0.9903666143656916</v>
       </c>
       <c r="D9">
-        <v>1.035224686254034</v>
+        <v>1.033232184594031</v>
       </c>
       <c r="E9">
-        <v>1.005913396568765</v>
+        <v>0.9988206619550689</v>
       </c>
       <c r="F9">
-        <v>1.031072321800624</v>
+        <v>1.020149313502532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051429590524406</v>
+        <v>1.048796165214037</v>
       </c>
       <c r="J9">
-        <v>1.025515996203788</v>
+        <v>1.016264199461633</v>
       </c>
       <c r="K9">
-        <v>1.047770997076047</v>
+        <v>1.045808158031451</v>
       </c>
       <c r="L9">
-        <v>1.018911256107985</v>
+        <v>1.011932902118941</v>
       </c>
       <c r="M9">
-        <v>1.043680614178705</v>
+        <v>1.032923727174869</v>
       </c>
       <c r="N9">
-        <v>1.026972346546726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009388396372372</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03462928782986</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043480241665603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9875799545129191</v>
+        <v>0.9846249581510517</v>
       </c>
       <c r="D10">
-        <v>1.027493826791046</v>
+        <v>1.030391339162854</v>
       </c>
       <c r="E10">
-        <v>0.9955784368118266</v>
+        <v>0.9944245057710105</v>
       </c>
       <c r="F10">
-        <v>1.021451204239239</v>
+        <v>1.01608968073401</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046689364723347</v>
+        <v>1.047481628767921</v>
       </c>
       <c r="J10">
-        <v>1.016295159636143</v>
+        <v>1.013462153795056</v>
       </c>
       <c r="K10">
-        <v>1.041383803001012</v>
+        <v>1.044232725114009</v>
       </c>
       <c r="L10">
-        <v>1.010027985506534</v>
+        <v>1.008895162505485</v>
       </c>
       <c r="M10">
-        <v>1.035443658844165</v>
+        <v>1.030174383245077</v>
       </c>
       <c r="N10">
-        <v>1.01773841533351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008450237175316</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032505159095539</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04238299639543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9819813163938893</v>
+        <v>0.9825066954027716</v>
       </c>
       <c r="D11">
-        <v>1.024014532566409</v>
+        <v>1.029344600554053</v>
       </c>
       <c r="E11">
-        <v>0.9909157429819818</v>
+        <v>0.9928661033248836</v>
       </c>
       <c r="F11">
-        <v>1.017121940462714</v>
+        <v>1.015976538880841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04453526235309</v>
+        <v>1.047165136858007</v>
       </c>
       <c r="J11">
-        <v>1.012123392316414</v>
+        <v>1.01262576927787</v>
       </c>
       <c r="K11">
-        <v>1.038497348145047</v>
+        <v>1.043733555897587</v>
       </c>
       <c r="L11">
-        <v>1.006011032844892</v>
+        <v>1.00792382025441</v>
       </c>
       <c r="M11">
-        <v>1.031728027750071</v>
+        <v>1.030603322050536</v>
       </c>
       <c r="N11">
-        <v>1.013560723625679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008207721421071</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033283456975707</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04206260568178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9798628344789401</v>
+        <v>0.9818441070131297</v>
       </c>
       <c r="D12">
-        <v>1.022700759966495</v>
+        <v>1.028993786035785</v>
       </c>
       <c r="E12">
-        <v>0.989153146389632</v>
+        <v>0.9924018782987036</v>
       </c>
       <c r="F12">
-        <v>1.015487254614353</v>
+        <v>1.016497805491844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043718689970082</v>
+        <v>1.047125572297901</v>
       </c>
       <c r="J12">
-        <v>1.010544580940409</v>
+        <v>1.012437240863535</v>
       </c>
       <c r="K12">
-        <v>1.03740559989176</v>
+        <v>1.043585822233829</v>
       </c>
       <c r="L12">
-        <v>1.004491147795602</v>
+        <v>1.007676108568403</v>
       </c>
       <c r="M12">
-        <v>1.030323638879729</v>
+        <v>1.031315615033677</v>
       </c>
       <c r="N12">
-        <v>1.011979670156428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008174062622172</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03417482818434</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041958155039377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9803190732045943</v>
+        <v>0.9822595678584698</v>
       </c>
       <c r="D13">
-        <v>1.02298356531937</v>
+        <v>1.029174790133973</v>
       </c>
       <c r="E13">
-        <v>0.9895326601516765</v>
+        <v>0.9927484471784762</v>
       </c>
       <c r="F13">
-        <v>1.015839140250585</v>
+        <v>1.017562812900867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043894612203393</v>
+        <v>1.047307363917215</v>
       </c>
       <c r="J13">
-        <v>1.010884604605769</v>
+        <v>1.01273873950797</v>
       </c>
       <c r="K13">
-        <v>1.037640695251632</v>
+        <v>1.04372137630907</v>
       </c>
       <c r="L13">
-        <v>1.004818465106947</v>
+        <v>1.007971400908416</v>
       </c>
       <c r="M13">
-        <v>1.030626014126543</v>
+        <v>1.032318167542965</v>
       </c>
       <c r="N13">
-        <v>1.012320176694394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008301312833491</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035245253824721</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042051525117402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9818070158773337</v>
+        <v>0.9830332324482874</v>
       </c>
       <c r="D14">
-        <v>1.023906382407824</v>
+        <v>1.029543662494882</v>
       </c>
       <c r="E14">
-        <v>0.9907706871758454</v>
+        <v>0.9933535362562871</v>
       </c>
       <c r="F14">
-        <v>1.016987372435605</v>
+        <v>1.018540500634558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044468107021502</v>
+        <v>1.04753184311819</v>
       </c>
       <c r="J14">
-        <v>1.011993498055008</v>
+        <v>1.013165979049012</v>
       </c>
       <c r="K14">
-        <v>1.038407512520864</v>
+        <v>1.043945404473313</v>
       </c>
       <c r="L14">
-        <v>1.005885979693583</v>
+        <v>1.00841902816826</v>
       </c>
       <c r="M14">
-        <v>1.031612446502393</v>
+        <v>1.033137562190457</v>
       </c>
       <c r="N14">
-        <v>1.013430644899523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008461369602963</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036066809537132</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042211328880217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9827185274202717</v>
+        <v>0.9834619899212952</v>
       </c>
       <c r="D15">
-        <v>1.024472072376273</v>
+        <v>1.029757688864672</v>
       </c>
       <c r="E15">
-        <v>0.9915293337644051</v>
+        <v>0.9936830406075865</v>
       </c>
       <c r="F15">
-        <v>1.017691244504544</v>
+        <v>1.018928771085402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044819239371382</v>
+        <v>1.047641142897175</v>
       </c>
       <c r="J15">
-        <v>1.012672776050458</v>
+        <v>1.013383965884877</v>
       </c>
       <c r="K15">
-        <v>1.038877331787132</v>
+        <v>1.04407048604284</v>
       </c>
       <c r="L15">
-        <v>1.006539955071091</v>
+        <v>1.008652480657722</v>
       </c>
       <c r="M15">
-        <v>1.032216948975831</v>
+        <v>1.033432338601637</v>
       </c>
       <c r="N15">
-        <v>1.01411088754764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008538177877609</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036337433061935</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042305581083136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9879462510410868</v>
+        <v>0.9858062035746694</v>
       </c>
       <c r="D16">
-        <v>1.027721826484959</v>
+        <v>1.030927197812294</v>
       </c>
       <c r="E16">
-        <v>0.9958837271215143</v>
+        <v>0.9954657406255625</v>
       </c>
       <c r="F16">
-        <v>1.021734911797216</v>
+        <v>1.020490332437504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046830087784652</v>
+        <v>1.048178013516051</v>
       </c>
       <c r="J16">
-        <v>1.016568060842125</v>
+        <v>1.014515880308227</v>
       </c>
       <c r="K16">
-        <v>1.041572703536746</v>
+        <v>1.044724529843003</v>
       </c>
       <c r="L16">
-        <v>1.0102908044158</v>
+        <v>1.009880427919269</v>
       </c>
       <c r="M16">
-        <v>1.035686960815269</v>
+        <v>1.034463605941893</v>
       </c>
       <c r="N16">
-        <v>1.018011704090507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008912372659598</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037113724082617</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042771147222406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9911597833569513</v>
+        <v>0.9872042948172578</v>
       </c>
       <c r="D17">
-        <v>1.029723951167542</v>
+        <v>1.031635529429916</v>
       </c>
       <c r="E17">
-        <v>0.9985632401589547</v>
+        <v>0.9965221590389073</v>
       </c>
       <c r="F17">
-        <v>1.024226297336324</v>
+        <v>1.021174425835208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048063457486364</v>
+        <v>1.048472017959137</v>
       </c>
       <c r="J17">
-        <v>1.018961968649558</v>
+        <v>1.015163231715772</v>
       </c>
       <c r="K17">
-        <v>1.043230138810765</v>
+        <v>1.04511071381822</v>
       </c>
       <c r="L17">
-        <v>1.01259650796411</v>
+        <v>1.010591443437195</v>
       </c>
       <c r="M17">
-        <v>1.037822479410782</v>
+        <v>1.034821104411955</v>
       </c>
       <c r="N17">
-        <v>1.020409011521611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009116464689455</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037266894509039</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043046756541536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9930115390455339</v>
+        <v>0.9879020218853009</v>
       </c>
       <c r="D18">
-        <v>1.030879159777261</v>
+        <v>1.03199104847931</v>
       </c>
       <c r="E18">
-        <v>1.000108237911179</v>
+        <v>0.997033019234143</v>
       </c>
       <c r="F18">
-        <v>1.025663881049831</v>
+        <v>1.021059030025055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048773149945292</v>
+        <v>1.048566031481498</v>
       </c>
       <c r="J18">
-        <v>1.020341186838914</v>
+        <v>1.015429998186405</v>
       </c>
       <c r="K18">
-        <v>1.044185347782187</v>
+        <v>1.045279514065665</v>
       </c>
       <c r="L18">
-        <v>1.013925103289315</v>
+        <v>1.010903163918482</v>
       </c>
       <c r="M18">
-        <v>1.039053853749283</v>
+        <v>1.034523895270257</v>
       </c>
       <c r="N18">
-        <v>1.021790188358995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009183757068743</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036793430871372</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043154570705922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9936391918706445</v>
+        <v>0.987934684880552</v>
       </c>
       <c r="D19">
-        <v>1.031270965284825</v>
+        <v>1.032035247155961</v>
       </c>
       <c r="E19">
-        <v>1.000632073773468</v>
+        <v>0.9970230900607272</v>
       </c>
       <c r="F19">
-        <v>1.026151473205856</v>
+        <v>1.020153458211137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049013523280973</v>
+        <v>1.048468708374309</v>
       </c>
       <c r="J19">
-        <v>1.0208086289406</v>
+        <v>1.015324040502489</v>
       </c>
       <c r="K19">
-        <v>1.044509132366406</v>
+        <v>1.04526130370775</v>
       </c>
       <c r="L19">
-        <v>1.014375420812453</v>
+        <v>1.010828586934182</v>
       </c>
       <c r="M19">
-        <v>1.039471358504347</v>
+        <v>1.033570425481577</v>
       </c>
       <c r="N19">
-        <v>1.022258294282082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009120564911841</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035712572293819</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043148032164835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908173661705936</v>
+        <v>0.9861158122072087</v>
       </c>
       <c r="D20">
-        <v>1.029510456121553</v>
+        <v>1.031167306494684</v>
       </c>
       <c r="E20">
-        <v>0.998277623975622</v>
+        <v>0.9955648364598264</v>
       </c>
       <c r="F20">
-        <v>1.023960622993034</v>
+        <v>1.017147602180895</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04793214118525</v>
+        <v>1.047838221468189</v>
       </c>
       <c r="J20">
-        <v>1.01870691044042</v>
+        <v>1.014192640457005</v>
       </c>
       <c r="K20">
-        <v>1.043053515764867</v>
+        <v>1.044683395121879</v>
       </c>
       <c r="L20">
-        <v>1.012350827051687</v>
+        <v>1.009686123777366</v>
       </c>
       <c r="M20">
-        <v>1.037594843847459</v>
+        <v>1.030895487331576</v>
       </c>
       <c r="N20">
-        <v>1.020153591100561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008697328946743</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033065215532648</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042743313708766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9813699559170354</v>
+        <v>0.9817234113637852</v>
       </c>
       <c r="D21">
-        <v>1.023635240613853</v>
+        <v>1.028999297960078</v>
       </c>
       <c r="E21">
-        <v>0.9904069870194386</v>
+        <v>0.9922032645174115</v>
       </c>
       <c r="F21">
-        <v>1.016649999013641</v>
+        <v>1.013786780736479</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04429969123752</v>
+        <v>1.046779231223139</v>
       </c>
       <c r="J21">
-        <v>1.011667783617435</v>
+        <v>1.012005654612841</v>
       </c>
       <c r="K21">
-        <v>1.038182257235821</v>
+        <v>1.043451337660046</v>
       </c>
       <c r="L21">
-        <v>1.005572410002129</v>
+        <v>1.007333869438016</v>
       </c>
       <c r="M21">
-        <v>1.031322651867067</v>
+        <v>1.028511582629125</v>
       </c>
       <c r="N21">
-        <v>1.013104467910089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007958059540783</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031137333820456</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041875404162981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9752030084953585</v>
+        <v>0.9789341607267815</v>
       </c>
       <c r="D22">
-        <v>1.019816458397248</v>
+        <v>1.027613383615296</v>
       </c>
       <c r="E22">
-        <v>0.9852795284914148</v>
+        <v>0.9900794510365589</v>
       </c>
       <c r="F22">
-        <v>1.011898376479076</v>
+        <v>1.011749728051207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041919995593628</v>
+        <v>1.046105030700327</v>
       </c>
       <c r="J22">
-        <v>1.007071510942025</v>
+        <v>1.010627630817094</v>
       </c>
       <c r="K22">
-        <v>1.035005310345501</v>
+        <v>1.04265696850989</v>
       </c>
       <c r="L22">
-        <v>1.001148351975495</v>
+        <v>1.005850031389276</v>
       </c>
       <c r="M22">
-        <v>1.027237752698755</v>
+        <v>1.027091959607485</v>
       </c>
       <c r="N22">
-        <v>1.00850166800028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007493405690476</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030013781627425</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041300377147545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9784949412903354</v>
+        <v>0.9804173540636247</v>
       </c>
       <c r="D23">
-        <v>1.021853285607746</v>
+        <v>1.028335154620274</v>
       </c>
       <c r="E23">
-        <v>0.9880155577337705</v>
+        <v>0.9912076230623315</v>
       </c>
       <c r="F23">
-        <v>1.014432767816218</v>
+        <v>1.012832586750314</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043191035691739</v>
+        <v>1.046460632914592</v>
       </c>
       <c r="J23">
-        <v>1.009525097371592</v>
+        <v>1.011360228548595</v>
       </c>
       <c r="K23">
-        <v>1.03670082458806</v>
+        <v>1.04306512210395</v>
       </c>
       <c r="L23">
-        <v>1.003509812542076</v>
+        <v>1.006638391712744</v>
       </c>
       <c r="M23">
-        <v>1.029417310948195</v>
+        <v>1.027847017346188</v>
       </c>
       <c r="N23">
-        <v>1.010958738804007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00773954363219</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030611367807861</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041579411776746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909721594906933</v>
+        <v>0.9861434703356632</v>
       </c>
       <c r="D24">
-        <v>1.029606964152172</v>
+        <v>1.031159640050293</v>
       </c>
       <c r="E24">
-        <v>0.9984067368194501</v>
+        <v>0.9955799249079902</v>
       </c>
       <c r="F24">
-        <v>1.024080717845966</v>
+        <v>1.017031585697169</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047991507291965</v>
+        <v>1.047820885986796</v>
       </c>
       <c r="J24">
-        <v>1.018822212961976</v>
+        <v>1.014185551034168</v>
       </c>
       <c r="K24">
-        <v>1.043133359686953</v>
+        <v>1.044660795474929</v>
       </c>
       <c r="L24">
-        <v>1.012461889835508</v>
+        <v>1.009685109208555</v>
       </c>
       <c r="M24">
-        <v>1.037697746420957</v>
+        <v>1.030766066521074</v>
       </c>
       <c r="N24">
-        <v>1.020269057364924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008690293969071</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032921627959708</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042700180151722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004571441539527</v>
+        <v>0.9925661458533468</v>
       </c>
       <c r="D25">
-        <v>1.038114765847377</v>
+        <v>1.034354338488902</v>
       </c>
       <c r="E25">
-        <v>1.009768734820537</v>
+        <v>1.00051536284431</v>
       </c>
       <c r="F25">
-        <v>1.034670153156837</v>
+        <v>1.021778778530182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053184331006094</v>
+        <v>1.049306875750633</v>
       </c>
       <c r="J25">
-        <v>1.028945931814323</v>
+        <v>1.017346305173891</v>
       </c>
       <c r="K25">
-        <v>1.050148869766104</v>
+        <v>1.046441768293646</v>
       </c>
       <c r="L25">
-        <v>1.022217273128028</v>
+        <v>1.013105683733018</v>
       </c>
       <c r="M25">
-        <v>1.046753085594046</v>
+        <v>1.034048159139193</v>
       </c>
       <c r="N25">
-        <v>1.030407153059248</v>
+        <v>1.009753893479256</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035519207104379</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043956564732803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.997519259361619</v>
+        <v>0.9976281535710718</v>
       </c>
       <c r="D2">
-        <v>1.036793216827585</v>
+        <v>1.033938573678365</v>
       </c>
       <c r="E2">
-        <v>1.0043438647395</v>
+        <v>1.004436260000164</v>
       </c>
       <c r="F2">
-        <v>1.025468920191677</v>
+        <v>1.02532413997741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050406556851564</v>
+        <v>1.049389361557417</v>
       </c>
       <c r="J2">
-        <v>1.019774422975122</v>
+        <v>1.019880038332138</v>
       </c>
       <c r="K2">
-        <v>1.047762700132708</v>
+        <v>1.044944502829081</v>
       </c>
       <c r="L2">
-        <v>1.015743012543531</v>
+        <v>1.015834134735429</v>
       </c>
       <c r="M2">
-        <v>1.036584478996952</v>
+        <v>1.036441592516514</v>
       </c>
       <c r="N2">
-        <v>1.010568615583822</v>
+        <v>1.012512901165935</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037526545374788</v>
+        <v>1.037413459827774</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044842629868985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042858656788623</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024030647317827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001027239994607</v>
+        <v>1.001079571437559</v>
       </c>
       <c r="D3">
-        <v>1.038555124721338</v>
+        <v>1.035545132891197</v>
       </c>
       <c r="E3">
-        <v>1.00706893533282</v>
+        <v>1.007112434311353</v>
       </c>
       <c r="F3">
-        <v>1.028096863511649</v>
+        <v>1.02792018961632</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051172239708046</v>
+        <v>1.050083440417037</v>
       </c>
       <c r="J3">
-        <v>1.021489940530145</v>
+        <v>1.021540849449347</v>
       </c>
       <c r="K3">
-        <v>1.048717353247556</v>
+        <v>1.045742543695929</v>
       </c>
       <c r="L3">
-        <v>1.017612159810044</v>
+        <v>1.017655111944598</v>
       </c>
       <c r="M3">
-        <v>1.038382431293801</v>
+        <v>1.038207867726584</v>
       </c>
       <c r="N3">
-        <v>1.011145482677581</v>
+        <v>1.012957612065551</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03894950855307</v>
+        <v>1.038811352882425</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045514995308672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043420012257547</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024144349517622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00325734512838</v>
+        <v>1.003274000451504</v>
       </c>
       <c r="D4">
-        <v>1.039680419850417</v>
+        <v>1.036571875884643</v>
       </c>
       <c r="E4">
-        <v>1.008807108991269</v>
+        <v>1.008819719437269</v>
       </c>
       <c r="F4">
-        <v>1.029774248308621</v>
+        <v>1.029577388907846</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051649720601898</v>
+        <v>1.050515359125753</v>
       </c>
       <c r="J4">
-        <v>1.022578093116113</v>
+        <v>1.022594326132767</v>
       </c>
       <c r="K4">
-        <v>1.049322410703428</v>
+        <v>1.046248072130764</v>
       </c>
       <c r="L4">
-        <v>1.018800389490188</v>
+        <v>1.018812851015415</v>
       </c>
       <c r="M4">
-        <v>1.039526129245278</v>
+        <v>1.039331480009381</v>
       </c>
       <c r="N4">
-        <v>1.01151138039526</v>
+        <v>1.013239705818239</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039854670180586</v>
+        <v>1.039700618206638</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045943702398133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043778432145854</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024213818765235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004186140105299</v>
+        <v>1.004188005859858</v>
       </c>
       <c r="D5">
-        <v>1.040155556130733</v>
+        <v>1.037005754049501</v>
       </c>
       <c r="E5">
-        <v>1.009532511938774</v>
+        <v>1.009532299403839</v>
       </c>
       <c r="F5">
-        <v>1.030474299821276</v>
+        <v>1.03026907820314</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051847974530619</v>
+        <v>1.050694589458505</v>
       </c>
       <c r="J5">
-        <v>1.023030931370603</v>
+        <v>1.023032751222158</v>
       </c>
       <c r="K5">
-        <v>1.049579268367968</v>
+        <v>1.046463228173899</v>
       </c>
       <c r="L5">
-        <v>1.019295484009129</v>
+        <v>1.019295273916926</v>
       </c>
       <c r="M5">
-        <v>1.040002590162121</v>
+        <v>1.039799611486931</v>
       </c>
       <c r="N5">
-        <v>1.011663887953406</v>
+        <v>1.013357278350514</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040231757289668</v>
+        <v>1.040071113199845</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046132430308676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04393839584763</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024243472148631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004342181191695</v>
+        <v>1.004341574346962</v>
       </c>
       <c r="D6">
-        <v>1.040241857889216</v>
+        <v>1.037084806591444</v>
       </c>
       <c r="E6">
-        <v>1.009654619678776</v>
+        <v>1.009652252933471</v>
       </c>
       <c r="F6">
-        <v>1.030591851035273</v>
+        <v>1.030385257511863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051883157075768</v>
+        <v>1.050726530611746</v>
       </c>
       <c r="J6">
-        <v>1.023107280035369</v>
+        <v>1.023106688044608</v>
       </c>
       <c r="K6">
-        <v>1.049628877146816</v>
+        <v>1.046505514449162</v>
       </c>
       <c r="L6">
-        <v>1.019378965901234</v>
+        <v>1.019376626232684</v>
       </c>
       <c r="M6">
-        <v>1.040082640504673</v>
+        <v>1.039878294635178</v>
       </c>
       <c r="N6">
-        <v>1.011689895875976</v>
+        <v>1.013377317348359</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04029511178938</v>
+        <v>1.040133385670519</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046176180205708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043977848601539</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024250118532467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003271430793235</v>
+        <v>1.003296142561323</v>
       </c>
       <c r="D7">
-        <v>1.0397047404112</v>
+        <v>1.036596452472205</v>
       </c>
       <c r="E7">
-        <v>1.00881853199301</v>
+        <v>1.008838298043811</v>
       </c>
       <c r="F7">
-        <v>1.029784438708769</v>
+        <v>1.029591081435073</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051658057736681</v>
+        <v>1.050526188037615</v>
       </c>
       <c r="J7">
-        <v>1.022585761431541</v>
+        <v>1.022609846876563</v>
       </c>
       <c r="K7">
-        <v>1.049343615889092</v>
+        <v>1.046269517167741</v>
       </c>
       <c r="L7">
-        <v>1.018808711478818</v>
+        <v>1.018828244192905</v>
       </c>
       <c r="M7">
-        <v>1.039533319869151</v>
+        <v>1.039342132655641</v>
       </c>
       <c r="N7">
-        <v>1.011514766161129</v>
+        <v>1.013270361904389</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039860361082343</v>
+        <v>1.039709049071227</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045978641344087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043815565321521</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024219290073082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987150115068076</v>
+        <v>0.9988300070087512</v>
       </c>
       <c r="D8">
-        <v>1.037413612488272</v>
+        <v>1.034510239711621</v>
       </c>
       <c r="E8">
-        <v>1.005272065179612</v>
+        <v>1.005370405464142</v>
       </c>
       <c r="F8">
-        <v>1.026362691708346</v>
+        <v>1.026218075317465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050675751835242</v>
+        <v>1.049642948061593</v>
       </c>
       <c r="J8">
-        <v>1.020360554324436</v>
+        <v>1.02047220279676</v>
       </c>
       <c r="K8">
-        <v>1.048109563116667</v>
+        <v>1.045242189786268</v>
       </c>
       <c r="L8">
-        <v>1.01638109344429</v>
+        <v>1.016478119301148</v>
       </c>
       <c r="M8">
-        <v>1.037197022519751</v>
+        <v>1.037054241687327</v>
       </c>
       <c r="N8">
-        <v>1.010766755692971</v>
+        <v>1.012751018840362</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038011334349255</v>
+        <v>1.037898332492698</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045110597926935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043094151016623</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024076905354862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9903666143656916</v>
+        <v>0.9906218304045699</v>
       </c>
       <c r="D9">
-        <v>1.033232184594031</v>
+        <v>1.030701462700826</v>
       </c>
       <c r="E9">
-        <v>0.9988206619550689</v>
+        <v>0.999040036172497</v>
       </c>
       <c r="F9">
-        <v>1.020149313502532</v>
+        <v>1.020082840033723</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048796165214037</v>
+        <v>1.04793505363028</v>
       </c>
       <c r="J9">
-        <v>1.016264199461633</v>
+        <v>1.016510158644846</v>
       </c>
       <c r="K9">
-        <v>1.045808158031451</v>
+        <v>1.043315321743514</v>
       </c>
       <c r="L9">
-        <v>1.011932902118941</v>
+        <v>1.012148707344225</v>
       </c>
       <c r="M9">
-        <v>1.032923727174869</v>
+        <v>1.032858278564037</v>
       </c>
       <c r="N9">
-        <v>1.009388396372372</v>
+        <v>1.011699104064556</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03462928782986</v>
+        <v>1.034577489214247</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043480241665603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041728313193943</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023785506838848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9846249581510517</v>
+        <v>0.9850155553320807</v>
       </c>
       <c r="D10">
-        <v>1.030391339162854</v>
+        <v>1.028124081730543</v>
       </c>
       <c r="E10">
-        <v>0.9944245057710105</v>
+        <v>0.9947612981291915</v>
       </c>
       <c r="F10">
-        <v>1.01608968073401</v>
+        <v>1.01609414977224</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047481628767921</v>
+        <v>1.046751537191325</v>
       </c>
       <c r="J10">
-        <v>1.013462153795056</v>
+        <v>1.013836566338971</v>
       </c>
       <c r="K10">
-        <v>1.044232725114009</v>
+        <v>1.042003458735294</v>
       </c>
       <c r="L10">
-        <v>1.008895162505485</v>
+        <v>1.009225787571055</v>
       </c>
       <c r="M10">
-        <v>1.030174383245077</v>
+        <v>1.030178774866556</v>
       </c>
       <c r="N10">
-        <v>1.008450237175316</v>
+        <v>1.011103808895728</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032505159095539</v>
+        <v>1.032508634588751</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04238299639543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040819110435773</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023577570327952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9825066954027716</v>
+        <v>0.9830088813405577</v>
       </c>
       <c r="D11">
-        <v>1.029344600554053</v>
+        <v>1.027175854155612</v>
       </c>
       <c r="E11">
-        <v>0.9928661033248836</v>
+        <v>0.9932997753862695</v>
       </c>
       <c r="F11">
-        <v>1.015976538880841</v>
+        <v>1.016037230874727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047165136858007</v>
+        <v>1.04650598057806</v>
       </c>
       <c r="J11">
-        <v>1.01262576927787</v>
+        <v>1.013106001443707</v>
       </c>
       <c r="K11">
-        <v>1.043733555897587</v>
+        <v>1.041602847853068</v>
       </c>
       <c r="L11">
-        <v>1.00792382025441</v>
+        <v>1.008349164043878</v>
       </c>
       <c r="M11">
-        <v>1.030603322050536</v>
+        <v>1.030662915898445</v>
       </c>
       <c r="N11">
-        <v>1.008207721421071</v>
+        <v>1.011165881895592</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033283456975707</v>
+        <v>1.033330595013003</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04206260568178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040571649909726</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023527810966803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9818441070131297</v>
+        <v>0.9823931357367206</v>
       </c>
       <c r="D12">
-        <v>1.028993786035785</v>
+        <v>1.026854350443302</v>
       </c>
       <c r="E12">
-        <v>0.9924018782987036</v>
+        <v>0.9928756233809078</v>
       </c>
       <c r="F12">
-        <v>1.016497805491844</v>
+        <v>1.016582964316551</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047125572297901</v>
+        <v>1.046493739535745</v>
       </c>
       <c r="J12">
-        <v>1.012437240863535</v>
+        <v>1.012961804748644</v>
       </c>
       <c r="K12">
-        <v>1.043585822233829</v>
+        <v>1.041484534998421</v>
       </c>
       <c r="L12">
-        <v>1.007676108568403</v>
+        <v>1.00814059998239</v>
       </c>
       <c r="M12">
-        <v>1.031315615033677</v>
+        <v>1.031399210769402</v>
       </c>
       <c r="N12">
-        <v>1.008174062622172</v>
+        <v>1.011250952183195</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03417482818434</v>
+        <v>1.034240928832239</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041958155039377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040488001784065</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023514430525853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9822595678584698</v>
+        <v>0.9827972575411693</v>
       </c>
       <c r="D13">
-        <v>1.029174790133973</v>
+        <v>1.027010279170993</v>
       </c>
       <c r="E13">
-        <v>0.9927484471784762</v>
+        <v>0.9932112846907866</v>
       </c>
       <c r="F13">
-        <v>1.017562812900867</v>
+        <v>1.017644874254766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047307363917215</v>
+        <v>1.046667000069114</v>
       </c>
       <c r="J13">
-        <v>1.01273873950797</v>
+        <v>1.013252586181664</v>
       </c>
       <c r="K13">
-        <v>1.04372137630907</v>
+        <v>1.041595315800464</v>
       </c>
       <c r="L13">
-        <v>1.007971400908416</v>
+        <v>1.008425236379874</v>
       </c>
       <c r="M13">
-        <v>1.032318167542965</v>
+        <v>1.032398731781275</v>
       </c>
       <c r="N13">
-        <v>1.008301312833491</v>
+        <v>1.011324916482957</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035245253824721</v>
+        <v>1.035308941297445</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042051525117402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040563610269621</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023535033232256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9830332324482874</v>
+        <v>0.9835376695615383</v>
       </c>
       <c r="D14">
-        <v>1.029543662494882</v>
+        <v>1.027337503313922</v>
       </c>
       <c r="E14">
-        <v>0.9933535362562871</v>
+        <v>0.9937867363657905</v>
       </c>
       <c r="F14">
-        <v>1.018540500634558</v>
+        <v>1.018608493697293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04753184311819</v>
+        <v>1.046869787829394</v>
       </c>
       <c r="J14">
-        <v>1.013165979049012</v>
+        <v>1.013648366167671</v>
       </c>
       <c r="K14">
-        <v>1.043945404473313</v>
+        <v>1.04177797261338</v>
       </c>
       <c r="L14">
-        <v>1.00841902816826</v>
+        <v>1.008843908817682</v>
       </c>
       <c r="M14">
-        <v>1.033137562190457</v>
+        <v>1.033204331454032</v>
       </c>
       <c r="N14">
-        <v>1.008461369602963</v>
+        <v>1.011371573051202</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036066809537132</v>
+        <v>1.036119584681814</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042211328880217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040694301535283</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023565096748134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9834619899212952</v>
+        <v>0.9839463479684405</v>
       </c>
       <c r="D15">
-        <v>1.029757688864672</v>
+        <v>1.027529054401083</v>
       </c>
       <c r="E15">
-        <v>0.9936830406075865</v>
+        <v>0.9940986034783701</v>
       </c>
       <c r="F15">
-        <v>1.018928771085402</v>
+        <v>1.018987674839738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047641142897175</v>
+        <v>1.046966117227055</v>
       </c>
       <c r="J15">
-        <v>1.013383965884877</v>
+        <v>1.013847336084958</v>
       </c>
       <c r="K15">
-        <v>1.04407048604284</v>
+        <v>1.041880687253323</v>
       </c>
       <c r="L15">
-        <v>1.008652480657722</v>
+        <v>1.009060124369678</v>
       </c>
       <c r="M15">
-        <v>1.033432338601637</v>
+        <v>1.033490190422453</v>
       </c>
       <c r="N15">
-        <v>1.008538177877609</v>
+        <v>1.011385647017675</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036337433061935</v>
+        <v>1.036383158557257</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042305581083136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040773315927733</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023582147260939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9858062035746694</v>
+        <v>0.9861812305853815</v>
       </c>
       <c r="D16">
-        <v>1.030927197812294</v>
+        <v>1.02858101214333</v>
       </c>
       <c r="E16">
-        <v>0.9954657406255625</v>
+        <v>0.9957861892459795</v>
       </c>
       <c r="F16">
-        <v>1.020490332437504</v>
+        <v>1.020496630987557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048178013516051</v>
+        <v>1.047430344444013</v>
       </c>
       <c r="J16">
-        <v>1.014515880308227</v>
+        <v>1.014875470148661</v>
       </c>
       <c r="K16">
-        <v>1.044724529843003</v>
+        <v>1.042417494495753</v>
       </c>
       <c r="L16">
-        <v>1.009880427919269</v>
+        <v>1.010195041603231</v>
       </c>
       <c r="M16">
-        <v>1.034463605941893</v>
+        <v>1.034469796910989</v>
       </c>
       <c r="N16">
-        <v>1.008912372659598</v>
+        <v>1.011449231576034</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037113724082617</v>
+        <v>1.037118617501912</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042771147222406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041156299977411</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023671442861434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9872042948172578</v>
+        <v>0.9875216144756527</v>
       </c>
       <c r="D17">
-        <v>1.031635529429916</v>
+        <v>1.029222147946877</v>
       </c>
       <c r="E17">
-        <v>0.9965221590389073</v>
+        <v>0.9967926566505253</v>
       </c>
       <c r="F17">
-        <v>1.021174425835208</v>
+        <v>1.021151414666634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048472017959137</v>
+        <v>1.04768279187052</v>
       </c>
       <c r="J17">
-        <v>1.015163231715772</v>
+        <v>1.015467910721579</v>
       </c>
       <c r="K17">
-        <v>1.04511071381822</v>
+        <v>1.042736498686991</v>
       </c>
       <c r="L17">
-        <v>1.010591443437195</v>
+        <v>1.010857156894807</v>
       </c>
       <c r="M17">
-        <v>1.034821104411955</v>
+        <v>1.034798475464271</v>
       </c>
       <c r="N17">
-        <v>1.009116464689455</v>
+        <v>1.011503393634935</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037266894509039</v>
+        <v>1.037249006518327</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043046756541536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04138466390438</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023724016388169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9879020218853009</v>
+        <v>0.988189848374045</v>
       </c>
       <c r="D18">
-        <v>1.03199104847931</v>
+        <v>1.029547588092615</v>
       </c>
       <c r="E18">
-        <v>0.997033019234143</v>
+        <v>0.9972782644115405</v>
       </c>
       <c r="F18">
-        <v>1.021059030025055</v>
+        <v>1.02101928995615</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048566031481498</v>
+        <v>1.047754907918613</v>
       </c>
       <c r="J18">
-        <v>1.015429998186405</v>
+        <v>1.015706575462132</v>
       </c>
       <c r="K18">
-        <v>1.045279514065665</v>
+        <v>1.042875064637587</v>
       </c>
       <c r="L18">
-        <v>1.010903163918482</v>
+        <v>1.011144144524802</v>
       </c>
       <c r="M18">
-        <v>1.034523895270257</v>
+        <v>1.034484805306623</v>
       </c>
       <c r="N18">
-        <v>1.009183757068743</v>
+        <v>1.011509418921061</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036793430871372</v>
+        <v>1.036762524110351</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043154570705922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041469954456468</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02374404451517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.987934684880552</v>
+        <v>0.9882154094108819</v>
       </c>
       <c r="D19">
-        <v>1.032035247155961</v>
+        <v>1.029595019961447</v>
       </c>
       <c r="E19">
-        <v>0.9970230900607272</v>
+        <v>0.9972626600945353</v>
       </c>
       <c r="F19">
-        <v>1.020153458211137</v>
+        <v>1.020107669089167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048468708374309</v>
+        <v>1.047653143226748</v>
       </c>
       <c r="J19">
-        <v>1.015324040502489</v>
+        <v>1.01559385867636</v>
       </c>
       <c r="K19">
-        <v>1.04526130370775</v>
+        <v>1.042859824113381</v>
       </c>
       <c r="L19">
-        <v>1.010828586934182</v>
+        <v>1.011064013331971</v>
       </c>
       <c r="M19">
-        <v>1.033570425481577</v>
+        <v>1.033525383130008</v>
       </c>
       <c r="N19">
-        <v>1.009120564911841</v>
+        <v>1.011446982918989</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035712572293819</v>
+        <v>1.035676947499263</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043148032164835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041466146008694</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023735811370451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9861158122072087</v>
+        <v>0.9864482031569026</v>
       </c>
       <c r="D20">
-        <v>1.031167306494684</v>
+        <v>1.028824413059262</v>
       </c>
       <c r="E20">
-        <v>0.9955648364598264</v>
+        <v>0.9958504714589538</v>
       </c>
       <c r="F20">
-        <v>1.017147602180895</v>
+        <v>1.017123894553559</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047838221468189</v>
+        <v>1.047065703106161</v>
       </c>
       <c r="J20">
-        <v>1.014192640457005</v>
+        <v>1.014511707655156</v>
       </c>
       <c r="K20">
-        <v>1.044683395121879</v>
+        <v>1.042378673131223</v>
       </c>
       <c r="L20">
-        <v>1.009686123777366</v>
+        <v>1.009966679873826</v>
       </c>
       <c r="M20">
-        <v>1.030895487331576</v>
+        <v>1.030872178656345</v>
       </c>
       <c r="N20">
-        <v>1.008697328946743</v>
+        <v>1.011186869718825</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033065215532648</v>
+        <v>1.03304676901305</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042743313708766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041130226451516</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023641646244887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9817234113637852</v>
+        <v>0.982271923563683</v>
       </c>
       <c r="D21">
-        <v>1.028999297960078</v>
+        <v>1.026883896824889</v>
       </c>
       <c r="E21">
-        <v>0.9922032645174115</v>
+        <v>0.9926794820133574</v>
       </c>
       <c r="F21">
-        <v>1.013786780736479</v>
+        <v>1.013865925985847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046779231223139</v>
+        <v>1.046146423047929</v>
       </c>
       <c r="J21">
-        <v>1.012005654612841</v>
+        <v>1.012530013731634</v>
       </c>
       <c r="K21">
-        <v>1.043451337660046</v>
+        <v>1.041373238499003</v>
       </c>
       <c r="L21">
-        <v>1.007333869438016</v>
+        <v>1.00780088387898</v>
       </c>
       <c r="M21">
-        <v>1.028511582629125</v>
+        <v>1.028589281218265</v>
       </c>
       <c r="N21">
-        <v>1.007958059540783</v>
+        <v>1.011072389713501</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031137333820456</v>
+        <v>1.031198827854103</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041875404162981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040422867955674</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023475586702137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9789341607267815</v>
+        <v>0.9796191086586777</v>
       </c>
       <c r="D22">
-        <v>1.027613383615296</v>
+        <v>1.025642422537825</v>
       </c>
       <c r="E22">
-        <v>0.9900794510365589</v>
+        <v>0.9906761102029908</v>
       </c>
       <c r="F22">
-        <v>1.011749728051207</v>
+        <v>1.011894236915167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046105030700327</v>
+        <v>1.045560799407805</v>
       </c>
       <c r="J22">
-        <v>1.010627630817094</v>
+        <v>1.011280655263044</v>
       </c>
       <c r="K22">
-        <v>1.04265696850989</v>
+        <v>1.04072245704551</v>
       </c>
       <c r="L22">
-        <v>1.005850031389276</v>
+        <v>1.006434565997112</v>
       </c>
       <c r="M22">
-        <v>1.027091959607485</v>
+        <v>1.02723369263544</v>
       </c>
       <c r="N22">
-        <v>1.007493405690476</v>
+        <v>1.010995924369202</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030013781627425</v>
+        <v>1.030125955470678</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041300377147545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039948042138733</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023364890522079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9804173540636247</v>
+        <v>0.9810164031922315</v>
       </c>
       <c r="D23">
-        <v>1.028335154620274</v>
+        <v>1.026285550964353</v>
       </c>
       <c r="E23">
-        <v>0.9912076230623315</v>
+        <v>0.9917282903217578</v>
       </c>
       <c r="F23">
-        <v>1.012832586750314</v>
+        <v>1.012936343506899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046460632914592</v>
+        <v>1.045864664198669</v>
       </c>
       <c r="J23">
-        <v>1.011360228548595</v>
+        <v>1.011932179779813</v>
       </c>
       <c r="K23">
-        <v>1.04306512210395</v>
+        <v>1.041052486447373</v>
       </c>
       <c r="L23">
-        <v>1.006638391712744</v>
+        <v>1.007148754484017</v>
       </c>
       <c r="M23">
-        <v>1.027847017346188</v>
+        <v>1.027948832443367</v>
       </c>
       <c r="N23">
-        <v>1.00773954363219</v>
+        <v>1.010993267561443</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030611367807861</v>
+        <v>1.03069194875183</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041579411776746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040170890754168</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02341987547822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9861434703356632</v>
+        <v>0.9864743433794078</v>
       </c>
       <c r="D24">
-        <v>1.031159640050293</v>
+        <v>1.028817615379156</v>
       </c>
       <c r="E24">
-        <v>0.9955799249079902</v>
+        <v>0.9958643739780541</v>
       </c>
       <c r="F24">
-        <v>1.017031585697169</v>
+        <v>1.017006735896548</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047820885986796</v>
+        <v>1.047047539789632</v>
       </c>
       <c r="J24">
-        <v>1.014185551034168</v>
+        <v>1.014503180894415</v>
       </c>
       <c r="K24">
-        <v>1.044660795474929</v>
+        <v>1.042356880007989</v>
       </c>
       <c r="L24">
-        <v>1.009685109208555</v>
+        <v>1.009964507184157</v>
       </c>
       <c r="M24">
-        <v>1.030766066521074</v>
+        <v>1.030741634480026</v>
       </c>
       <c r="N24">
-        <v>1.008690293969071</v>
+        <v>1.011177205490339</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032921627959708</v>
+        <v>1.03290229143093</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042700180151722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04108496151412</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023634285852558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9925661458533468</v>
+        <v>0.9927740607827779</v>
       </c>
       <c r="D25">
-        <v>1.034354338488902</v>
+        <v>1.031721724853452</v>
       </c>
       <c r="E25">
-        <v>1.00051536284431</v>
+        <v>1.000693615357465</v>
       </c>
       <c r="F25">
-        <v>1.021778778530182</v>
+        <v>1.021687400320949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049306875750633</v>
+        <v>1.048396814252723</v>
       </c>
       <c r="J25">
-        <v>1.017346305173891</v>
+        <v>1.017547077928447</v>
       </c>
       <c r="K25">
-        <v>1.046441768293646</v>
+        <v>1.043846780107478</v>
       </c>
       <c r="L25">
-        <v>1.013105683733018</v>
+        <v>1.013281173374963</v>
       </c>
       <c r="M25">
-        <v>1.034048159139193</v>
+        <v>1.03395812385595</v>
       </c>
       <c r="N25">
-        <v>1.009753893479256</v>
+        <v>1.01194485590203</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035519207104379</v>
+        <v>1.035447949713897</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043956564732803</v>
+        <v>1.04213525011299</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023870810413973</v>
       </c>
     </row>
   </sheetData>
